--- a/on_trucks/Processed_Stand_Alone/16_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/16_455-55R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>109</v>
       </c>
       <c r="E2">
-        <v>0.04853334415597101</v>
+        <v>0.05006871881067964</v>
       </c>
       <c r="F2">
         <v>0.50914070175385</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>131</v>
       </c>
       <c r="E3">
-        <v>0.01534164246581193</v>
+        <v>0.01531230265387533</v>
       </c>
       <c r="F3">
         <v>0.5180877981565484</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>131</v>
       </c>
       <c r="E4">
-        <v>0.01322281727093861</v>
+        <v>0.01252093636086236</v>
       </c>
       <c r="F4">
         <v>0.5107388302913618</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>113</v>
       </c>
       <c r="E5">
-        <v>0.0367410262681482</v>
+        <v>0.03469145590822811</v>
       </c>
       <c r="F5">
         <v>0.5045834372643955</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>126</v>
       </c>
       <c r="E6">
-        <v>0.02924890327586118</v>
+        <v>0.02897671090433112</v>
       </c>
       <c r="F6">
         <v>0.5043051991760819</v>
       </c>
       <c r="G6">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>144</v>
       </c>
       <c r="E2">
-        <v>0.04853334415597101</v>
+        <v>0.05006871881067964</v>
       </c>
       <c r="F2">
         <v>0.7012590494041905</v>
       </c>
       <c r="G2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>149</v>
       </c>
       <c r="E3">
-        <v>0.01534164246581193</v>
+        <v>0.01531230265387533</v>
       </c>
       <c r="F3">
         <v>0.7179878361406322</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>149</v>
       </c>
       <c r="E4">
-        <v>0.01322281727093861</v>
+        <v>0.01252093636086236</v>
       </c>
       <c r="F4">
         <v>0.7122897558606034</v>
       </c>
       <c r="G4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>147</v>
       </c>
       <c r="E5">
-        <v>0.0367410262681482</v>
+        <v>0.03469145590822811</v>
       </c>
       <c r="F5">
         <v>0.7020719001773912</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>150</v>
       </c>
       <c r="E6">
-        <v>0.02924890327586118</v>
+        <v>0.02897671090433112</v>
       </c>
       <c r="F6">
         <v>0.7040039716875959</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>157</v>
       </c>
       <c r="E2">
-        <v>0.04853334415597101</v>
+        <v>0.05006871881067964</v>
       </c>
       <c r="F2">
         <v>0.8088307742615514</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>168</v>
       </c>
       <c r="E3">
-        <v>0.01534164246581193</v>
+        <v>0.01531230265387533</v>
       </c>
       <c r="F3">
         <v>0.8116722769372124</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>168</v>
       </c>
       <c r="E4">
-        <v>0.01322281727093861</v>
+        <v>0.01252093636086236</v>
       </c>
       <c r="F4">
         <v>0.8009680011300512</v>
       </c>
       <c r="G4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>158</v>
       </c>
       <c r="E5">
-        <v>0.0367410262681482</v>
+        <v>0.03469145590822811</v>
       </c>
       <c r="F5">
         <v>0.8072019292531752</v>
       </c>
       <c r="G5">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>175</v>
       </c>
       <c r="E6">
-        <v>0.02924890327586118</v>
+        <v>0.02897671090433112</v>
       </c>
       <c r="F6">
         <v>0.8023840782992335</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>176</v>
       </c>
       <c r="E2">
-        <v>0.04853334415597101</v>
+        <v>0.05006871881067964</v>
       </c>
       <c r="F2">
         <v>0.9000930421181996</v>
       </c>
       <c r="G2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>194</v>
       </c>
       <c r="E3">
-        <v>0.01534164246581193</v>
+        <v>0.01531230265387533</v>
       </c>
       <c r="F3">
         <v>0.9054243092043461</v>
       </c>
       <c r="G3">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>194</v>
       </c>
       <c r="E4">
-        <v>0.01322281727093861</v>
+        <v>0.01252093636086236</v>
       </c>
       <c r="F4">
         <v>0.9086741424958732</v>
       </c>
       <c r="G4">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
         <v>187</v>
       </c>
       <c r="E5">
-        <v>0.0367410262681482</v>
+        <v>0.03469145590822811</v>
       </c>
       <c r="F5">
         <v>0.9015870862261282</v>
       </c>
       <c r="G5">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>195</v>
       </c>
       <c r="E6">
-        <v>0.02924890327586118</v>
+        <v>0.02897671090433112</v>
       </c>
       <c r="F6">
         <v>0.9181513020434179</v>
       </c>
       <c r="G6">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H6">
         <v>16</v>

--- a/on_trucks/Processed_Stand_Alone/16_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/16_455-55R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.388135775196521E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002558910007843834</v>
+        <v>0.0002189412483846313</v>
       </c>
       <c r="D2">
-        <v>0.0004590616372866301</v>
+        <v>0.0004235650389155916</v>
       </c>
       <c r="E2">
-        <v>0.0008196297065732599</v>
+        <v>0.0007867120288156023</v>
       </c>
       <c r="F2">
-        <v>0.001174475295395089</v>
+        <v>0.001144095608883829</v>
       </c>
       <c r="G2">
-        <v>0.001305805606062207</v>
+        <v>0.00127636524411735</v>
       </c>
       <c r="H2">
-        <v>0.001195355997091095</v>
+        <v>0.001165125657337389</v>
       </c>
       <c r="I2">
-        <v>0.001076808587462249</v>
+        <v>0.001045730351335025</v>
       </c>
       <c r="J2">
-        <v>0.000896915342850676</v>
+        <v>0.000864550441496399</v>
       </c>
       <c r="K2">
-        <v>0.001109903390150328</v>
+        <v>0.001079061860698259</v>
       </c>
       <c r="L2">
-        <v>0.0008170267663618398</v>
+        <v>0.0007840904713811433</v>
       </c>
       <c r="M2">
-        <v>0.0005382422137179601</v>
+        <v>0.0005033119450863857</v>
       </c>
       <c r="N2">
-        <v>0.0001405767214181447</v>
+        <v>0.00010280219722797</v>
       </c>
       <c r="O2">
-        <v>5.163333919384471E-05</v>
+        <v>1.322265794656874E-05</v>
       </c>
       <c r="P2">
-        <v>1.061362986207703E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.220033080319037E-08</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>3.850458312748013E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001487289120802948</v>
+        <v>0.0001110126954728864</v>
       </c>
       <c r="T2">
-        <v>0.0003571514090091164</v>
+        <v>0.0003209259097430563</v>
       </c>
       <c r="U2">
-        <v>0.0004957354402654077</v>
+        <v>0.0004605011469472269</v>
       </c>
       <c r="V2">
-        <v>0.0006346364915474485</v>
+        <v>0.0006003956716255125</v>
       </c>
       <c r="W2">
-        <v>0.0005562279451788256</v>
+        <v>0.0005214263173714454</v>
       </c>
       <c r="X2">
-        <v>0.0006022062489133479</v>
+        <v>0.000567733475503707</v>
       </c>
       <c r="Y2">
-        <v>0.0006734155546972228</v>
+        <v>0.0006394520974533586</v>
       </c>
       <c r="Z2">
-        <v>0.0006624415538058752</v>
+        <v>0.000628399606314203</v>
       </c>
       <c r="AA2">
-        <v>0.000621713550497801</v>
+        <v>0.0005873803007633071</v>
       </c>
       <c r="AB2">
-        <v>0.0003863861813836693</v>
+        <v>0.0003503697803809507</v>
       </c>
       <c r="AC2">
-        <v>0.0002454946699399562</v>
+        <v>0.0002084705590093135</v>
       </c>
       <c r="AD2">
-        <v>0.000117301489527647</v>
+        <v>7.936049198495837E-05</v>
       </c>
       <c r="AE2">
-        <v>5.63912405802985E-05</v>
+        <v>1.801458966184847E-05</v>
       </c>
       <c r="AF2">
-        <v>1.250426701564134E-05</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>5.260223927254224E-07</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>9.210040348072458E-05</v>
+        <v>5.397915814067944E-05</v>
       </c>
       <c r="AI2">
-        <v>0.0003099043951715447</v>
+        <v>0.0002733409672082834</v>
       </c>
       <c r="AJ2">
-        <v>0.0003690859299784809</v>
+        <v>0.0003329457909668649</v>
       </c>
       <c r="AK2">
-        <v>0.0006056721491948608</v>
+        <v>0.0005712241652284382</v>
       </c>
       <c r="AL2">
-        <v>0.0005812900472144593</v>
+        <v>0.0005466676731376777</v>
       </c>
       <c r="AM2">
-        <v>0.0008170267663618398</v>
+        <v>0.0007840904713811433</v>
       </c>
       <c r="AN2">
-        <v>0.0009550541775729203</v>
+        <v>0.0009231051073808418</v>
       </c>
       <c r="AO2">
-        <v>0.0007861146038510431</v>
+        <v>0.0007529572132717792</v>
       </c>
       <c r="AP2">
-        <v>0.0007997797249609732</v>
+        <v>0.0007667200725496631</v>
       </c>
       <c r="AQ2">
-        <v>0.00077425409288769</v>
+        <v>0.0007410118714018259</v>
       </c>
       <c r="AR2">
-        <v>0.0006101591195593087</v>
+        <v>0.0005757432281195133</v>
       </c>
       <c r="AS2">
-        <v>0.000406708453034317</v>
+        <v>0.0003708374046840789</v>
       </c>
       <c r="AT2">
-        <v>0.0001431052616235218</v>
+        <v>0.0001053488225191128</v>
       </c>
       <c r="AU2">
-        <v>5.814709472291525E-05</v>
+        <v>1.978300234424786E-05</v>
       </c>
       <c r="AV2">
-        <v>8.113365658996612E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>1.976733160557346E-05</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>9.278569753638662E-05</v>
+        <v>5.466935368129512E-05</v>
       </c>
       <c r="AY2">
-        <v>0.0003181545758416539</v>
+        <v>0.0002816501563231402</v>
       </c>
       <c r="AZ2">
-        <v>0.0005004738706502799</v>
+        <v>0.0004652734683968815</v>
       </c>
       <c r="BA2">
-        <v>0.0007428053603333114</v>
+        <v>0.0007093382054948916</v>
       </c>
       <c r="BB2">
-        <v>0.0008899800722873684</v>
+        <v>0.0008575655672278868</v>
       </c>
       <c r="BC2">
-        <v>0.0009846655799780645</v>
+        <v>0.0009529283018512258</v>
       </c>
       <c r="BD2">
-        <v>0.001109246790096996</v>
+        <v>0.001078400564390444</v>
       </c>
       <c r="BE2">
-        <v>0.001156200893910777</v>
+        <v>0.001125690501897007</v>
       </c>
       <c r="BF2">
-        <v>0.001200972897547319</v>
+        <v>0.001170782732012031</v>
       </c>
       <c r="BG2">
-        <v>0.001082140087895293</v>
+        <v>0.001051099984696462</v>
       </c>
       <c r="BH2">
-        <v>0.0007263646089979347</v>
+        <v>0.0006927798636235527</v>
       </c>
       <c r="BI2">
-        <v>0.0005462585143690726</v>
+        <v>0.0005113855813829787</v>
       </c>
       <c r="BJ2">
-        <v>0.0002076354168648921</v>
+        <v>0.0001703405220893136</v>
       </c>
       <c r="BK2">
-        <v>8.988711730095355E-05</v>
+        <v>5.175004169240013E-05</v>
       </c>
       <c r="BL2">
-        <v>3.178309658153692E-07</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>9.414920764713578E-05</v>
+        <v>5.60426161373868E-05</v>
       </c>
       <c r="BN2">
-        <v>0.0003261295464894096</v>
+        <v>0.0002896821670083992</v>
       </c>
       <c r="BO2">
-        <v>0.0007057902973268154</v>
+        <v>0.0006720583966134158</v>
       </c>
       <c r="BP2">
-        <v>0.0009060218735903409</v>
+        <v>0.0008737221056237412</v>
       </c>
       <c r="BQ2">
-        <v>0.001106874089904277</v>
+        <v>0.001076010893739279</v>
       </c>
       <c r="BR2">
-        <v>0.001316788706954294</v>
+        <v>0.001287426900343927</v>
       </c>
       <c r="BS2">
-        <v>0.001537773924903505</v>
+        <v>0.001509992689015745</v>
       </c>
       <c r="BT2">
-        <v>0.001321194907312181</v>
+        <v>0.00129186461553049</v>
       </c>
       <c r="BU2">
-        <v>0.001031512283783121</v>
+        <v>0.001000110071183163</v>
       </c>
       <c r="BV2">
-        <v>0.0009060218735903409</v>
+        <v>0.0008737221056237412</v>
       </c>
       <c r="BW2">
-        <v>0.0007997797249609732</v>
+        <v>0.0007667200725496631</v>
       </c>
       <c r="BX2">
-        <v>0.0006849955556377921</v>
+        <v>0.0006511149229856553</v>
       </c>
       <c r="BY2">
-        <v>0.0001870418651922101</v>
+        <v>0.0001495996774657709</v>
       </c>
       <c r="BZ2">
-        <v>7.467534606539902E-05</v>
+        <v>3.642947005618055E-05</v>
       </c>
       <c r="CA2">
-        <v>2.200867778762362E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>3.897171016542185E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>5.192797421777602E-05</v>
+        <v>1.351940031277842E-05</v>
       </c>
       <c r="CD2">
-        <v>0.0001627297632174941</v>
+        <v>0.0001251136860474853</v>
       </c>
       <c r="CE2">
-        <v>0.0003418427677656937</v>
+        <v>0.0003055077752476559</v>
       </c>
       <c r="CF2">
-        <v>0.0007214682586002356</v>
+        <v>0.0006878484926567945</v>
       </c>
       <c r="CG2">
-        <v>0.0009293130354821326</v>
+        <v>0.0008971798548055033</v>
       </c>
       <c r="CH2">
-        <v>0.001092140488707562</v>
+        <v>0.001061171912196737</v>
       </c>
       <c r="CI2">
-        <v>0.0009478971769916031</v>
+        <v>0.0009158969171965027</v>
       </c>
       <c r="CJ2">
-        <v>0.0008017968651248125</v>
+        <v>0.0007687516400707526</v>
       </c>
       <c r="CK2">
-        <v>0.0009136611042108267</v>
+        <v>0.0008814159749407608</v>
       </c>
       <c r="CL2">
-        <v>0.000621713550497801</v>
+        <v>0.0005873803007633071</v>
       </c>
       <c r="CM2">
-        <v>0.0005800841471165116</v>
+        <v>0.0005454531479814257</v>
       </c>
       <c r="CN2">
-        <v>0.000416151893801347</v>
+        <v>0.0003803483885480435</v>
       </c>
       <c r="CO2">
-        <v>0.008194507665587257</v>
+        <v>0.008214337933112992</v>
       </c>
       <c r="CP2">
-        <v>0.1317661207025162</v>
+        <v>0.1326697823662056</v>
       </c>
       <c r="CQ2">
-        <v>0.08754785311095013</v>
+        <v>0.08813524882794749</v>
       </c>
       <c r="CR2">
-        <v>0.03962904921881329</v>
+        <v>0.03987371133943179</v>
       </c>
       <c r="CS2">
-        <v>0.0006873790958313917</v>
+        <v>0.0006535155111695283</v>
       </c>
       <c r="CT2">
-        <v>0.04117135334408475</v>
+        <v>0.04142704661315918</v>
       </c>
       <c r="CU2">
-        <v>0.003213158560984245</v>
+        <v>0.003197360316219017</v>
       </c>
       <c r="CV2">
-        <v>0.01411860014676326</v>
+        <v>0.01418080178745442</v>
       </c>
       <c r="CW2">
-        <v>0.007651004121441952</v>
+        <v>0.007666947043934016</v>
       </c>
       <c r="CX2">
-        <v>0.004175927339183772</v>
+        <v>0.004167015184617632</v>
       </c>
       <c r="CY2">
-        <v>0.0004204943041540532</v>
+        <v>0.000384721857478933</v>
       </c>
       <c r="CZ2">
-        <v>4.51892806704352E-06</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.04734646884564974</v>
+        <v>0.04764632890045341</v>
       </c>
       <c r="DB2">
-        <v>8.317658675590023E-06</v>
+        <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.05276397428567894</v>
+        <v>0.05310258240955051</v>
       </c>
       <c r="DD2">
-        <v>0.0005677320461132298</v>
+        <v>0.0005330127000317298</v>
       </c>
       <c r="DE2">
-        <v>0.009236036750183979</v>
+        <v>0.009263316431716385</v>
       </c>
       <c r="DF2">
-        <v>0.00957325077757371</v>
+        <v>0.009602942342687703</v>
       </c>
       <c r="DG2">
-        <v>0.006137248198489276</v>
+        <v>0.006142364160177368</v>
       </c>
       <c r="DH2">
-        <v>0.0002713275520381954</v>
+        <v>0.0002344882077516928</v>
       </c>
       <c r="DI2">
-        <v>1.905247154750997E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.002504240703403398</v>
+        <v>0.002483372007225969</v>
       </c>
       <c r="DK2">
-        <v>0.005685740461816201</v>
+        <v>0.005687627067639501</v>
       </c>
       <c r="DL2">
-        <v>0.004209313841895544</v>
+        <v>0.004200640480354594</v>
       </c>
       <c r="DM2">
-        <v>0.002324465588801419</v>
+        <v>0.002302311072307907</v>
       </c>
       <c r="DN2">
-        <v>2.791646426747519E-06</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>7.546372112943365E-05</v>
+        <v>3.722348387993047E-05</v>
       </c>
       <c r="DP2">
-        <v>0.001597818229780518</v>
+        <v>0.001570466453705631</v>
       </c>
       <c r="DQ2">
-        <v>2.945745839264026E-06</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0004142977736507488</v>
+        <v>0.0003784810070216237</v>
       </c>
       <c r="DS2">
-        <v>0.0009385821362350021</v>
+        <v>0.0009065152517089065</v>
       </c>
       <c r="DT2">
-        <v>1.600759930019454E-05</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.0002822516729254917</v>
+        <v>0.0002454904621259478</v>
       </c>
       <c r="DV2">
-        <v>1.446891317521694E-05</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.02622335812995505</v>
+        <v>0.0263721376252649</v>
       </c>
       <c r="DX2">
-        <v>0.009111121740037934</v>
+        <v>0.009137507981684707</v>
       </c>
       <c r="DY2">
-        <v>0.003773820406523207</v>
+        <v>0.003762032229519824</v>
       </c>
       <c r="DZ2">
-        <v>0.001687548037068695</v>
+        <v>0.001660838042863478</v>
       </c>
       <c r="EA2">
-        <v>0.001571678027657317</v>
+        <v>0.001544139286868037</v>
       </c>
       <c r="EB2">
-        <v>0.02128279372866472</v>
+        <v>0.02139623641946653</v>
       </c>
       <c r="EC2">
-        <v>0.03264897965186705</v>
+        <v>0.03284371764768813</v>
       </c>
       <c r="ED2">
-        <v>0.004050755729016886</v>
+        <v>0.00404094829926371</v>
       </c>
       <c r="EE2">
-        <v>5.814709472291525E-05</v>
+        <v>1.978300234424786E-05</v>
       </c>
       <c r="EF2">
-        <v>0.006207184004169713</v>
+        <v>0.006212800173464207</v>
       </c>
       <c r="EG2">
-        <v>0.01007936481868211</v>
+        <v>0.01011267630481661</v>
       </c>
       <c r="EH2">
-        <v>0.0005104635914616809</v>
+        <v>0.0004753346395088413</v>
       </c>
       <c r="EI2">
-        <v>0.003973907622775007</v>
+        <v>0.003963550546000456</v>
       </c>
       <c r="EJ2">
-        <v>9.27533975337631E-06</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0002448535198878797</v>
+        <v>0.0002078248232070655</v>
       </c>
       <c r="EL2">
-        <v>0.01411860014676326</v>
+        <v>0.01418080178745442</v>
       </c>
       <c r="EM2">
-        <v>0.02180968577146078</v>
+        <v>0.02192689699549095</v>
       </c>
       <c r="EN2">
-        <v>0.008628419700831147</v>
+        <v>0.008651353473041305</v>
       </c>
       <c r="EO2">
-        <v>0.001632374332587289</v>
+        <v>0.001605269714964404</v>
       </c>
       <c r="EP2">
-        <v>0.0001441958317121018</v>
+        <v>0.0001064471927816997</v>
       </c>
       <c r="EQ2">
-        <v>0.01534664524650948</v>
+        <v>0.01541763033501997</v>
       </c>
       <c r="ER2">
-        <v>0.01426910315898766</v>
+        <v>0.01433238125473311</v>
       </c>
       <c r="ES2">
-        <v>0.0113201399194623</v>
+        <v>0.01136232590324798</v>
       </c>
       <c r="ET2">
-        <v>0.02621181912901781</v>
+        <v>0.02636051609298363</v>
       </c>
       <c r="EU2">
-        <v>0.002929171237917777</v>
+        <v>0.002911341807299504</v>
       </c>
       <c r="EV2">
-        <v>0.002088060169599725</v>
+        <v>0.002064214791211812</v>
       </c>
       <c r="EW2">
-        <v>0.002527593405300187</v>
+        <v>0.002506891736570361</v>
       </c>
       <c r="EX2">
-        <v>0.0009164135744343921</v>
+        <v>0.000884188131883151</v>
       </c>
       <c r="EY2">
-        <v>0.002413032095995108</v>
+        <v>0.002391511041004464</v>
       </c>
       <c r="EZ2">
-        <v>0.001953975958708924</v>
+        <v>0.001929171558807877</v>
       </c>
       <c r="FA2">
-        <v>0.0006702709544418072</v>
+        <v>0.0006362850058152879</v>
       </c>
       <c r="FB2">
-        <v>0.02678130417527343</v>
+        <v>0.02693407431390417</v>
       </c>
       <c r="FC2">
-        <v>0.006816452553656685</v>
+        <v>0.006826426444433465</v>
       </c>
       <c r="FD2">
-        <v>0.001988110961481492</v>
+        <v>0.00196355070816409</v>
       </c>
       <c r="FE2">
-        <v>0.0004605900674107746</v>
+        <v>0.0004251044009560344</v>
       </c>
       <c r="FF2">
-        <v>0.002136359373522759</v>
+        <v>0.002112859449497606</v>
       </c>
       <c r="FG2">
-        <v>0.001895429753953592</v>
+        <v>0.001870206609224204</v>
       </c>
       <c r="FH2">
-        <v>0.0003763173305658411</v>
+        <v>0.0003402289132945203</v>
       </c>
       <c r="FI2">
-        <v>0.02253520883039036</v>
+        <v>0.02265760927257804</v>
       </c>
       <c r="FJ2">
-        <v>0.01435255516576593</v>
+        <v>0.0144164301421529</v>
       </c>
       <c r="FK2">
-        <v>0.006153891799841129</v>
+        <v>0.006159126802926015</v>
       </c>
       <c r="FL2">
-        <v>0.0001186191536346724</v>
+        <v>8.068758052918876E-05</v>
       </c>
       <c r="FM2">
-        <v>0.01423777915644341</v>
+        <v>0.014300833210953</v>
       </c>
       <c r="FN2">
-        <v>0.01242480500918716</v>
+        <v>0.01247489197981399</v>
       </c>
       <c r="FO2">
-        <v>7.346155596681064E-05</v>
+        <v>3.52069984669883E-05</v>
       </c>
       <c r="FP2">
-        <v>0.002671394516980229</v>
+        <v>0.002651721368751046</v>
       </c>
       <c r="FQ2">
-        <v>0.0008391519181589238</v>
+        <v>0.0008063738707184396</v>
       </c>
       <c r="FR2">
-        <v>0.000185799515091302</v>
+        <v>0.0001483484416022088</v>
       </c>
       <c r="FS2">
-        <v>0.0006066803492767504</v>
+        <v>0.0005722395763425712</v>
       </c>
       <c r="FT2">
-        <v>0.0003444552979778928</v>
+        <v>0.0003081389912742441</v>
       </c>
       <c r="FU2">
-        <v>0.003045205547342499</v>
+        <v>0.003028206038444769</v>
       </c>
       <c r="FV2">
-        <v>2.058471367196416E-05</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>4.368680354839862E-06</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>9.297569755181911E-05</v>
+        <v>5.486071264944162E-05</v>
       </c>
       <c r="FY2">
-        <v>1.509272622588527E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.003902246816954461</v>
+        <v>0.003891377194713341</v>
       </c>
       <c r="GA2">
-        <v>9.16207474417652E-05</v>
+        <v>5.349607141844117E-05</v>
       </c>
       <c r="GB2">
-        <v>0.0001145745993061593</v>
+        <v>7.661409800259535E-05</v>
       </c>
       <c r="GC2">
-        <v>0.001745348941763491</v>
+        <v>0.001719052361715785</v>
       </c>
       <c r="GD2">
-        <v>0.01065573586549702</v>
+        <v>0.01069316977760377</v>
       </c>
       <c r="GE2">
-        <v>0.003334634270850937</v>
+        <v>0.003319704866781504</v>
       </c>
       <c r="GF2">
-        <v>0.0003008939044396804</v>
+        <v>0.0002642660300035768</v>
       </c>
       <c r="GG2">
-        <v>0.002262949383804852</v>
+        <v>0.002240354879906364</v>
       </c>
       <c r="GH2">
-        <v>0.001463755318891449</v>
+        <v>0.001435444673649179</v>
       </c>
       <c r="GI2">
-        <v>0.004478449863755735</v>
+        <v>0.00447170146588656</v>
       </c>
       <c r="GJ2">
-        <v>0.009710247788701097</v>
+        <v>0.009740919208788569</v>
       </c>
       <c r="GK2">
-        <v>0.0006305552012159514</v>
+        <v>0.000596285190346004</v>
       </c>
       <c r="GL2">
-        <v>0.003373894674039807</v>
+        <v>0.003359246075376338</v>
       </c>
       <c r="GM2">
-        <v>0.00507420141214481</v>
+        <v>0.005071714057000892</v>
       </c>
       <c r="GN2">
-        <v>0.01072582487118991</v>
+        <v>0.01076376008664808</v>
       </c>
       <c r="GO2">
-        <v>0.01402505413916512</v>
+        <v>0.01408658670306373</v>
       </c>
       <c r="GP2">
-        <v>0.004966749703417196</v>
+        <v>0.004963493812592544</v>
       </c>
       <c r="GQ2">
-        <v>0.007238474587934827</v>
+        <v>0.007251466941565663</v>
       </c>
       <c r="GR2">
-        <v>0.008085050656696766</v>
+        <v>0.008104098045868728</v>
       </c>
       <c r="GS2">
-        <v>0.00759367331678534</v>
+        <v>0.007609206187455002</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0003577757192269684</v>
+        <v>0.000249819066914917</v>
       </c>
       <c r="C3">
-        <v>0.0007239700984357469</v>
+        <v>0.0006225574559956342</v>
       </c>
       <c r="D3">
-        <v>0.000681241858528068</v>
+        <v>0.0005790656488688993</v>
       </c>
       <c r="E3">
-        <v>0.0001933693895821945</v>
+        <v>8.24747439384891E-05</v>
       </c>
       <c r="F3">
-        <v>0.0002638471194299161</v>
+        <v>0.0001542119332046535</v>
       </c>
       <c r="G3">
-        <v>0.0003709639391984731</v>
+        <v>0.0002632429645663285</v>
       </c>
       <c r="H3">
-        <v>9.866241478682407E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0002958109293608532</v>
+        <v>0.0001867469465718223</v>
       </c>
       <c r="J3">
-        <v>0.0004546145490177326</v>
+        <v>0.0003483884373532657</v>
       </c>
       <c r="K3">
-        <v>0.0002918630793693831</v>
+        <v>0.0001827285472470367</v>
       </c>
       <c r="L3">
-        <v>0.0006639208985654928</v>
+        <v>0.0005614351578500815</v>
       </c>
       <c r="M3">
-        <v>0.0004371082990555576</v>
+        <v>0.0003305693451437012</v>
       </c>
       <c r="N3">
-        <v>0.000118563329743825</v>
+        <v>6.331876049922741E-06</v>
       </c>
       <c r="O3">
-        <v>7.058248584749526E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>7.279596984271266E-08</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.0001123426197572658</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0002046947995577242</v>
+        <v>9.400254258760723E-05</v>
       </c>
       <c r="S3">
-        <v>0.0002949637993626836</v>
+        <v>0.0001858846780915088</v>
       </c>
       <c r="T3">
-        <v>0.0005285318488580224</v>
+        <v>0.000423626662820287</v>
       </c>
       <c r="U3">
-        <v>0.0003220605693041366</v>
+        <v>0.0002134656759186484</v>
       </c>
       <c r="V3">
-        <v>0.000428417259074336</v>
+        <v>0.0003217229935174526</v>
       </c>
       <c r="W3">
-        <v>0.0002270199195094872</v>
+        <v>0.0001167266195241066</v>
       </c>
       <c r="X3">
-        <v>1.136327797544782E-06</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>8.924900980716324E-06</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>4.4367464904137E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>2.750465994057178E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.000730295677102E-05</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>2.042148795587611E-05</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>5.713368387655354E-06</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>4.181212690965822E-06</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.243610490831001E-07</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.484352396792819E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.885352980801774E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>6.489710985977942E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0002164374895323522</v>
+        <v>0.0001059550781619496</v>
       </c>
       <c r="AK3">
-        <v>0.0001348885597085517</v>
+        <v>2.294884305955354E-05</v>
       </c>
       <c r="AL3">
-        <v>0.0001776877996160771</v>
+        <v>6.65129189786842E-05</v>
       </c>
       <c r="AM3">
-        <v>0.0004275310990762507</v>
+        <v>0.0003208209975587278</v>
       </c>
       <c r="AN3">
-        <v>0.0007320484984182921</v>
+        <v>0.0006307802195518352</v>
       </c>
       <c r="AO3">
-        <v>0.0009800405978824655</v>
+        <v>0.0008832040166039476</v>
       </c>
       <c r="AP3">
-        <v>0.0008619794981375554</v>
+        <v>0.0007630331275064757</v>
       </c>
       <c r="AQ3">
-        <v>7.772000983207349E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>5.455838988211788E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>5.287050188576483E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>2.212066995220476E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>3.887296391600875E-05</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>6.768342985375912E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0002225311895191858</v>
+        <v>0.0001121576745031091</v>
       </c>
       <c r="AX3">
-        <v>0.0002497717794603281</v>
+        <v>0.0001398850624390143</v>
       </c>
       <c r="AY3">
-        <v>0.000195894779576738</v>
+        <v>8.504526345438271E-05</v>
       </c>
       <c r="AZ3">
-        <v>0.0002694354594178416</v>
+        <v>0.0001599001386032053</v>
       </c>
       <c r="BA3">
-        <v>0.0002329574294966582</v>
+        <v>0.0001227702347006985</v>
       </c>
       <c r="BB3">
-        <v>0.0001316608397155257</v>
+        <v>1.966344268502124E-05</v>
       </c>
       <c r="BC3">
-        <v>8.860620980855212E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>1.909089795875107E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>7.738361983280032E-06</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>2.695375994176209E-06</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>2.424250494762019E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>7.914777982898858E-05</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>2.26809419509942E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>4.041124991268503E-06</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>7.853428483031412E-05</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0001210843597383779</v>
+        <v>8.897957651241038E-06</v>
       </c>
       <c r="BM3">
-        <v>0.0002218926695205654</v>
+        <v>0.0001115077439492982</v>
       </c>
       <c r="BN3">
-        <v>0.0006287924486413934</v>
+        <v>0.000525678951367878</v>
       </c>
       <c r="BO3">
-        <v>0.0002649706094274886</v>
+        <v>0.0001553555003253403</v>
       </c>
       <c r="BP3">
-        <v>0.0002323041094980698</v>
+        <v>0.0001221052396662192</v>
       </c>
       <c r="BQ3">
-        <v>0.0002008055595661275</v>
+        <v>9.004380064200914E-05</v>
       </c>
       <c r="BR3">
-        <v>2.695375994176209E-06</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>3.244912992988847E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>3.121645193255186E-06</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>5.006195989183313E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>7.952933982816415E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0001432694096904435</v>
+        <v>3.147946149265761E-05</v>
       </c>
       <c r="BX3">
-        <v>8.645154581320762E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>1.294399897203242E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>9.413025479661652E-06</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>7.150065384551141E-07</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>2.127746495402663E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>3.456794992531042E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>4.152138991028639E-05</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>2.235308595170258E-05</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>5.595191387910695E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.0001338207397108589</v>
+        <v>2.186194077932688E-05</v>
       </c>
       <c r="CH3">
-        <v>9.003509980546477E-06</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>2.858644993823441E-07</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>1.06386929770134E-06</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>1.601944996538742E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>1.422889896925619E-05</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>1.511091296735046E-05</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.000393474699149835</v>
+        <v>0.0002861559989481851</v>
       </c>
       <c r="CO3">
-        <v>0.1410011996953444</v>
+        <v>0.1434065857025007</v>
       </c>
       <c r="CP3">
-        <v>0.02521166394552617</v>
+        <v>0.02554785417023714</v>
       </c>
       <c r="CQ3">
-        <v>0.07238380984360321</v>
+        <v>0.07356298129895057</v>
       </c>
       <c r="CR3">
-        <v>0.0003857466491665327</v>
+        <v>0.0002782898462569963</v>
       </c>
       <c r="CS3">
-        <v>0.02266824195102164</v>
+        <v>0.02295898041681565</v>
       </c>
       <c r="CT3">
-        <v>0.009627207979198879</v>
+        <v>0.009684899025651584</v>
       </c>
       <c r="CU3">
-        <v>0.0149233129677558</v>
+        <v>0.01507564709257258</v>
       </c>
       <c r="CV3">
-        <v>0.0007666325983435678</v>
+        <v>0.0006659823483278325</v>
       </c>
       <c r="CW3">
-        <v>0.0002319040694989342</v>
+        <v>0.000121698050825233</v>
       </c>
       <c r="CX3">
-        <v>0.01498809296761583</v>
+        <v>0.01514158473160638</v>
       </c>
       <c r="CY3">
-        <v>0.0001876034095946528</v>
+        <v>7.66057240571036E-05</v>
       </c>
       <c r="CZ3">
-        <v>0.03274198592925571</v>
+        <v>0.03321274539969588</v>
       </c>
       <c r="DA3">
-        <v>0.02572940094440751</v>
+        <v>0.02607484329373893</v>
       </c>
       <c r="DB3">
-        <v>0.02472764394657197</v>
+        <v>0.02505518458016082</v>
       </c>
       <c r="DC3">
-        <v>0.004742945989752107</v>
+        <v>0.004713353723049828</v>
       </c>
       <c r="DD3">
-        <v>0.02034160295604872</v>
+        <v>0.02059076364398486</v>
       </c>
       <c r="DE3">
-        <v>0.002324232994978123</v>
+        <v>0.002251417558795783</v>
       </c>
       <c r="DF3">
-        <v>0.008712245981175799</v>
+        <v>0.008753586366101561</v>
       </c>
       <c r="DG3">
-        <v>1.752827296212736E-05</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>1.74185199623645E-05</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.005289177388571886</v>
+        <v>0.005269346450467723</v>
       </c>
       <c r="DJ3">
-        <v>6.510059985933975E-06</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.0003274560692924788</v>
+        <v>0.0002189575952055719</v>
       </c>
       <c r="DL3">
-        <v>0.001227451097347896</v>
+        <v>0.001135035820280604</v>
       </c>
       <c r="DM3">
-        <v>0.0008331490681998483</v>
+        <v>0.0007336874886282812</v>
       </c>
       <c r="DN3">
-        <v>0.002652633694268561</v>
+        <v>0.002585686882893492</v>
       </c>
       <c r="DO3">
-        <v>0.0059661399871092</v>
+        <v>0.005958406585666668</v>
       </c>
       <c r="DP3">
-        <v>0.002566749194454128</v>
+        <v>0.002498267599787611</v>
       </c>
       <c r="DQ3">
-        <v>0.001258418897280985</v>
+        <v>0.001166557024634897</v>
       </c>
       <c r="DR3">
-        <v>5.475249788169848E-05</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.001175674397459767</v>
+        <v>0.001082333854319478</v>
       </c>
       <c r="DT3">
-        <v>0.001141962797532607</v>
+        <v>0.001048019817393697</v>
       </c>
       <c r="DU3">
-        <v>0.001733470996254559</v>
+        <v>0.001650098455509428</v>
       </c>
       <c r="DV3">
-        <v>0.01178054397454625</v>
+        <v>0.01187671581920673</v>
       </c>
       <c r="DW3">
-        <v>0.0145042729686612</v>
+        <v>0.01464911871559316</v>
       </c>
       <c r="DX3">
-        <v>0.00018446216960144</v>
+        <v>7.340834910745007E-05</v>
       </c>
       <c r="DY3">
-        <v>0.001816916496074261</v>
+        <v>0.001735035152915967</v>
       </c>
       <c r="DZ3">
-        <v>0.003269465592935797</v>
+        <v>0.003213541763516177</v>
       </c>
       <c r="EA3">
-        <v>0.000105408085772249</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.02472764394657197</v>
+        <v>0.02505518458016082</v>
       </c>
       <c r="EC3">
-        <v>0.001293795197204549</v>
+        <v>0.001202565510274781</v>
       </c>
       <c r="ED3">
-        <v>0.0004718939289803977</v>
+        <v>0.0003659766053243677</v>
       </c>
       <c r="EE3">
-        <v>0.00903956698046857</v>
+        <v>0.009086756695619697</v>
       </c>
       <c r="EF3">
-        <v>0.02041722295588533</v>
+        <v>0.02066773499723797</v>
       </c>
       <c r="EG3">
-        <v>0.003972667291416417</v>
+        <v>0.003929309899708824</v>
       </c>
       <c r="EH3">
-        <v>0.001346511197090647</v>
+        <v>0.001256223561823194</v>
       </c>
       <c r="EI3">
-        <v>0.0006968754484942891</v>
+        <v>0.0005949786160535633</v>
       </c>
       <c r="EJ3">
-        <v>2.63100659431529E-05</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.007176244984494576</v>
+        <v>0.007190136543724794</v>
       </c>
       <c r="EL3">
-        <v>0.01985187295710686</v>
+        <v>0.02009228201440742</v>
       </c>
       <c r="EM3">
-        <v>0.009881641978649132</v>
+        <v>0.009943879841488689</v>
       </c>
       <c r="EN3">
-        <v>0.001575991596594818</v>
+        <v>0.001489804848957089</v>
       </c>
       <c r="EO3">
-        <v>0.0001375766697027436</v>
+        <v>2.568499043317449E-05</v>
       </c>
       <c r="EP3">
-        <v>0.01643144996449723</v>
+        <v>0.0166107349764801</v>
       </c>
       <c r="EQ3">
-        <v>0.02817176993913039</v>
+        <v>0.02856085819817488</v>
       </c>
       <c r="ER3">
-        <v>0.01815109696078165</v>
+        <v>0.01836111261080503</v>
       </c>
       <c r="ES3">
-        <v>0.03874162191629254</v>
+        <v>0.0393195967875044</v>
       </c>
       <c r="ET3">
-        <v>0.02251592795135074</v>
+        <v>0.02280394451759065</v>
       </c>
       <c r="EU3">
-        <v>0.0014498347968674</v>
+        <v>0.001361393587146959</v>
       </c>
       <c r="EV3">
-        <v>8.127538982439152E-06</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0004026646791299786</v>
+        <v>0.0002955102067896162</v>
       </c>
       <c r="EX3">
-        <v>0.0001835249696034649</v>
+        <v>7.245440104782541E-05</v>
       </c>
       <c r="EY3">
-        <v>0.001723895396275248</v>
+        <v>0.001640351736516959</v>
       </c>
       <c r="EZ3">
-        <v>0.001316258897156012</v>
+        <v>0.001225430643679593</v>
       </c>
       <c r="FA3">
-        <v>0.01349080797085095</v>
+        <v>0.01361754277636195</v>
       </c>
       <c r="FB3">
-        <v>0.01425846496919231</v>
+        <v>0.01439891804909699</v>
       </c>
       <c r="FC3">
-        <v>0.004157676391016676</v>
+        <v>0.004117625170683963</v>
       </c>
       <c r="FD3">
-        <v>0.003419967792610613</v>
+        <v>0.003366733485303671</v>
       </c>
       <c r="FE3">
-        <v>0.0002910216293712012</v>
+        <v>0.0001818720602701148</v>
       </c>
       <c r="FF3">
-        <v>0.0001911340495870243</v>
+        <v>8.019945770758712E-05</v>
       </c>
       <c r="FG3">
-        <v>0.002205713195234204</v>
+        <v>0.002130779772584621</v>
       </c>
       <c r="FH3">
-        <v>0.001853420995995388</v>
+        <v>0.001772191999845723</v>
       </c>
       <c r="FI3">
-        <v>0.007898127982934832</v>
+        <v>0.007924919820641155</v>
       </c>
       <c r="FJ3">
-        <v>0.001929541895830916</v>
+        <v>0.001849673204339835</v>
       </c>
       <c r="FK3">
-        <v>5.801372987465206E-05</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.01678123996374145</v>
+        <v>0.01696677583411571</v>
       </c>
       <c r="FM3">
-        <v>0.02206500395232503</v>
+        <v>0.02234496236347394</v>
       </c>
       <c r="FN3">
-        <v>0.005006408289182854</v>
+        <v>0.004981524177455766</v>
       </c>
       <c r="FO3">
-        <v>0.002205713195234204</v>
+        <v>0.002130779772584621</v>
       </c>
       <c r="FP3">
-        <v>0.002138095695380302</v>
+        <v>0.002061953926530771</v>
       </c>
       <c r="FQ3">
-        <v>0.0001965852595752461</v>
+        <v>8.57480825497835E-05</v>
       </c>
       <c r="FR3">
-        <v>3.54182069234733E-06</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>1.150641697513855E-05</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.005548550688011469</v>
+        <v>0.005533354833153851</v>
       </c>
       <c r="FU3">
-        <v>0.003289433392892653</v>
+        <v>0.003233866394400698</v>
       </c>
       <c r="FV3">
-        <v>0.001106442397609354</v>
+        <v>0.001011864656641359</v>
       </c>
       <c r="FW3">
-        <v>0.003285471792901213</v>
+        <v>0.003229833999359075</v>
       </c>
       <c r="FX3">
-        <v>0.002719475394124139</v>
+        <v>0.002653723065156629</v>
       </c>
       <c r="FY3">
-        <v>4.107737191124577E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.000393474699149835</v>
+        <v>0.0002861559989481851</v>
       </c>
       <c r="GA3">
-        <v>0.00196307129575847</v>
+        <v>0.001883801785294144</v>
       </c>
       <c r="GB3">
-        <v>0.003817637991751383</v>
+        <v>0.003771510177216328</v>
       </c>
       <c r="GC3">
-        <v>0.01377352897024009</v>
+        <v>0.01390531608981174</v>
       </c>
       <c r="GD3">
-        <v>0.0101841594779955</v>
+        <v>0.01025180342463796</v>
       </c>
       <c r="GE3">
-        <v>0.00190634369588104</v>
+        <v>0.001826060445188336</v>
       </c>
       <c r="GF3">
-        <v>0.001626809496485018</v>
+        <v>0.001541530880859777</v>
       </c>
       <c r="GG3">
-        <v>0.001692483896343118</v>
+        <v>0.001608378903103708</v>
       </c>
       <c r="GH3">
-        <v>0.001476262296810299</v>
+        <v>0.001388293354908088</v>
       </c>
       <c r="GI3">
-        <v>0.005272440988608048</v>
+        <v>0.005252310965720495</v>
       </c>
       <c r="GJ3">
-        <v>0.001091173797642345</v>
+        <v>0.0009963232019431249</v>
       </c>
       <c r="GK3">
-        <v>0.003088979993325765</v>
+        <v>0.003029830828912903</v>
       </c>
       <c r="GL3">
-        <v>0.007846755983045829</v>
+        <v>0.007872629786796686</v>
       </c>
       <c r="GM3">
-        <v>0.01406660796960684</v>
+        <v>0.01420363250398879</v>
       </c>
       <c r="GN3">
-        <v>0.02328917194968002</v>
+        <v>0.02359100663177801</v>
       </c>
       <c r="GO3">
-        <v>0.01412129196948869</v>
+        <v>0.01425929372431797</v>
       </c>
       <c r="GP3">
-        <v>0.01460708296843906</v>
+        <v>0.01475376596272292</v>
       </c>
       <c r="GQ3">
-        <v>0.01814445296079601</v>
+        <v>0.01835434988042929</v>
       </c>
       <c r="GR3">
-        <v>0.01303462397183661</v>
+        <v>0.01315320662438606</v>
       </c>
       <c r="GS3">
-        <v>0.01137906697541371</v>
+        <v>0.01146806429857728</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001214087513643755</v>
+        <v>8.982703996996192E-05</v>
       </c>
       <c r="C4">
-        <v>0.0001068737983982251</v>
+        <v>7.520970220311459E-05</v>
       </c>
       <c r="D4">
-        <v>3.208798571762914E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1.734311876640967E-08</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3.034156284184961E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4.971628646375424E-05</v>
+        <v>1.772821878830782E-05</v>
       </c>
       <c r="H4">
-        <v>0.0002271212438452026</v>
+        <v>0.0001961387158567825</v>
       </c>
       <c r="I4">
-        <v>0.000325938776816458</v>
+        <v>0.0002955163512775032</v>
       </c>
       <c r="J4">
-        <v>0.000299075078727233</v>
+        <v>0.0002685003884772593</v>
       </c>
       <c r="K4">
-        <v>0.0001964380260276544</v>
+        <v>0.0001652815841097894</v>
       </c>
       <c r="L4">
-        <v>0.000349278275156354</v>
+        <v>0.0003189881389975973</v>
       </c>
       <c r="M4">
-        <v>0.000125243071091646</v>
+        <v>9.368309280275232E-05</v>
       </c>
       <c r="N4">
-        <v>6.570537532647404E-05</v>
+        <v>3.380793456274513E-05</v>
       </c>
       <c r="O4">
-        <v>1.062688724412526E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0001196652814883859</v>
+        <v>8.80736880242753E-05</v>
       </c>
       <c r="Q4">
-        <v>1.464627495823217E-05</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.803402871726627E-06</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>5.594321902084176E-05</v>
+        <v>2.399044589356924E-05</v>
       </c>
       <c r="T4">
-        <v>2.789377501595713E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0002878057195288058</v>
+        <v>0.0002571671540180241</v>
       </c>
       <c r="V4">
-        <v>0.0002183189944712935</v>
+        <v>0.000187286574917208</v>
       </c>
       <c r="W4">
-        <v>0.0003149741775963536</v>
+        <v>0.0002844896041905585</v>
       </c>
       <c r="X4">
-        <v>0.0001097589521930084</v>
+        <v>7.811120918603114E-05</v>
       </c>
       <c r="Y4">
-        <v>9.859749898690605E-05</v>
+        <v>6.688649233538758E-05</v>
       </c>
       <c r="Z4">
-        <v>0.0001221598113109537</v>
+        <v>9.058235695983119E-05</v>
       </c>
       <c r="AA4">
-        <v>2.428694827250537E-06</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>1.611475985378102E-07</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>4.971628646375424E-05</v>
+        <v>1.772821878830782E-05</v>
       </c>
       <c r="AD4">
-        <v>9.178572347141754E-05</v>
+        <v>6.003610735418268E-05</v>
       </c>
       <c r="AE4">
-        <v>2.746396204652909E-08</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.997875857894052E-06</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>8.042430427953844E-05</v>
+        <v>4.861029110109963E-05</v>
       </c>
       <c r="AH4">
-        <v>2.227707541546464E-07</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>2.746396204652909E-08</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>4.270300996259819E-07</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>4.625782670974936E-06</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>9.561944319873074E-06</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>4.307591693607388E-05</v>
+        <v>1.105021133215489E-05</v>
       </c>
       <c r="AN4">
-        <v>9.480517325664855E-05</v>
+        <v>6.307267152357098E-05</v>
       </c>
       <c r="AO4">
-        <v>0.0001823229270316405</v>
+        <v>0.000151086480065234</v>
       </c>
       <c r="AP4">
-        <v>0.0001264595910051167</v>
+        <v>9.490650800861573E-05</v>
       </c>
       <c r="AQ4">
-        <v>0.0002391679429883387</v>
+        <v>0.0002082536962602898</v>
       </c>
       <c r="AR4">
-        <v>0.0002002014657599665</v>
+        <v>0.0001690663551964584</v>
       </c>
       <c r="AS4">
-        <v>1.736670576473196E-05</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>5.476175210487775E-05</v>
+        <v>2.280228236725992E-05</v>
       </c>
       <c r="AU4">
-        <v>1.328420605511411E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>8.124015422150825E-05</v>
+        <v>4.943076531911796E-05</v>
       </c>
       <c r="AW4">
-        <v>3.155743575536637E-06</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>6.961767204819818E-06</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>6.205359558621972E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>7.068721897212289E-06</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>1.257385310564046E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>7.920824436603498E-05</v>
+        <v>4.738733850250507E-05</v>
       </c>
       <c r="BC4">
-        <v>2.753548504144176E-05</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>3.595286144272626E-05</v>
+        <v>3.886782023457503E-06</v>
       </c>
       <c r="BE4">
-        <v>5.855557583502869E-05</v>
+        <v>2.66176096697042E-05</v>
       </c>
       <c r="BF4">
-        <v>2.589408715819196E-05</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0005268856625234038</v>
+        <v>0.0004976022134344037</v>
       </c>
       <c r="BH4">
-        <v>0.0006146219562828513</v>
+        <v>0.0005858358006554878</v>
       </c>
       <c r="BI4">
-        <v>0.0002625972113218496</v>
+        <v>0.0002318157627945673</v>
       </c>
       <c r="BJ4">
-        <v>0.0002051167654103485</v>
+        <v>0.0001740095149976786</v>
       </c>
       <c r="BK4">
-        <v>0.0003988311216317335</v>
+        <v>0.0003688218533499041</v>
       </c>
       <c r="BL4">
-        <v>9.309443337833094E-05</v>
+        <v>6.135223509073078E-05</v>
       </c>
       <c r="BM4">
-        <v>9.618408315856873E-05</v>
+        <v>6.445939715201696E-05</v>
       </c>
       <c r="BN4">
-        <v>4.150723004765226E-06</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>2.88337359490991E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0001673283580981819</v>
+        <v>0.0001360069212060428</v>
       </c>
       <c r="BQ4">
-        <v>0.0001101824321628869</v>
+        <v>7.853708946040315E-05</v>
       </c>
       <c r="BR4">
-        <v>0.0002881060195074459</v>
+        <v>0.0002574691561111428</v>
       </c>
       <c r="BS4">
-        <v>0.0004520460178466368</v>
+        <v>0.0004223383741128183</v>
       </c>
       <c r="BT4">
-        <v>0.0004457973382910961</v>
+        <v>0.0004160542767460882</v>
       </c>
       <c r="BU4">
-        <v>0.0004207720900711049</v>
+        <v>0.0003908871842358679</v>
       </c>
       <c r="BV4">
-        <v>0.0001015476927770631</v>
+        <v>6.985340796344711E-05</v>
       </c>
       <c r="BW4">
-        <v>8.524052393696788E-06</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>9.561944319873074E-06</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>4.765855661011751E-05</v>
+        <v>1.565882562456099E-05</v>
       </c>
       <c r="BZ4">
-        <v>1.891229865479623E-05</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0003654799440039533</v>
+        <v>0.0003352816396703202</v>
       </c>
       <c r="CB4">
-        <v>0.0002729091305883781</v>
+        <v>0.0002421861305070972</v>
       </c>
       <c r="CC4">
-        <v>2.798731300930391E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>9.844608299767604E-06</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>7.720206450873159E-05</v>
+        <v>4.536978752290833E-05</v>
       </c>
       <c r="CF4">
-        <v>9.977688290301821E-05</v>
+        <v>6.807256105530341E-05</v>
       </c>
       <c r="CG4">
-        <v>3.971941317481702E-05</v>
+        <v>7.674682748867042E-06</v>
       </c>
       <c r="CH4">
-        <v>0.0002018805356405367</v>
+        <v>0.0001707549421245065</v>
       </c>
       <c r="CI4">
-        <v>0.0002459586625053249</v>
+        <v>0.0002150829058965972</v>
       </c>
       <c r="CJ4">
-        <v>0.0001860854067640209</v>
+        <v>0.0001548702857106463</v>
       </c>
       <c r="CK4">
-        <v>0.0004406487286573091</v>
+        <v>0.000410876484549445</v>
       </c>
       <c r="CL4">
-        <v>0.0006680404824832707</v>
+        <v>0.0006395571055883047</v>
       </c>
       <c r="CM4">
-        <v>0.0007279628882210788</v>
+        <v>0.0006998191543552639</v>
       </c>
       <c r="CN4">
-        <v>0.0007018809100762512</v>
+        <v>0.0006735893423250259</v>
       </c>
       <c r="CO4">
-        <v>0.02163554546109572</v>
+        <v>0.0217259068938674</v>
       </c>
       <c r="CP4">
-        <v>0.02859340996619313</v>
+        <v>0.02872320890398212</v>
       </c>
       <c r="CQ4">
-        <v>0.1205767114235572</v>
+        <v>0.1212278760634343</v>
       </c>
       <c r="CR4">
-        <v>0.01284241708653791</v>
+        <v>0.01288293865189977</v>
       </c>
       <c r="CS4">
-        <v>0.009236283343036857</v>
+        <v>0.009256365171824625</v>
       </c>
       <c r="CT4">
-        <v>0.01557027589250936</v>
+        <v>0.01562625909057019</v>
       </c>
       <c r="CU4">
-        <v>0.0002297889536554523</v>
+        <v>0.0001988215463723793</v>
       </c>
       <c r="CV4">
-        <v>0.01621886084637647</v>
+        <v>0.01627852025462414</v>
       </c>
       <c r="CW4">
-        <v>0.001206830214159956</v>
+        <v>0.00118140072294079</v>
       </c>
       <c r="CX4">
-        <v>0.01256569910622045</v>
+        <v>0.01260465222098527</v>
       </c>
       <c r="CY4">
-        <v>0.004744408362537266</v>
+        <v>0.004739030031537384</v>
       </c>
       <c r="CZ4">
-        <v>0.009268533340742962</v>
+        <v>0.009288797964042668</v>
       </c>
       <c r="DA4">
-        <v>0.07518615465212027</v>
+        <v>0.07558004346992568</v>
       </c>
       <c r="DB4">
-        <v>0.003406719957685059</v>
+        <v>0.003393759545553916</v>
       </c>
       <c r="DC4">
-        <v>0.02800653300793682</v>
+        <v>0.02813300549937595</v>
       </c>
       <c r="DD4">
-        <v>0.03975315117241728</v>
+        <v>0.03994620405105119</v>
       </c>
       <c r="DE4">
-        <v>0.004003874715210326</v>
+        <v>0.003994299004481282</v>
       </c>
       <c r="DF4">
-        <v>0.009229742343502108</v>
+        <v>0.009249787097595222</v>
       </c>
       <c r="DG4">
-        <v>0.001352857903773223</v>
+        <v>0.0013282561044037</v>
       </c>
       <c r="DH4">
-        <v>0.0001125766219925918</v>
+        <v>8.094484967127193E-05</v>
       </c>
       <c r="DI4">
-        <v>6.083409867296073E-05</v>
+        <v>2.890904728282153E-05</v>
       </c>
       <c r="DJ4">
-        <v>0.0007036851099479212</v>
+        <v>0.00067540376848688</v>
       </c>
       <c r="DK4">
-        <v>1.606834885708216E-05</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.000718676608881598</v>
+        <v>0.0006904802399453855</v>
       </c>
       <c r="DM4">
-        <v>0.0004297637494315416</v>
+        <v>0.0003999298087467299</v>
       </c>
       <c r="DN4">
-        <v>0.003730535934652509</v>
+        <v>0.003719410926790447</v>
       </c>
       <c r="DO4">
-        <v>0.004135891005820203</v>
+        <v>0.004127063569668723</v>
       </c>
       <c r="DP4">
-        <v>0.007033569499712627</v>
+        <v>0.007041166242281173</v>
       </c>
       <c r="DQ4">
-        <v>0.005514366607771277</v>
+        <v>0.005513352436512834</v>
       </c>
       <c r="DR4">
-        <v>0.0008998829859926571</v>
+        <v>0.0008727137033702483</v>
       </c>
       <c r="DS4">
-        <v>5.683246095759129E-05</v>
+        <v>2.488472809566405E-05</v>
       </c>
       <c r="DT4">
-        <v>0.001520463391851693</v>
+        <v>0.00149681158831382</v>
       </c>
       <c r="DU4">
-        <v>0.002770848802913632</v>
+        <v>0.002754284243010096</v>
       </c>
       <c r="DV4">
-        <v>0.0002253400739718946</v>
+        <v>0.00019434745022841</v>
       </c>
       <c r="DW4">
-        <v>0.0199832155786235</v>
+        <v>0.02006421152749095</v>
       </c>
       <c r="DX4">
-        <v>0.003879960724024145</v>
+        <v>0.003869682662933789</v>
       </c>
       <c r="DY4">
-        <v>0.005763068590081474</v>
+        <v>0.005763464073418632</v>
       </c>
       <c r="DZ4">
-        <v>0.0002793175301325581</v>
+        <v>0.0002486308531629147</v>
       </c>
       <c r="EA4">
-        <v>0.000836248340518895</v>
+        <v>0.0008087183737169786</v>
       </c>
       <c r="EB4">
-        <v>0.02521706920634725</v>
+        <v>0.02532773088505926</v>
       </c>
       <c r="EC4">
-        <v>0.005896441580594851</v>
+        <v>0.005897593028348776</v>
       </c>
       <c r="ED4">
-        <v>8.523241993754431E-07</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.004290174694846233</v>
+        <v>0.004282221745939453</v>
       </c>
       <c r="EF4">
-        <v>0.01308464506930859</v>
+        <v>0.01312653959433054</v>
       </c>
       <c r="EG4">
-        <v>0.01411358199612183</v>
+        <v>0.01416130858429821</v>
       </c>
       <c r="EH4">
-        <v>0.0007126076993132707</v>
+        <v>0.0006843769315106567</v>
       </c>
       <c r="EI4">
-        <v>2.727184606019401E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0001664491281607202</v>
+        <v>0.0001351227077517213</v>
       </c>
       <c r="EK4">
-        <v>0.002658306710918584</v>
+        <v>0.002641104257116071</v>
       </c>
       <c r="EL4">
-        <v>0.02181276344849047</v>
+        <v>0.02190412936119445</v>
       </c>
       <c r="EM4">
-        <v>0.018985788649569</v>
+        <v>0.01906113113543927</v>
       </c>
       <c r="EN4">
-        <v>0.006722733521821929</v>
+        <v>0.006728568431369921</v>
       </c>
       <c r="EO4">
-        <v>5.048383940915933E-05</v>
+        <v>1.85001222601012E-05</v>
       </c>
       <c r="EP4">
-        <v>0.003864741825106642</v>
+        <v>0.003854377502577596</v>
       </c>
       <c r="EQ4">
-        <v>0.02299509836439274</v>
+        <v>0.02309316580730672</v>
       </c>
       <c r="ER4">
-        <v>0.0200127985765193</v>
+        <v>0.02009396220321766</v>
       </c>
       <c r="ES4">
-        <v>0.02937052891091781</v>
+        <v>0.02950473259563155</v>
       </c>
       <c r="ET4">
-        <v>0.03678565738349071</v>
+        <v>0.03696189036701113</v>
       </c>
       <c r="EU4">
-        <v>0.007027863000118522</v>
+        <v>0.007035427397977537</v>
       </c>
       <c r="EV4">
-        <v>0.0007637589056749611</v>
+        <v>0.0007358180653286885</v>
       </c>
       <c r="EW4">
-        <v>0.0003221734970842767</v>
+        <v>0.0002917297297617588</v>
       </c>
       <c r="EX4">
-        <v>0.0001277947909101459</v>
+        <v>9.624927588984152E-05</v>
       </c>
       <c r="EY4">
-        <v>0.0004726397163818375</v>
+        <v>0.000443048798705089</v>
       </c>
       <c r="EZ4">
-        <v>0.005913874579354867</v>
+        <v>0.005915124838170083</v>
       </c>
       <c r="FA4">
-        <v>0.002759849903695967</v>
+        <v>0.002743223001511583</v>
       </c>
       <c r="FB4">
-        <v>0.02059718253495294</v>
+        <v>0.02068165847756028</v>
       </c>
       <c r="FC4">
-        <v>0.003922469721000543</v>
+        <v>0.003912432602915085</v>
       </c>
       <c r="FD4">
-        <v>0.001166025917062305</v>
+        <v>0.00114036514515776</v>
       </c>
       <c r="FE4">
-        <v>0.0008821274972555786</v>
+        <v>0.0008548575756834404</v>
       </c>
       <c r="FF4">
-        <v>0.0003018277085314425</v>
+        <v>0.0002712686203173571</v>
       </c>
       <c r="FG4">
-        <v>0.000232202533483778</v>
+        <v>0.000201248806485298</v>
       </c>
       <c r="FH4">
-        <v>8.326506407747941E-06</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.01208522214039606</v>
+        <v>0.01212145188899925</v>
       </c>
       <c r="FJ4">
-        <v>0.00477448906039767</v>
+        <v>0.004769281228215625</v>
       </c>
       <c r="FK4">
-        <v>0.0001945348861630219</v>
+        <v>0.0001633676571584143</v>
       </c>
       <c r="FL4">
-        <v>0.007680968753664077</v>
+        <v>0.007692234985816275</v>
       </c>
       <c r="FM4">
-        <v>0.01944491361691212</v>
+        <v>0.019522858444807</v>
       </c>
       <c r="FN4">
-        <v>0.0122548511283306</v>
+        <v>0.01229204234205831</v>
       </c>
       <c r="FO4">
-        <v>0.0008868503369196501</v>
+        <v>0.0008596071846260472</v>
       </c>
       <c r="FP4">
-        <v>0.005071767639252685</v>
+        <v>0.005068244796112399</v>
       </c>
       <c r="FQ4">
-        <v>0.0002919695792326366</v>
+        <v>0.0002613546146755441</v>
       </c>
       <c r="FR4">
-        <v>7.840267942333362E-05</v>
+        <v>4.657720757961737E-05</v>
       </c>
       <c r="FS4">
-        <v>0.0006927629507247981</v>
+        <v>0.0006644197019488263</v>
       </c>
       <c r="FT4">
-        <v>0.002687887108814574</v>
+        <v>0.002670852318106043</v>
       </c>
       <c r="FU4">
-        <v>0.002246603240202441</v>
+        <v>0.002227067231660522</v>
       </c>
       <c r="FV4">
-        <v>4.386717687979273E-07</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0006073321568013639</v>
+        <v>0.0005785046822458414</v>
       </c>
       <c r="FX4">
-        <v>0.001052882925109998</v>
+        <v>0.001026580853377104</v>
       </c>
       <c r="FY4">
-        <v>0.0003057818782501883</v>
+        <v>0.0002752452024570415</v>
       </c>
       <c r="FZ4">
-        <v>0.0001989195558511469</v>
+        <v>0.0001677771793616605</v>
       </c>
       <c r="GA4">
-        <v>0.001196606614887145</v>
+        <v>0.001171119175823879</v>
       </c>
       <c r="GB4">
-        <v>0.003772220531687545</v>
+        <v>0.003761331794092533</v>
       </c>
       <c r="GC4">
-        <v>0.01139942318917593</v>
+        <v>0.01143176579689562</v>
       </c>
       <c r="GD4">
-        <v>0.01888969865640373</v>
+        <v>0.01896449649964913</v>
       </c>
       <c r="GE4">
-        <v>0.006212388158122039</v>
+        <v>0.006215330406016913</v>
       </c>
       <c r="GF4">
-        <v>0.002564659817579549</v>
+        <v>0.002546926568757499</v>
       </c>
       <c r="GG4">
-        <v>0.004958057647340709</v>
+        <v>0.004953890290589492</v>
       </c>
       <c r="GH4">
-        <v>0.002774432602658721</v>
+        <v>0.0027578883559016</v>
       </c>
       <c r="GI4">
-        <v>0.007765141447676998</v>
+        <v>0.007776884774638965</v>
       </c>
       <c r="GJ4">
-        <v>0.005276093324719302</v>
+        <v>0.005273728609225775</v>
       </c>
       <c r="GK4">
-        <v>0.0003357511761185165</v>
+        <v>0.0003053843677227848</v>
       </c>
       <c r="GL4">
-        <v>0.006923236507560449</v>
+        <v>0.006930207877512384</v>
       </c>
       <c r="GM4">
-        <v>0.009261981841208961</v>
+        <v>0.009282209330299522</v>
       </c>
       <c r="GN4">
-        <v>0.01946706361533662</v>
+        <v>0.01954513399046993</v>
       </c>
       <c r="GO4">
-        <v>0.01921466563328932</v>
+        <v>0.01929130540472575</v>
       </c>
       <c r="GP4">
-        <v>0.01194045915069284</v>
+        <v>0.01197586837582528</v>
       </c>
       <c r="GQ4">
-        <v>0.01511444592493186</v>
+        <v>0.01516784545718256</v>
       </c>
       <c r="GR4">
-        <v>0.01267528909842548</v>
+        <v>0.01271486337444807</v>
       </c>
       <c r="GS4">
-        <v>0.01291393408145101</v>
+        <v>0.01295486100852172</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0003135496585701382</v>
+        <v>0.0002456546548237992</v>
       </c>
       <c r="C5">
-        <v>0.0004097372919960993</v>
+        <v>0.0003430851716616884</v>
       </c>
       <c r="D5">
-        <v>0.0002941659298949384</v>
+        <v>0.0002260204603249416</v>
       </c>
       <c r="E5">
-        <v>1.896022770414447E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001786982177866934</v>
+        <v>0.0001090607382890058</v>
       </c>
       <c r="G5">
-        <v>0.0002713083314571636</v>
+        <v>0.0002028675086393224</v>
       </c>
       <c r="H5">
-        <v>0.0002214390148655314</v>
+        <v>0.0001523538083140615</v>
       </c>
       <c r="I5">
-        <v>1.940309267387643E-06</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0001100691364772159</v>
+        <v>3.954486993947624E-05</v>
       </c>
       <c r="K5">
-        <v>5.892729897255543E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>7.102872514547147E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0003612308753113183</v>
+        <v>0.0002939519818822559</v>
       </c>
       <c r="N5">
-        <v>0.0006714142041115318</v>
+        <v>0.0006081433281405472</v>
       </c>
       <c r="O5">
-        <v>0.0007728236971805996</v>
+        <v>0.0007108631786044104</v>
       </c>
       <c r="P5">
-        <v>0.000484275216901731</v>
+        <v>0.0004185862344170112</v>
       </c>
       <c r="Q5">
-        <v>0.0009311888663569752</v>
+        <v>0.0008712746549284509</v>
       </c>
       <c r="R5">
-        <v>0.0005690850311053203</v>
+        <v>0.0005044919141439319</v>
       </c>
       <c r="S5">
-        <v>0.0002545354526035225</v>
+        <v>0.0001858778999197417</v>
       </c>
       <c r="T5">
-        <v>0.0002641144819488343</v>
+        <v>0.0001955807041855043</v>
       </c>
       <c r="U5">
-        <v>0.000281195050781446</v>
+        <v>0.000212881978683826</v>
       </c>
       <c r="V5">
-        <v>0.0001184810019022987</v>
+        <v>4.806542883821901E-05</v>
       </c>
       <c r="W5">
-        <v>6.822331533720998E-05</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>2.719836414110088E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0006711260541312256</v>
+        <v>0.0006078514548455288</v>
       </c>
       <c r="Z5">
-        <v>0.0005324110636118389</v>
+        <v>0.0004673440659214654</v>
       </c>
       <c r="AA5">
-        <v>0.0008066701448673305</v>
+        <v>0.000745146971372668</v>
       </c>
       <c r="AB5">
-        <v>0.001178185619475738</v>
+        <v>0.001121462963513517</v>
       </c>
       <c r="AC5">
-        <v>0.0004526899990604539</v>
+        <v>0.0003865928898559175</v>
       </c>
       <c r="AD5">
-        <v>0.0003103520187886841</v>
+        <v>0.0002424156969092324</v>
       </c>
       <c r="AE5">
-        <v>0.0003335518472030689</v>
+        <v>0.0002659153006779823</v>
       </c>
       <c r="AF5">
-        <v>2.005330762943684E-05</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>7.115304013697504E-05</v>
+        <v>1.259213210834821E-07</v>
       </c>
       <c r="AH5">
-        <v>0.0001092566025327494</v>
+        <v>3.872183688067204E-05</v>
       </c>
       <c r="AI5">
-        <v>6.06628408539381E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.000211007815578462</v>
+        <v>0.0001417878228377634</v>
       </c>
       <c r="AK5">
-        <v>0.0003321362772998174</v>
+        <v>0.0002644814395631841</v>
       </c>
       <c r="AL5">
-        <v>8.318555931460061E-05</v>
+        <v>1.231391805810955E-05</v>
       </c>
       <c r="AM5">
-        <v>2.760451911334182E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>5.670089312472134E-05</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>7.771847468825392E-05</v>
+        <v>6.776190787259866E-06</v>
       </c>
       <c r="AP5">
-        <v>2.988229395766504E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0007563751483047918</v>
+        <v>0.0006942020906752974</v>
       </c>
       <c r="AR5">
-        <v>0.001750891180333609</v>
+        <v>0.001701568708949764</v>
       </c>
       <c r="AS5">
-        <v>0.001330568009061013</v>
+        <v>0.001275814354076774</v>
       </c>
       <c r="AT5">
-        <v>0.00089988688849634</v>
+        <v>0.0008395682102184107</v>
       </c>
       <c r="AU5">
-        <v>0.001244275714958745</v>
+        <v>0.001188407038665665</v>
       </c>
       <c r="AV5">
-        <v>0.000933558036195052</v>
+        <v>0.0008736744378691366</v>
       </c>
       <c r="AW5">
-        <v>0.000575271630682491</v>
+        <v>0.0005107584535399424</v>
       </c>
       <c r="AX5">
-        <v>0.0005131513649281621</v>
+        <v>0.0004478355040610987</v>
       </c>
       <c r="AY5">
-        <v>0.0002343219039850376</v>
+        <v>0.0001654031630031429</v>
       </c>
       <c r="AZ5">
-        <v>4.62188668411258E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>6.471329957710549E-06</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>1.077922326328332E-06</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>2.666150217779325E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>8.62804141030797E-05</v>
+        <v>1.544876284885735E-05</v>
       </c>
       <c r="BE5">
-        <v>0.0003624953452248969</v>
+        <v>0.0002952327905768659</v>
       </c>
       <c r="BF5">
-        <v>0.0002490239929802087</v>
+        <v>0.0001802952242627513</v>
       </c>
       <c r="BG5">
-        <v>4.684873479807685E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>2.122822554913591E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>6.910953027664075E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>8.62804141030797E-05</v>
+        <v>1.544876284885735E-05</v>
       </c>
       <c r="BK5">
-        <v>0.0008566374914522628</v>
+        <v>0.0007957599683805966</v>
       </c>
       <c r="BL5">
-        <v>0.001531574895322998</v>
+        <v>0.001479418540175756</v>
       </c>
       <c r="BM5">
-        <v>0.0008611854411414287</v>
+        <v>0.0008003666841608452</v>
       </c>
       <c r="BN5">
-        <v>0.0004433834696965179</v>
+        <v>0.0003771661066656103</v>
       </c>
       <c r="BO5">
-        <v>0.000272404321382257</v>
+        <v>0.0002039776603401974</v>
       </c>
       <c r="BP5">
-        <v>0.0002290350243463746</v>
+        <v>0.0001600479692291829</v>
       </c>
       <c r="BQ5">
-        <v>0.0002884274802871384</v>
+        <v>0.0002202078616444003</v>
       </c>
       <c r="BR5">
-        <v>0.0001500651897436461</v>
+        <v>8.005773009029349E-05</v>
       </c>
       <c r="BS5">
-        <v>1.468040299665333E-05</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>1.975675364970512E-05</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.000312373748650507</v>
+        <v>0.0002444635504464089</v>
       </c>
       <c r="BV5">
-        <v>0.0006673991543859443</v>
+        <v>0.0006040763981625378</v>
       </c>
       <c r="BW5">
-        <v>0.0006022552588382682</v>
+        <v>0.0005380907492180812</v>
       </c>
       <c r="BX5">
-        <v>0.0009978477318011091</v>
+        <v>0.0009387948493726608</v>
       </c>
       <c r="BY5">
-        <v>0.001247927714709145</v>
+        <v>0.001192106227537457</v>
       </c>
       <c r="BZ5">
-        <v>0.00101425453067977</v>
+        <v>0.00095541364783425</v>
       </c>
       <c r="CA5">
-        <v>0.001083772825928474</v>
+        <v>0.001025830220053835</v>
       </c>
       <c r="CB5">
-        <v>0.0008047835449962721</v>
+        <v>0.000743235993901276</v>
       </c>
       <c r="CC5">
-        <v>0.0001800838676919898</v>
+        <v>0.0001104642927961797</v>
       </c>
       <c r="CD5">
-        <v>0.0001184810019022987</v>
+        <v>4.806542883821901E-05</v>
       </c>
       <c r="CE5">
-        <v>0.0002463497031629857</v>
+        <v>0.0001775863787512656</v>
       </c>
       <c r="CF5">
-        <v>0.0001359744107066943</v>
+        <v>6.578487779815917E-05</v>
       </c>
       <c r="CG5">
-        <v>0.0002487913829961067</v>
+        <v>0.000180059608621057</v>
       </c>
       <c r="CH5">
-        <v>0.000526715204001128</v>
+        <v>0.0004615746075624054</v>
       </c>
       <c r="CI5">
-        <v>1.051185128155712E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>6.471329957710549E-06</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0001127993162906191</v>
+        <v>4.231032762676816E-05</v>
       </c>
       <c r="CL5">
-        <v>0.0004710316378068765</v>
+        <v>0.0004051715291161645</v>
       </c>
       <c r="CM5">
-        <v>0.001049621928262551</v>
+        <v>0.0009912380433721002</v>
       </c>
       <c r="CN5">
-        <v>0.0009999484316575347</v>
+        <v>0.0009409226933110436</v>
       </c>
       <c r="CO5">
-        <v>0.001452656200716774</v>
+        <v>0.001399480101836128</v>
       </c>
       <c r="CP5">
-        <v>0.1777848078491213</v>
+        <v>0.1800100983105194</v>
       </c>
       <c r="CQ5">
-        <v>0.007396994094445117</v>
+        <v>0.007420627442890126</v>
       </c>
       <c r="CR5">
-        <v>0.08831728396386782</v>
+        <v>0.08938652455292069</v>
       </c>
       <c r="CS5">
-        <v>4.168844415076202E-05</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.02111530355685368</v>
+        <v>0.02131619731459702</v>
       </c>
       <c r="CU5">
-        <v>0.01190324518646093</v>
+        <v>0.0119851058197737</v>
       </c>
       <c r="CV5">
-        <v>0.01032962829401133</v>
+        <v>0.01039115551997542</v>
       </c>
       <c r="CW5">
-        <v>0.001488360398276535</v>
+        <v>0.001435645649294027</v>
       </c>
       <c r="CX5">
-        <v>1.940309267387643E-06</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.01597021890849958</v>
+        <v>0.01610463072740484</v>
       </c>
       <c r="CZ5">
-        <v>0.0001347707207889617</v>
+        <v>6.456563446489309E-05</v>
       </c>
       <c r="DA5">
-        <v>0.01415844603232699</v>
+        <v>0.01426944712395087</v>
       </c>
       <c r="DB5">
-        <v>0.03487629161634533</v>
+        <v>0.03525499725261928</v>
       </c>
       <c r="DC5">
-        <v>0.01466273399786093</v>
+        <v>0.0147802512197281</v>
       </c>
       <c r="DD5">
-        <v>0.02239696346925736</v>
+        <v>0.0226144181276916</v>
       </c>
       <c r="DE5">
-        <v>0.009609255343245932</v>
+        <v>0.009661474308272331</v>
       </c>
       <c r="DF5">
-        <v>0.002631362320156938</v>
+        <v>0.002593416809983082</v>
       </c>
       <c r="DG5">
-        <v>0.01758251879830535</v>
+        <v>0.01773776386486126</v>
       </c>
       <c r="DH5">
-        <v>8.164295442003148E-05</v>
+        <v>1.075138047608018E-05</v>
       </c>
       <c r="DI5">
-        <v>2.280562344132709E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.01588349291442696</v>
+        <v>0.01601678410799217</v>
       </c>
       <c r="DK5">
-        <v>0.001058379827663983</v>
+        <v>0.001000109107506895</v>
       </c>
       <c r="DL5">
-        <v>0.001518444896220381</v>
+        <v>0.001466118882485002</v>
       </c>
       <c r="DM5">
-        <v>0.005127579649550493</v>
+        <v>0.005121888879417195</v>
       </c>
       <c r="DN5">
-        <v>0.0006714142041115318</v>
+        <v>0.0006081433281405472</v>
       </c>
       <c r="DO5">
-        <v>0.002552361025556359</v>
+        <v>0.002513394704337647</v>
       </c>
       <c r="DP5">
-        <v>0.005264474640194271</v>
+        <v>0.00526055275143363</v>
       </c>
       <c r="DQ5">
-        <v>2.703653815216104E-08</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.0009127886376145572</v>
+        <v>0.0008526366686046776</v>
       </c>
       <c r="DS5">
-        <v>0.0009049913381474712</v>
+        <v>0.0008447386167454151</v>
       </c>
       <c r="DT5">
-        <v>0.0002138084853870474</v>
+        <v>0.0001446246813529777</v>
       </c>
       <c r="DU5">
-        <v>7.478262888890722E-05</v>
+        <v>3.802409611877584E-06</v>
       </c>
       <c r="DV5">
-        <v>5.534581621733541E-05</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.0180852937639427</v>
+        <v>0.01824703541059385</v>
       </c>
       <c r="DX5">
-        <v>0.0171516018277568</v>
+        <v>0.01730127882349593</v>
       </c>
       <c r="DY5">
-        <v>0.0008665066007777488</v>
+        <v>0.0008057566008796368</v>
       </c>
       <c r="DZ5">
-        <v>0.003244547778248171</v>
+        <v>0.003214525511501276</v>
       </c>
       <c r="EA5">
-        <v>0.004079874721156924</v>
+        <v>0.00406064608727009</v>
       </c>
       <c r="EB5">
-        <v>7.401745494120377E-05</v>
+        <v>3.027348509526839E-06</v>
       </c>
       <c r="EC5">
-        <v>0.03494119061190975</v>
+        <v>0.03532073483711831</v>
       </c>
       <c r="ED5">
-        <v>0.007321557499600906</v>
+        <v>0.007344216098080198</v>
       </c>
       <c r="EE5">
-        <v>0.0002528875827161479</v>
+        <v>0.0001842087371688763</v>
       </c>
       <c r="EF5">
-        <v>0.004186288213883989</v>
+        <v>0.004168434596308557</v>
       </c>
       <c r="EG5">
-        <v>0.0169287738429862</v>
+        <v>0.01707557157871944</v>
       </c>
       <c r="EH5">
-        <v>0.002495928229413314</v>
+        <v>0.002456232714807503</v>
       </c>
       <c r="EI5">
-        <v>0.008339479930029989</v>
+        <v>0.00837529155929243</v>
       </c>
       <c r="EJ5">
-        <v>0.0003183445182424288</v>
+        <v>0.000250511471021445</v>
       </c>
       <c r="EK5">
-        <v>0.0006580776550230313</v>
+        <v>0.0005946344515392046</v>
       </c>
       <c r="EL5">
-        <v>0.002290992343419861</v>
+        <v>0.002248648760615073</v>
       </c>
       <c r="EM5">
-        <v>0.01391331704908057</v>
+        <v>0.01402115071952765</v>
       </c>
       <c r="EN5">
-        <v>0.00729186690163014</v>
+        <v>0.007314141854619947</v>
       </c>
       <c r="EO5">
-        <v>0.001616738189502428</v>
+        <v>0.001565682267351308</v>
       </c>
       <c r="EP5">
-        <v>1.936440867652032E-05</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.0103307582939341</v>
+        <v>0.01039230012113236</v>
       </c>
       <c r="ER5">
-        <v>0.02472665731003213</v>
+        <v>0.0249742149840666</v>
       </c>
       <c r="ES5">
-        <v>0.01504096197201057</v>
+        <v>0.01516336644661755</v>
       </c>
       <c r="ET5">
-        <v>0.03257504777362612</v>
+        <v>0.03292401800944322</v>
       </c>
       <c r="EU5">
-        <v>0.01442568301406242</v>
+        <v>0.01454013719419489</v>
       </c>
       <c r="EV5">
-        <v>6.908049527862518E-05</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.0007447333891004595</v>
+        <v>0.0006824099030958677</v>
       </c>
       <c r="EX5">
-        <v>0.0002656171918461301</v>
+        <v>0.0001971028312691656</v>
       </c>
       <c r="EY5">
-        <v>0.003705609546736448</v>
+        <v>0.003681544865216654</v>
       </c>
       <c r="EZ5">
-        <v>2.087223957346613E-05</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.0008486550119978332</v>
+        <v>0.0007876743437405895</v>
       </c>
       <c r="FB5">
-        <v>0.01453639000649604</v>
+        <v>0.01465227468116902</v>
       </c>
       <c r="FC5">
-        <v>0.02289737843505601</v>
+        <v>0.02312129917897254</v>
       </c>
       <c r="FD5">
-        <v>0.005618470316000086</v>
+        <v>0.005619122563619378</v>
       </c>
       <c r="FE5">
-        <v>0.003710334146413541</v>
+        <v>0.003686330513558294</v>
       </c>
       <c r="FF5">
-        <v>0.0004920296163717488</v>
+        <v>0.0004264408319491653</v>
       </c>
       <c r="FG5">
-        <v>0.0003543817157794309</v>
+        <v>0.000287014321298158</v>
       </c>
       <c r="FH5">
-        <v>0.001555963693656122</v>
+        <v>0.00150412247707509</v>
       </c>
       <c r="FI5">
-        <v>0.002109574455819046</v>
+        <v>0.002064886691386173</v>
       </c>
       <c r="FJ5">
-        <v>0.01500925897417734</v>
+        <v>0.01513125380017658</v>
       </c>
       <c r="FK5">
-        <v>0.006915715527338577</v>
+        <v>0.00693313006026367</v>
       </c>
       <c r="FL5">
-        <v>0.00218870545041076</v>
+        <v>0.002145040172934312</v>
       </c>
       <c r="FM5">
-        <v>0.006612765148044021</v>
+        <v>0.00662626512368507</v>
       </c>
       <c r="FN5">
-        <v>0.01345046908071438</v>
+        <v>0.01355232208564722</v>
       </c>
       <c r="FO5">
-        <v>0.003013924494010348</v>
+        <v>0.002980922240708277</v>
       </c>
       <c r="FP5">
-        <v>0.0001834207374639281</v>
+        <v>0.0001138442797541802</v>
       </c>
       <c r="FQ5">
-        <v>0.00134624620798947</v>
+        <v>0.001291695138022484</v>
       </c>
       <c r="FR5">
-        <v>0.0008366425728188353</v>
+        <v>0.0007755066864648301</v>
       </c>
       <c r="FS5">
-        <v>7.256274504062736E-05</v>
+        <v>1.553841652000804E-06</v>
       </c>
       <c r="FT5">
-        <v>0.0001155629281017373</v>
+        <v>4.510964930156331E-05</v>
       </c>
       <c r="FU5">
-        <v>0.003504419760486963</v>
+        <v>0.003477755415797669</v>
       </c>
       <c r="FV5">
-        <v>0.001439310501628899</v>
+        <v>0.001385961957004178</v>
       </c>
       <c r="FW5">
-        <v>1.188007718804437E-06</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0005647742613999441</v>
+        <v>0.0005001254430560742</v>
       </c>
       <c r="FY5">
-        <v>0.0004167984315134987</v>
+        <v>0.0003502375513194562</v>
       </c>
       <c r="FZ5">
-        <v>0.0002072675858340917</v>
+        <v>0.0001379992639128061</v>
       </c>
       <c r="GA5">
-        <v>2.709399814823388E-06</v>
+        <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0008767615400768647</v>
+        <v>0.0008161440488338805</v>
       </c>
       <c r="GC5">
-        <v>0.001022508230115663</v>
+        <v>0.0009637739970103486</v>
       </c>
       <c r="GD5">
-        <v>0.01087668725662204</v>
+        <v>0.01094528327600331</v>
       </c>
       <c r="GE5">
-        <v>0.01028611729698513</v>
+        <v>0.01034708229790517</v>
       </c>
       <c r="GF5">
-        <v>0.001600586890606305</v>
+        <v>0.001549322270301751</v>
       </c>
       <c r="GG5">
-        <v>0.001596450590889004</v>
+        <v>0.001545132523606681</v>
       </c>
       <c r="GH5">
-        <v>0.002270525844818664</v>
+        <v>0.002227917805235955</v>
       </c>
       <c r="GI5">
-        <v>0.001262589013707104</v>
+        <v>0.001206956971734064</v>
       </c>
       <c r="GJ5">
-        <v>0.007255316204128233</v>
+        <v>0.007277118869215725</v>
       </c>
       <c r="GK5">
-        <v>0.002958000797832508</v>
+        <v>0.00292427592945158</v>
       </c>
       <c r="GL5">
-        <v>0.002466297831438434</v>
+        <v>0.002426219449214196</v>
       </c>
       <c r="GM5">
-        <v>0.009282488365579145</v>
+        <v>0.009330485028406783</v>
       </c>
       <c r="GN5">
-        <v>0.01072500926698863</v>
+        <v>0.01079164538725859</v>
       </c>
       <c r="GO5">
-        <v>0.01953584566480329</v>
+        <v>0.01971633054103091</v>
       </c>
       <c r="GP5">
-        <v>0.008593086412697003</v>
+        <v>0.008632175004696102</v>
       </c>
       <c r="GQ5">
-        <v>0.007914167459098391</v>
+        <v>0.007944483435789091</v>
       </c>
       <c r="GR5">
-        <v>0.0142077290289587</v>
+        <v>0.01431936692821389</v>
       </c>
       <c r="GS5">
-        <v>0.0103454072929329</v>
+        <v>0.01040713840639602</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.000486793043794299</v>
+        <v>0.0002356447935215686</v>
       </c>
       <c r="C6">
-        <v>0.0007161937908698686</v>
+        <v>0.0004741146766643482</v>
       </c>
       <c r="D6">
-        <v>0.0008278282394467381</v>
+        <v>0.0005901624849047679</v>
       </c>
       <c r="E6">
-        <v>0.001469599381265356</v>
+        <v>0.001257305426437902</v>
       </c>
       <c r="F6">
-        <v>0.001179148384968063</v>
+        <v>0.0009553717316757734</v>
       </c>
       <c r="G6">
-        <v>0.001549075680252182</v>
+        <v>0.001339923743830589</v>
       </c>
       <c r="H6">
-        <v>0.001133845785545587</v>
+        <v>0.0009082781379187168</v>
       </c>
       <c r="I6">
-        <v>0.0006502988917099052</v>
+        <v>0.0004056146865696987</v>
       </c>
       <c r="J6">
-        <v>0.001012324687094753</v>
+        <v>0.0007819528206894488</v>
       </c>
       <c r="K6">
-        <v>0.0008976900885561301</v>
+        <v>0.0006627862544680251</v>
       </c>
       <c r="L6">
-        <v>0.0002129704172850255</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0003040260561242364</v>
+        <v>4.565229023787171E-05</v>
       </c>
       <c r="N6">
-        <v>0.0006521200316866891</v>
+        <v>0.0004075078235493583</v>
       </c>
       <c r="O6">
-        <v>0.0002601099466840847</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>8.277630894475687E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>8.412584292755282E-07</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.000866756388950477</v>
+        <v>0.000630629621047368</v>
       </c>
       <c r="S6">
-        <v>0.001344887982855193</v>
+        <v>0.001127663683834304</v>
       </c>
       <c r="T6">
-        <v>0.0008716659888878888</v>
+        <v>0.00063573331725707</v>
       </c>
       <c r="U6">
-        <v>0.0008191039595579563</v>
+        <v>0.0005810932990712214</v>
       </c>
       <c r="V6">
-        <v>0.0005238027933224939</v>
+        <v>0.000274117687606019</v>
       </c>
       <c r="W6">
-        <v>0.0005075962935290966</v>
+        <v>0.0002572704795600407</v>
       </c>
       <c r="X6">
-        <v>0.0006540778516617306</v>
+        <v>0.000409543044038457</v>
       </c>
       <c r="Y6">
-        <v>0.0004932281337122638</v>
+        <v>0.0002423342884788139</v>
       </c>
       <c r="Z6">
-        <v>0.0001641451779074559</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0002690951165695405</v>
+        <v>9.340389863232831E-06</v>
       </c>
       <c r="AB6">
-        <v>0.000131510738323484</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>4.066453348160325E-05</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>3.810466251423681E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>3.437225656181801E-05</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0001333669182998212</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>1.940420975263261E-06</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>8.850547887172066E-06</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>7.998649898032172E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>6.970214511142801E-05</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0002119301772982866</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0008415741892715029</v>
+        <v>0.0006044518675252975</v>
       </c>
       <c r="AM6">
-        <v>0.00083950508929788</v>
+        <v>0.0006023009676907907</v>
       </c>
       <c r="AN6">
-        <v>0.001007033287162209</v>
+        <v>0.0007764522303920687</v>
       </c>
       <c r="AO6">
-        <v>0.001676107978632758</v>
+        <v>0.001471978140934167</v>
       </c>
       <c r="AP6">
-        <v>0.0006085264522424258</v>
+        <v>0.000362190814217979</v>
       </c>
       <c r="AQ6">
-        <v>0.0004883688937742099</v>
+        <v>0.0002372829432022063</v>
       </c>
       <c r="AR6">
-        <v>0.0002864512463482823</v>
+        <v>2.738267740113701E-05</v>
       </c>
       <c r="AS6">
-        <v>1.420774481887782E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>1.646157979014564E-07</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>1.29989578342876E-05</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0001192607284796487</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>7.034313910325653E-05</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>9.308239381337355E-05</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0002679256665844488</v>
+        <v>8.124706807090531E-06</v>
       </c>
       <c r="AZ6">
-        <v>1.18087278494608E-07</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>2.000191974501293E-08</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>9.239510882213515E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0001521800280599893</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>8.34746989358537E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0002861372463522852</v>
+        <v>2.705626371980933E-05</v>
       </c>
       <c r="BF6">
-        <v>0.0001269137983820864</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>4.910218137403902E-05</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>7.708150901735491E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.0001226619984362889</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>1.08645658614971E-05</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>7.688291901988656E-06</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>3.662402953311212E-06</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>2.458957468652891E-05</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>1.273939883759649E-06</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.000140887798203944</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0004273193945524769</v>
+        <v>0.0001738199112333696</v>
       </c>
       <c r="BQ6">
-        <v>0.0007054116910073201</v>
+        <v>0.0004629063169400065</v>
       </c>
       <c r="BR6">
-        <v>0.0009674195176672104</v>
+        <v>0.0007352723689367556</v>
       </c>
       <c r="BS6">
-        <v>0.0002678400165855407</v>
+        <v>8.035670718537329E-06</v>
       </c>
       <c r="BT6">
-        <v>1.055317586546674E-05</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>4.005998948931005E-05</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>2.368035469811976E-05</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>1.117968885747988E-07</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1.188979984842729E-05</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>1.000928987240027E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>6.016580623299848E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>1.940420975263261E-06</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>1.174465185027765E-06</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>3.768708951956009E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>1.08645658614971E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>9.352891880768118E-06</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>5.665596227774244E-06</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>4.629532640982116E-06</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>1.117927985748509E-06</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>3.662402953311212E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0001279288783691461</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>8.649666289732931E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>2.458957468652891E-05</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.0002476027968435274</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>5.599653928614884E-05</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.09352244880776367</v>
+        <v>0.09694937498393384</v>
       </c>
       <c r="CP6">
-        <v>0.04868449937936368</v>
+        <v>0.05033880070786113</v>
       </c>
       <c r="CQ6">
-        <v>0.03564675954557048</v>
+        <v>0.03678562647348769</v>
       </c>
       <c r="CR6">
-        <v>0.001386009382330972</v>
+        <v>0.001170410777959617</v>
       </c>
       <c r="CS6">
-        <v>0.03980373949257675</v>
+        <v>0.04110694859133984</v>
       </c>
       <c r="CT6">
-        <v>0.00106833318638075</v>
+        <v>0.0008401755616787539</v>
       </c>
       <c r="CU6">
-        <v>8.34746989358537E-05</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.01777983777334032</v>
+        <v>0.01821235327598875</v>
       </c>
       <c r="CW6">
-        <v>0.0007079412909750725</v>
+        <v>0.0004655359221893266</v>
       </c>
       <c r="CX6">
-        <v>0.01191570984809698</v>
+        <v>0.01211639274013914</v>
       </c>
       <c r="CY6">
-        <v>0.02162187172436157</v>
+        <v>0.02220627831333316</v>
       </c>
       <c r="CZ6">
-        <v>0.01451039181501964</v>
+        <v>0.01481365294235153</v>
       </c>
       <c r="DA6">
-        <v>0.02070481273605236</v>
+        <v>0.02125296428726727</v>
       </c>
       <c r="DB6">
-        <v>0.03391219956768288</v>
+        <v>0.03498249234901713</v>
       </c>
       <c r="DC6">
-        <v>0.001094146886051673</v>
+        <v>0.0008670097809325391</v>
       </c>
       <c r="DD6">
-        <v>0.06782074913541228</v>
+        <v>0.07023158354004896</v>
       </c>
       <c r="DE6">
-        <v>0.01112122635822516</v>
+        <v>0.01129050011597001</v>
       </c>
       <c r="DF6">
-        <v>0.01507977080776112</v>
+        <v>0.01540554178139828</v>
       </c>
       <c r="DG6">
-        <v>0.0003861765950769706</v>
+        <v>0.0001310505710800931</v>
       </c>
       <c r="DH6">
-        <v>3.188065859358123E-06</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.001193076684790503</v>
+        <v>0.000969850673324297</v>
       </c>
       <c r="DJ6">
-        <v>0.0001712301578171357</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>6.714603914401357E-07</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.0003527051555036688</v>
+        <v>9.625587060321778E-05</v>
       </c>
       <c r="DM6">
-        <v>0.000360341245406323</v>
+        <v>0.0001041938459148406</v>
       </c>
       <c r="DN6">
-        <v>0.001605763779529515</v>
+        <v>0.001398852952137825</v>
       </c>
       <c r="DO6">
-        <v>0.004501977442608206</v>
+        <v>0.004409565613694149</v>
       </c>
       <c r="DP6">
-        <v>0.004454218943217038</v>
+        <v>0.004359919028344822</v>
       </c>
       <c r="DQ6">
-        <v>0.00470534424001566</v>
+        <v>0.004620972320215907</v>
       </c>
       <c r="DR6">
-        <v>0.001549075680252182</v>
+        <v>0.001339923743830589</v>
       </c>
       <c r="DS6">
-        <v>0.0003221240758935205</v>
+        <v>6.446579766762375E-05</v>
       </c>
       <c r="DT6">
-        <v>0.0009629850277237418</v>
+        <v>0.0007306625657338548</v>
       </c>
       <c r="DU6">
-        <v>0.001487895581032114</v>
+        <v>0.001276324948719137</v>
       </c>
       <c r="DV6">
-        <v>0.007344956906365535</v>
+        <v>0.007364939513484441</v>
       </c>
       <c r="DW6">
-        <v>0.009134645883550348</v>
+        <v>0.009225382108776383</v>
       </c>
       <c r="DX6">
-        <v>8.13153389633815E-05</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0004953436936852943</v>
+        <v>0.0002445334850637489</v>
       </c>
       <c r="DZ6">
-        <v>0.002585845467035306</v>
+        <v>0.00241768121869483</v>
       </c>
       <c r="EA6">
-        <v>0.006599871315863984</v>
+        <v>0.006590397686732054</v>
       </c>
       <c r="EB6">
-        <v>0.009725462876018536</v>
+        <v>0.009839556478078869</v>
       </c>
       <c r="EC6">
-        <v>0.0004554137941943258</v>
+        <v>0.0002030249957196519</v>
       </c>
       <c r="ED6">
-        <v>0.0006638486415371712</v>
+        <v>0.0004197001126160995</v>
       </c>
       <c r="EE6">
-        <v>0.005238957633213088</v>
+        <v>0.005175681601425412</v>
       </c>
       <c r="EF6">
-        <v>0.003429154556284692</v>
+        <v>0.003294329714962791</v>
       </c>
       <c r="EG6">
-        <v>0.003369513657045002</v>
+        <v>0.003232330970610254</v>
       </c>
       <c r="EH6">
-        <v>0.004731849239677771</v>
+        <v>0.004648525169335622</v>
       </c>
       <c r="EI6">
-        <v>6.669107214981355E-06</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.0003040260561242364</v>
+        <v>4.565229023787171E-05</v>
       </c>
       <c r="EK6">
-        <v>0.01065757686413583</v>
+        <v>0.0108085206887702</v>
       </c>
       <c r="EL6">
-        <v>0.01710126478199086</v>
+        <v>0.01750695355949329</v>
       </c>
       <c r="EM6">
-        <v>0.01078813686247143</v>
+        <v>0.01094424225002543</v>
       </c>
       <c r="EN6">
-        <v>0.001273451583765874</v>
+        <v>0.001053403115984631</v>
       </c>
       <c r="EO6">
-        <v>0.002502786968094146</v>
+        <v>0.002331339082546562</v>
       </c>
       <c r="EP6">
-        <v>0.01012598887091258</v>
+        <v>0.01025591687975866</v>
       </c>
       <c r="EQ6">
-        <v>0.02233702671524468</v>
+        <v>0.02294970626323731</v>
       </c>
       <c r="ER6">
-        <v>0.02675282165895155</v>
+        <v>0.02754007537769081</v>
       </c>
       <c r="ES6">
-        <v>0.03645981453520555</v>
+        <v>0.03763082480365292</v>
       </c>
       <c r="ET6">
-        <v>0.01860045476287898</v>
+        <v>0.01906541256239029</v>
       </c>
       <c r="EU6">
-        <v>0.005412177531004858</v>
+        <v>0.005355749579891061</v>
       </c>
       <c r="EV6">
-        <v>0.0001123493685677557</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.0003124711760165769</v>
+        <v>5.443127975524142E-05</v>
       </c>
       <c r="EX6">
-        <v>0.0001065705986414242</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.002373583769741246</v>
+        <v>0.002197027961045552</v>
       </c>
       <c r="EZ6">
-        <v>2.333432970253093E-05</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.01830064976670094</v>
+        <v>0.01875375506643345</v>
       </c>
       <c r="FB6">
-        <v>0.01171916785060253</v>
+        <v>0.01191208064537638</v>
       </c>
       <c r="FC6">
-        <v>0.001644334279037813</v>
+        <v>0.001438948298939257</v>
       </c>
       <c r="FD6">
-        <v>0.001761133477548842</v>
+        <v>0.001560365040493808</v>
       </c>
       <c r="FE6">
-        <v>0.0014725375812279</v>
+        <v>0.001260359785286555</v>
       </c>
       <c r="FF6">
-        <v>3.62408055379975E-05</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.0001475207381193865</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.005454261930468361</v>
+        <v>0.005399497745274714</v>
       </c>
       <c r="FI6">
-        <v>0.004137745547251483</v>
+        <v>0.004030934163579569</v>
       </c>
       <c r="FJ6">
-        <v>0.002393328369489539</v>
+        <v>0.002217553144396961</v>
       </c>
       <c r="FK6">
-        <v>0.001818498776817541</v>
+        <v>0.001619998221237335</v>
       </c>
       <c r="FL6">
-        <v>0.01167542935116011</v>
+        <v>0.01186661298677527</v>
       </c>
       <c r="FM6">
-        <v>0.0123956688419784</v>
+        <v>0.01261532644738868</v>
       </c>
       <c r="FN6">
-        <v>0.007357194506209529</v>
+        <v>0.007377660914970478</v>
       </c>
       <c r="FO6">
-        <v>0.005211443533563841</v>
+        <v>0.005147079758529176</v>
       </c>
       <c r="FP6">
-        <v>0.004286296645357734</v>
+        <v>0.004185358085287459</v>
       </c>
       <c r="FQ6">
-        <v>0.0003586362254280588</v>
+        <v>0.0001024214196252312</v>
       </c>
       <c r="FR6">
-        <v>3.482559755603876E-06</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.0008715113388898602</v>
+        <v>0.000635572553321346</v>
       </c>
       <c r="FT6">
-        <v>0.004406715243822621</v>
+        <v>0.00431053731626302</v>
       </c>
       <c r="FU6">
-        <v>0.002011850674352667</v>
+        <v>0.001820994098532568</v>
       </c>
       <c r="FV6">
-        <v>0.00209049877335005</v>
+        <v>0.001902751473852402</v>
       </c>
       <c r="FW6">
-        <v>0.002260228871186309</v>
+        <v>0.002079191686505641</v>
       </c>
       <c r="FX6">
-        <v>0.005108536934875708</v>
+        <v>0.005040104847258742</v>
       </c>
       <c r="FY6">
-        <v>0.000140887798203944</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.0003238342458717189</v>
+        <v>6.624357755742038E-05</v>
       </c>
       <c r="GA6">
-        <v>0.004390937244023761</v>
+        <v>0.004294135548543312</v>
       </c>
       <c r="GB6">
-        <v>0.008917181886322607</v>
+        <v>0.008999320883310636</v>
       </c>
       <c r="GC6">
-        <v>0.01438965381655882</v>
+        <v>0.01468814168421095</v>
       </c>
       <c r="GD6">
-        <v>0.006522791916846602</v>
+        <v>0.006510271028424636</v>
       </c>
       <c r="GE6">
-        <v>0.0027752227646211</v>
+        <v>0.002614545364086225</v>
       </c>
       <c r="GF6">
-        <v>0.002451872668743209</v>
+        <v>0.002278411935746492</v>
       </c>
       <c r="GG6">
-        <v>0.002490899768245686</v>
+        <v>0.002318981933780071</v>
       </c>
       <c r="GH6">
-        <v>0.003261005658428276</v>
+        <v>0.003119533213497182</v>
       </c>
       <c r="GI6">
-        <v>0.001993751874583392</v>
+        <v>0.001802179780266282</v>
       </c>
       <c r="GJ6">
-        <v>0.0001532913680458217</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.002765480664745293</v>
+        <v>0.002604418119739529</v>
       </c>
       <c r="GL6">
-        <v>0.01047174336650486</v>
+        <v>0.01061534044402813</v>
       </c>
       <c r="GM6">
-        <v>0.01580464979852027</v>
+        <v>0.01615907816008342</v>
       </c>
       <c r="GN6">
-        <v>0.0274429036501543</v>
+        <v>0.02825743909118755</v>
       </c>
       <c r="GO6">
-        <v>0.02184632772150018</v>
+        <v>0.02243960796064554</v>
       </c>
       <c r="GP6">
-        <v>0.0194377297522053</v>
+        <v>0.01993578840644647</v>
       </c>
       <c r="GQ6">
-        <v>0.0140583288207826</v>
+        <v>0.01434371807603931</v>
       </c>
       <c r="GR6">
-        <v>0.01441597781622324</v>
+        <v>0.01471550637767359</v>
       </c>
       <c r="GS6">
-        <v>0.01209033384587085</v>
+        <v>0.01229792032831802</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.388135775196521E-05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002897723585363486</v>
+        <v>0.0002189412483846313</v>
       </c>
       <c r="D2">
-        <v>0.0007488339958229787</v>
+        <v>0.0006425062873002229</v>
       </c>
       <c r="E2">
-        <v>0.001568463702396239</v>
+        <v>0.001429218316115825</v>
       </c>
       <c r="F2">
-        <v>0.002742938997791328</v>
+        <v>0.002573313924999654</v>
       </c>
       <c r="G2">
-        <v>0.004048744603853535</v>
+        <v>0.003849679169117004</v>
       </c>
       <c r="H2">
-        <v>0.00524410060094463</v>
+        <v>0.005014804826454394</v>
       </c>
       <c r="I2">
-        <v>0.006320909188406879</v>
+        <v>0.006060535177789419</v>
       </c>
       <c r="J2">
-        <v>0.007217824531257555</v>
+        <v>0.006925085619285818</v>
       </c>
       <c r="K2">
-        <v>0.008327727921407882</v>
+        <v>0.008004147479984078</v>
       </c>
       <c r="L2">
-        <v>0.009144754687769723</v>
+        <v>0.008788237951365222</v>
       </c>
       <c r="M2">
-        <v>0.009682996901487682</v>
+        <v>0.009291549896451607</v>
       </c>
       <c r="N2">
-        <v>0.009823573622905826</v>
+        <v>0.009394352093679578</v>
       </c>
       <c r="O2">
-        <v>0.009875206962099672</v>
+        <v>0.009407574751626147</v>
       </c>
       <c r="P2">
-        <v>0.009885820591961749</v>
+        <v>0.009407574751626147</v>
       </c>
       <c r="Q2">
-        <v>0.009885842792292552</v>
+        <v>0.009407574751626147</v>
       </c>
       <c r="R2">
-        <v>0.009924347375420032</v>
+        <v>0.009407574751626147</v>
       </c>
       <c r="S2">
-        <v>0.01007307628750033</v>
+        <v>0.009518587447099033</v>
       </c>
       <c r="T2">
-        <v>0.01043022769650944</v>
+        <v>0.00983951335684209</v>
       </c>
       <c r="U2">
-        <v>0.01092596313677485</v>
+        <v>0.01030001450378932</v>
       </c>
       <c r="V2">
-        <v>0.0115605996283223</v>
+        <v>0.01090041017541483</v>
       </c>
       <c r="W2">
-        <v>0.01211682757350112</v>
+        <v>0.01142183649278627</v>
       </c>
       <c r="X2">
-        <v>0.01271903382241447</v>
+        <v>0.01198956996828998</v>
       </c>
       <c r="Y2">
-        <v>0.01339244937711169</v>
+        <v>0.01262902206574334</v>
       </c>
       <c r="Z2">
-        <v>0.01405489093091757</v>
+        <v>0.01325742167205754</v>
       </c>
       <c r="AA2">
-        <v>0.01467660448141537</v>
+        <v>0.01384480197282085</v>
       </c>
       <c r="AB2">
-        <v>0.01506299066279904</v>
+        <v>0.0141951717532018</v>
       </c>
       <c r="AC2">
-        <v>0.015308485332739</v>
+        <v>0.01440364231221111</v>
       </c>
       <c r="AD2">
-        <v>0.01542578682226664</v>
+        <v>0.01448300280419607</v>
       </c>
       <c r="AE2">
-        <v>0.01548217806284694</v>
+        <v>0.01450101739385792</v>
       </c>
       <c r="AF2">
-        <v>0.01549468232986258</v>
+        <v>0.01450101739385792</v>
       </c>
       <c r="AG2">
-        <v>0.01549520835225531</v>
+        <v>0.01450101739385792</v>
       </c>
       <c r="AH2">
-        <v>0.01558730875573603</v>
+        <v>0.0145549965519986</v>
       </c>
       <c r="AI2">
-        <v>0.01589721315090758</v>
+        <v>0.01482833751920688</v>
       </c>
       <c r="AJ2">
-        <v>0.01626629908088606</v>
+        <v>0.01516128331017375</v>
       </c>
       <c r="AK2">
-        <v>0.01687197123008092</v>
+        <v>0.01573250747540219</v>
       </c>
       <c r="AL2">
-        <v>0.01745326127729538</v>
+        <v>0.01627917514853986</v>
       </c>
       <c r="AM2">
-        <v>0.01827028804365722</v>
+        <v>0.01706326561992101</v>
       </c>
       <c r="AN2">
-        <v>0.01922534222123014</v>
+        <v>0.01798637072730185</v>
       </c>
       <c r="AO2">
-        <v>0.02001145682508118</v>
+        <v>0.01873932794057363</v>
       </c>
       <c r="AP2">
-        <v>0.02081123655004216</v>
+        <v>0.01950604801312329</v>
       </c>
       <c r="AQ2">
-        <v>0.02158549064292985</v>
+        <v>0.02024705988452512</v>
       </c>
       <c r="AR2">
-        <v>0.02219564976248916</v>
+        <v>0.02082280311264463</v>
       </c>
       <c r="AS2">
-        <v>0.02260235821552347</v>
+        <v>0.02119364051732871</v>
       </c>
       <c r="AT2">
-        <v>0.022745463477147</v>
+        <v>0.02129898933984782</v>
       </c>
       <c r="AU2">
-        <v>0.02280361057186991</v>
+        <v>0.02131877234219207</v>
       </c>
       <c r="AV2">
-        <v>0.02281172393752891</v>
+        <v>0.02131877234219207</v>
       </c>
       <c r="AW2">
-        <v>0.02283149126913448</v>
+        <v>0.02131877234219207</v>
       </c>
       <c r="AX2">
-        <v>0.02292427696667087</v>
+        <v>0.02137344169587337</v>
       </c>
       <c r="AY2">
-        <v>0.02324243154251252</v>
+        <v>0.02165509185219651</v>
       </c>
       <c r="AZ2">
-        <v>0.0237429054131628</v>
+        <v>0.02212036532059339</v>
       </c>
       <c r="BA2">
-        <v>0.02448571077349611</v>
+        <v>0.02282970352608828</v>
       </c>
       <c r="BB2">
-        <v>0.02537569084578348</v>
+        <v>0.02368726909331617</v>
       </c>
       <c r="BC2">
-        <v>0.02636035642576155</v>
+        <v>0.0246401973951674</v>
       </c>
       <c r="BD2">
-        <v>0.02746960321585854</v>
+        <v>0.02571859795955784</v>
       </c>
       <c r="BE2">
-        <v>0.02862580410976932</v>
+        <v>0.02684428846145485</v>
       </c>
       <c r="BF2">
-        <v>0.02982677700731664</v>
+        <v>0.02801507119346688</v>
       </c>
       <c r="BG2">
-        <v>0.03090891709521193</v>
+        <v>0.02906617117816335</v>
       </c>
       <c r="BH2">
-        <v>0.03163528170420987</v>
+        <v>0.0297589510417869</v>
       </c>
       <c r="BI2">
-        <v>0.03218154021857894</v>
+        <v>0.03027033662316988</v>
       </c>
       <c r="BJ2">
-        <v>0.03238917563544384</v>
+        <v>0.03044067714525919</v>
       </c>
       <c r="BK2">
-        <v>0.03247906275274479</v>
+        <v>0.03049242718695159</v>
       </c>
       <c r="BL2">
-        <v>0.0324793805837106</v>
+        <v>0.03049242718695159</v>
       </c>
       <c r="BM2">
-        <v>0.03257352979135774</v>
+        <v>0.03054846980308898</v>
       </c>
       <c r="BN2">
-        <v>0.03289965933784715</v>
+        <v>0.03083815197009738</v>
       </c>
       <c r="BO2">
-        <v>0.03360544963517396</v>
+        <v>0.0315102103667108</v>
       </c>
       <c r="BP2">
-        <v>0.0345114715087643</v>
+        <v>0.03238393247233454</v>
       </c>
       <c r="BQ2">
-        <v>0.03561834559866858</v>
+        <v>0.03345994336607382</v>
       </c>
       <c r="BR2">
-        <v>0.03693513430562288</v>
+        <v>0.03474737026641774</v>
       </c>
       <c r="BS2">
-        <v>0.03847290823052638</v>
+        <v>0.03625736295543348</v>
       </c>
       <c r="BT2">
-        <v>0.03979410313783856</v>
+        <v>0.03754922757096398</v>
       </c>
       <c r="BU2">
-        <v>0.04082561542162168</v>
+        <v>0.03854933764214714</v>
       </c>
       <c r="BV2">
-        <v>0.04173163729521202</v>
+        <v>0.03942305974777088</v>
       </c>
       <c r="BW2">
-        <v>0.042531417020173</v>
+        <v>0.04018977982032054</v>
       </c>
       <c r="BX2">
-        <v>0.04321641257581079</v>
+        <v>0.0408408947433062</v>
       </c>
       <c r="BY2">
-        <v>0.043403454441003</v>
+        <v>0.04099049442077197</v>
       </c>
       <c r="BZ2">
-        <v>0.0434781297870684</v>
+        <v>0.04102692389082815</v>
       </c>
       <c r="CA2">
-        <v>0.04348033065484716</v>
+        <v>0.04102692389082815</v>
       </c>
       <c r="CB2">
-        <v>0.0434842278258637</v>
+        <v>0.04102692389082815</v>
       </c>
       <c r="CC2">
-        <v>0.04353615580008148</v>
+        <v>0.04104044329114093</v>
       </c>
       <c r="CD2">
-        <v>0.04369888556329898</v>
+        <v>0.04116555697718841</v>
       </c>
       <c r="CE2">
-        <v>0.04404072833106467</v>
+        <v>0.04147106475243607</v>
       </c>
       <c r="CF2">
-        <v>0.0447621965896649</v>
+        <v>0.04215891324509286</v>
       </c>
       <c r="CG2">
-        <v>0.04569150962514704</v>
+        <v>0.04305609309989836</v>
       </c>
       <c r="CH2">
-        <v>0.0467836501138546</v>
+        <v>0.0441172650120951</v>
       </c>
       <c r="CI2">
-        <v>0.0477315472908462</v>
+        <v>0.0450331619292916</v>
       </c>
       <c r="CJ2">
-        <v>0.04853334415597101</v>
+        <v>0.04580191356936236</v>
       </c>
       <c r="CK2">
-        <v>0.04944700526018184</v>
+        <v>0.04668332954430312</v>
       </c>
       <c r="CL2">
-        <v>0.05006871881067964</v>
+        <v>0.04727070984506643</v>
       </c>
       <c r="CM2">
-        <v>0.05064880295779615</v>
+        <v>0.04781616299304785</v>
       </c>
       <c r="CN2">
-        <v>0.0510649548515975</v>
+        <v>0.0481965113815959</v>
       </c>
       <c r="CO2">
-        <v>0.05925946251718476</v>
+        <v>0.05641084931470889</v>
       </c>
       <c r="CP2">
-        <v>0.1910255832197009</v>
+        <v>0.1890806316809145</v>
       </c>
       <c r="CQ2">
-        <v>0.2785734363306511</v>
+        <v>0.277215880508862</v>
       </c>
       <c r="CR2">
-        <v>0.3182024855494643</v>
+        <v>0.3170895918482938</v>
       </c>
       <c r="CS2">
-        <v>0.3188898646452957</v>
+        <v>0.3177431073594634</v>
       </c>
       <c r="CT2">
-        <v>0.3600612179893805</v>
+        <v>0.3591701539726225</v>
       </c>
       <c r="CU2">
-        <v>0.3632743765503648</v>
+        <v>0.3623675142888416</v>
       </c>
       <c r="CV2">
-        <v>0.377392976697128</v>
+        <v>0.376548316076296</v>
       </c>
       <c r="CW2">
-        <v>0.3850439808185699</v>
+        <v>0.38421526312023</v>
       </c>
       <c r="CX2">
-        <v>0.3892199081577537</v>
+        <v>0.3883822783048476</v>
       </c>
       <c r="CY2">
-        <v>0.3896404024619077</v>
+        <v>0.3887670001623266</v>
       </c>
       <c r="CZ2">
-        <v>0.3896449213899748</v>
+        <v>0.3887670001623266</v>
       </c>
       <c r="DA2">
-        <v>0.4369913902356245</v>
+        <v>0.43641332906278</v>
       </c>
       <c r="DB2">
-        <v>0.4369997078943001</v>
+        <v>0.43641332906278</v>
       </c>
       <c r="DC2">
-        <v>0.489763682179979</v>
+        <v>0.4895159114723305</v>
       </c>
       <c r="DD2">
-        <v>0.4903314142260922</v>
+        <v>0.4900489241723622</v>
       </c>
       <c r="DE2">
-        <v>0.4995674509762762</v>
+        <v>0.4993122406040786</v>
       </c>
       <c r="DF2">
-        <v>0.50914070175385</v>
+        <v>0.5089151829467663</v>
       </c>
       <c r="DG2">
-        <v>0.5152779499523392</v>
+        <v>0.5150575471069436</v>
       </c>
       <c r="DH2">
-        <v>0.5155492775043774</v>
+        <v>0.5152920353146954</v>
       </c>
       <c r="DI2">
-        <v>0.5155683299759249</v>
+        <v>0.5152920353146954</v>
       </c>
       <c r="DJ2">
-        <v>0.5180725706793283</v>
+        <v>0.5177754073219213</v>
       </c>
       <c r="DK2">
-        <v>0.5237583111411446</v>
+        <v>0.5234630343895608</v>
       </c>
       <c r="DL2">
-        <v>0.5279676249830401</v>
+        <v>0.5276636748699154</v>
       </c>
       <c r="DM2">
-        <v>0.5302920905718415</v>
+        <v>0.5299659859422233</v>
       </c>
       <c r="DN2">
-        <v>0.5302948822182683</v>
+        <v>0.5299659859422233</v>
       </c>
       <c r="DO2">
-        <v>0.5303703459393977</v>
+        <v>0.5300032094261032</v>
       </c>
       <c r="DP2">
-        <v>0.5319681641691782</v>
+        <v>0.5315736758798089</v>
       </c>
       <c r="DQ2">
-        <v>0.5319711099150175</v>
+        <v>0.5315736758798089</v>
       </c>
       <c r="DR2">
-        <v>0.5323854076886683</v>
+        <v>0.5319521568868305</v>
       </c>
       <c r="DS2">
-        <v>0.5333239898249033</v>
+        <v>0.5328586721385394</v>
       </c>
       <c r="DT2">
-        <v>0.5333399974242035</v>
+        <v>0.5328586721385394</v>
       </c>
       <c r="DU2">
-        <v>0.533622249097129</v>
+        <v>0.5331041626006654</v>
       </c>
       <c r="DV2">
-        <v>0.5336367180103042</v>
+        <v>0.5331041626006654</v>
       </c>
       <c r="DW2">
-        <v>0.5598600761402592</v>
+        <v>0.5594763002259303</v>
       </c>
       <c r="DX2">
-        <v>0.5689711978802972</v>
+        <v>0.568613808207615</v>
       </c>
       <c r="DY2">
-        <v>0.5727450182868203</v>
+        <v>0.5723758404371349</v>
       </c>
       <c r="DZ2">
-        <v>0.5744325663238891</v>
+        <v>0.5740366784799983</v>
       </c>
       <c r="EA2">
-        <v>0.5760042443515464</v>
+        <v>0.5755808177668663</v>
       </c>
       <c r="EB2">
-        <v>0.5972870380802111</v>
+        <v>0.5969770541863328</v>
       </c>
       <c r="EC2">
-        <v>0.6299360177320782</v>
+        <v>0.629820771834021</v>
       </c>
       <c r="ED2">
-        <v>0.6339867734610951</v>
+        <v>0.6338617201332847</v>
       </c>
       <c r="EE2">
-        <v>0.6340449205558181</v>
+        <v>0.633881503135629</v>
       </c>
       <c r="EF2">
-        <v>0.6402521045599878</v>
+        <v>0.6400943033090932</v>
       </c>
       <c r="EG2">
-        <v>0.6503314693786699</v>
+        <v>0.6502069796139098</v>
       </c>
       <c r="EH2">
-        <v>0.6508419329701316</v>
+        <v>0.6506823142534187</v>
       </c>
       <c r="EI2">
-        <v>0.6548158405929067</v>
+        <v>0.6546458647994192</v>
       </c>
       <c r="EJ2">
-        <v>0.65482511593266</v>
+        <v>0.6546458647994192</v>
       </c>
       <c r="EK2">
-        <v>0.6550699694525479</v>
+        <v>0.6548536896226262</v>
       </c>
       <c r="EL2">
-        <v>0.6691885695993112</v>
+        <v>0.6690344914100806</v>
       </c>
       <c r="EM2">
-        <v>0.690998255370772</v>
+        <v>0.6909613884055716</v>
       </c>
       <c r="EN2">
-        <v>0.6996266750716031</v>
+        <v>0.699612741878613</v>
       </c>
       <c r="EO2">
-        <v>0.7012590494041905</v>
+        <v>0.7012180115935774</v>
       </c>
       <c r="EP2">
-        <v>0.7014032452359026</v>
+        <v>0.7013244587863592</v>
       </c>
       <c r="EQ2">
-        <v>0.7167498904824121</v>
+        <v>0.7167420891213792</v>
       </c>
       <c r="ER2">
-        <v>0.7310189936413998</v>
+        <v>0.7310744703761123</v>
       </c>
       <c r="ES2">
-        <v>0.7423391335608621</v>
+        <v>0.7424367962793602</v>
       </c>
       <c r="ET2">
-        <v>0.7685509526898799</v>
+        <v>0.7687973123723438</v>
       </c>
       <c r="EU2">
-        <v>0.7714801239277977</v>
+        <v>0.7717086541796433</v>
       </c>
       <c r="EV2">
-        <v>0.7735681840973975</v>
+        <v>0.7737728689708551</v>
       </c>
       <c r="EW2">
-        <v>0.7760957775026976</v>
+        <v>0.7762797607074254</v>
       </c>
       <c r="EX2">
-        <v>0.777012191077132</v>
+        <v>0.7771639488393086</v>
       </c>
       <c r="EY2">
-        <v>0.7794252231731271</v>
+        <v>0.7795554598803131</v>
       </c>
       <c r="EZ2">
-        <v>0.7813791991318361</v>
+        <v>0.7814846314391209</v>
       </c>
       <c r="FA2">
-        <v>0.7820494700862779</v>
+        <v>0.7821209164449362</v>
       </c>
       <c r="FB2">
-        <v>0.8088307742615514</v>
+        <v>0.8090549907588404</v>
       </c>
       <c r="FC2">
-        <v>0.8156472268152081</v>
+        <v>0.8158814172032738</v>
       </c>
       <c r="FD2">
-        <v>0.8176353377766895</v>
+        <v>0.8178449679114379</v>
       </c>
       <c r="FE2">
-        <v>0.8180959278441002</v>
+        <v>0.8182700723123939</v>
       </c>
       <c r="FF2">
-        <v>0.820232287217623</v>
+        <v>0.8203829317618915</v>
       </c>
       <c r="FG2">
-        <v>0.8221277169715766</v>
+        <v>0.8222531383711157</v>
       </c>
       <c r="FH2">
-        <v>0.8225040343021425</v>
+        <v>0.8225933672844102</v>
       </c>
       <c r="FI2">
-        <v>0.8450392431325329</v>
+        <v>0.8452509765569882</v>
       </c>
       <c r="FJ2">
-        <v>0.8593917982982988</v>
+        <v>0.8596674066991411</v>
       </c>
       <c r="FK2">
-        <v>0.86554569009814</v>
+        <v>0.8658265335020671</v>
       </c>
       <c r="FL2">
-        <v>0.8656643092517746</v>
+        <v>0.8659072210825962</v>
       </c>
       <c r="FM2">
-        <v>0.879902088408218</v>
+        <v>0.8802080542935492</v>
       </c>
       <c r="FN2">
-        <v>0.8923268934174052</v>
+        <v>0.8926829462733632</v>
       </c>
       <c r="FO2">
-        <v>0.892400354973372</v>
+        <v>0.8927181532718302</v>
       </c>
       <c r="FP2">
-        <v>0.8950717494903522</v>
+        <v>0.8953698746405813</v>
       </c>
       <c r="FQ2">
-        <v>0.8959109014085112</v>
+        <v>0.8961762485112997</v>
       </c>
       <c r="FR2">
-        <v>0.8960967009236025</v>
+        <v>0.8963245969529019</v>
       </c>
       <c r="FS2">
-        <v>0.8967033812728793</v>
+        <v>0.8968968365292445</v>
       </c>
       <c r="FT2">
-        <v>0.8970478365708572</v>
+        <v>0.8972049755205187</v>
       </c>
       <c r="FU2">
-        <v>0.9000930421181996</v>
+        <v>0.9002331815589635</v>
       </c>
       <c r="FV2">
-        <v>0.9001136268318716</v>
+        <v>0.9002331815589635</v>
       </c>
       <c r="FW2">
-        <v>0.9001179955122264</v>
+        <v>0.9002331815589635</v>
       </c>
       <c r="FX2">
-        <v>0.9002109712097782</v>
+        <v>0.900288042271613</v>
       </c>
       <c r="FY2">
-        <v>0.9002260639360041</v>
+        <v>0.900288042271613</v>
       </c>
       <c r="FZ2">
-        <v>0.9041283107529586</v>
+        <v>0.9041794194663263</v>
       </c>
       <c r="GA2">
-        <v>0.9042199315004004</v>
+        <v>0.9042329155377448</v>
       </c>
       <c r="GB2">
-        <v>0.9043345060997066</v>
+        <v>0.9043095296357474</v>
       </c>
       <c r="GC2">
-        <v>0.90607985504147</v>
+        <v>0.9060285819974632</v>
       </c>
       <c r="GD2">
-        <v>0.9167355909069671</v>
+        <v>0.916721751775067</v>
       </c>
       <c r="GE2">
-        <v>0.920070225177818</v>
+        <v>0.9200414566418484</v>
       </c>
       <c r="GF2">
-        <v>0.9203711190822577</v>
+        <v>0.9203057226718521</v>
       </c>
       <c r="GG2">
-        <v>0.9226340684660626</v>
+        <v>0.9225460775517584</v>
       </c>
       <c r="GH2">
-        <v>0.924097823784954</v>
+        <v>0.9239815222254076</v>
       </c>
       <c r="GI2">
-        <v>0.9285762736487098</v>
+        <v>0.9284532236912942</v>
       </c>
       <c r="GJ2">
-        <v>0.9382865214374109</v>
+        <v>0.9381941429000829</v>
       </c>
       <c r="GK2">
-        <v>0.9389170766386268</v>
+        <v>0.9387904280904289</v>
       </c>
       <c r="GL2">
-        <v>0.9422909713126666</v>
+        <v>0.9421496741658052</v>
       </c>
       <c r="GM2">
-        <v>0.9473651727248114</v>
+        <v>0.9472213882228061</v>
       </c>
       <c r="GN2">
-        <v>0.9580909975960012</v>
+        <v>0.9579851483094541</v>
       </c>
       <c r="GO2">
-        <v>0.9721160517351664</v>
+        <v>0.9720717350125179</v>
       </c>
       <c r="GP2">
-        <v>0.9770828014385835</v>
+        <v>0.9770352288251104</v>
       </c>
       <c r="GQ2">
-        <v>0.9843212760265183</v>
+        <v>0.984286695766676</v>
       </c>
       <c r="GR2">
-        <v>0.992406326683215</v>
+        <v>0.9923907938125448</v>
       </c>
       <c r="GS2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.0003577757192269684</v>
+        <v>0.000249819066914917</v>
       </c>
       <c r="C3">
-        <v>0.001081745817662715</v>
+        <v>0.0008723765229105512</v>
       </c>
       <c r="D3">
-        <v>0.001762987676190783</v>
+        <v>0.001451442171779451</v>
       </c>
       <c r="E3">
-        <v>0.001956357065772978</v>
+        <v>0.00153391691571794</v>
       </c>
       <c r="F3">
-        <v>0.002220204185202894</v>
+        <v>0.001688128848922593</v>
       </c>
       <c r="G3">
-        <v>0.002591168124401367</v>
+        <v>0.001951371813488922</v>
       </c>
       <c r="H3">
-        <v>0.002689830539188191</v>
+        <v>0.001951371813488922</v>
       </c>
       <c r="I3">
-        <v>0.002985641468549044</v>
+        <v>0.002138118760060744</v>
       </c>
       <c r="J3">
-        <v>0.003440256017566777</v>
+        <v>0.00248650719741401</v>
       </c>
       <c r="K3">
-        <v>0.00373211909693616</v>
+        <v>0.002669235744661047</v>
       </c>
       <c r="L3">
-        <v>0.004396039995501653</v>
+        <v>0.003230670902511128</v>
       </c>
       <c r="M3">
-        <v>0.004833148294557211</v>
+        <v>0.003561240247654829</v>
       </c>
       <c r="N3">
-        <v>0.004951711624301035</v>
+        <v>0.003567572123704752</v>
       </c>
       <c r="O3">
-        <v>0.005022294110148531</v>
+        <v>0.003567572123704752</v>
       </c>
       <c r="P3">
-        <v>0.005022366906118373</v>
+        <v>0.003567572123704752</v>
       </c>
       <c r="Q3">
-        <v>0.005134709525875639</v>
+        <v>0.003567572123704752</v>
       </c>
       <c r="R3">
-        <v>0.005339404325433363</v>
+        <v>0.003661574666292359</v>
       </c>
       <c r="S3">
-        <v>0.005634368124796047</v>
+        <v>0.003847459344383868</v>
       </c>
       <c r="T3">
-        <v>0.006162899973654069</v>
+        <v>0.004271086007204155</v>
       </c>
       <c r="U3">
-        <v>0.006484960542958206</v>
+        <v>0.004484551683122804</v>
       </c>
       <c r="V3">
-        <v>0.006913377802032542</v>
+        <v>0.004806274676640256</v>
       </c>
       <c r="W3">
-        <v>0.007140397721542029</v>
+        <v>0.004923001296164363</v>
       </c>
       <c r="X3">
-        <v>0.007141534049339574</v>
+        <v>0.004923001296164363</v>
       </c>
       <c r="Y3">
-        <v>0.007150458950320291</v>
+        <v>0.004923001296164363</v>
       </c>
       <c r="Z3">
-        <v>0.007194826415224427</v>
+        <v>0.004923001296164363</v>
       </c>
       <c r="AA3">
-        <v>0.007222331075164999</v>
+        <v>0.004923001296164363</v>
       </c>
       <c r="AB3">
-        <v>0.00724233837812177</v>
+        <v>0.004923001296164363</v>
       </c>
       <c r="AC3">
-        <v>0.007262759866077646</v>
+        <v>0.004923001296164363</v>
       </c>
       <c r="AD3">
-        <v>0.007268473234465301</v>
+        <v>0.004923001296164363</v>
       </c>
       <c r="AE3">
-        <v>0.007272654447156268</v>
+        <v>0.004923001296164363</v>
       </c>
       <c r="AF3">
-        <v>0.00727307880820535</v>
+        <v>0.004923001296164363</v>
       </c>
       <c r="AG3">
-        <v>0.007287922332173279</v>
+        <v>0.004923001296164363</v>
       </c>
       <c r="AH3">
-        <v>0.007376775861981297</v>
+        <v>0.004923001296164363</v>
       </c>
       <c r="AI3">
-        <v>0.007441672971841076</v>
+        <v>0.004923001296164363</v>
       </c>
       <c r="AJ3">
-        <v>0.007658110461373428</v>
+        <v>0.005028956374326312</v>
       </c>
       <c r="AK3">
-        <v>0.00779299902108198</v>
+        <v>0.005051905217385866</v>
       </c>
       <c r="AL3">
-        <v>0.007970686820698058</v>
+        <v>0.00511841813636455</v>
       </c>
       <c r="AM3">
-        <v>0.008398217919774308</v>
+        <v>0.005439239133923278</v>
       </c>
       <c r="AN3">
-        <v>0.0091302664181926</v>
+        <v>0.006070019353475113</v>
       </c>
       <c r="AO3">
-        <v>0.01011030701607507</v>
+        <v>0.006953223370079061</v>
       </c>
       <c r="AP3">
-        <v>0.01097228651421262</v>
+        <v>0.007716256497585536</v>
       </c>
       <c r="AQ3">
-        <v>0.0110500065240447</v>
+        <v>0.007716256497585536</v>
       </c>
       <c r="AR3">
-        <v>0.01110456491392681</v>
+        <v>0.007716256497585536</v>
       </c>
       <c r="AS3">
-        <v>0.01115743541581258</v>
+        <v>0.007716256497585536</v>
       </c>
       <c r="AT3">
-        <v>0.01117955608576478</v>
+        <v>0.007716256497585536</v>
       </c>
       <c r="AU3">
-        <v>0.01121842904968079</v>
+        <v>0.007716256497585536</v>
       </c>
       <c r="AV3">
-        <v>0.01128611247953455</v>
+        <v>0.007716256497585536</v>
       </c>
       <c r="AW3">
-        <v>0.01150864366905374</v>
+        <v>0.007828414172088646</v>
       </c>
       <c r="AX3">
-        <v>0.01175841544851407</v>
+        <v>0.007968299234527661</v>
       </c>
       <c r="AY3">
-        <v>0.01195431022809081</v>
+        <v>0.008053344497982043</v>
       </c>
       <c r="AZ3">
-        <v>0.01222374568750865</v>
+        <v>0.008213244636585248</v>
       </c>
       <c r="BA3">
-        <v>0.01245670311700531</v>
+        <v>0.008336014871285945</v>
       </c>
       <c r="BB3">
-        <v>0.01258836395672083</v>
+        <v>0.008355678313970967</v>
       </c>
       <c r="BC3">
-        <v>0.01267697016652938</v>
+        <v>0.008355678313970967</v>
       </c>
       <c r="BD3">
-        <v>0.01269606106448814</v>
+        <v>0.008355678313970967</v>
       </c>
       <c r="BE3">
-        <v>0.01270379942647142</v>
+        <v>0.008355678313970967</v>
       </c>
       <c r="BF3">
-        <v>0.01270649480246559</v>
+        <v>0.008355678313970967</v>
       </c>
       <c r="BG3">
-        <v>0.01273073730741321</v>
+        <v>0.008355678313970967</v>
       </c>
       <c r="BH3">
-        <v>0.0128098850872422</v>
+        <v>0.008355678313970967</v>
       </c>
       <c r="BI3">
-        <v>0.01283256602919319</v>
+        <v>0.008355678313970967</v>
       </c>
       <c r="BJ3">
-        <v>0.01283660715418446</v>
+        <v>0.008355678313970967</v>
       </c>
       <c r="BK3">
-        <v>0.01291514143901478</v>
+        <v>0.008355678313970967</v>
       </c>
       <c r="BL3">
-        <v>0.01303622579875315</v>
+        <v>0.008364576271622208</v>
       </c>
       <c r="BM3">
-        <v>0.01325811846827372</v>
+        <v>0.008476084015571506</v>
       </c>
       <c r="BN3">
-        <v>0.01388691091691511</v>
+        <v>0.009001762966939384</v>
       </c>
       <c r="BO3">
-        <v>0.0141518815263426</v>
+        <v>0.009157118467264724</v>
       </c>
       <c r="BP3">
-        <v>0.01438418563584067</v>
+        <v>0.009279223706930944</v>
       </c>
       <c r="BQ3">
-        <v>0.0145849911954068</v>
+        <v>0.009369267507572953</v>
       </c>
       <c r="BR3">
-        <v>0.01458768657140097</v>
+        <v>0.009369267507572953</v>
       </c>
       <c r="BS3">
-        <v>0.01459093148439396</v>
+        <v>0.009369267507572953</v>
       </c>
       <c r="BT3">
-        <v>0.01459405312958722</v>
+        <v>0.009369267507572953</v>
       </c>
       <c r="BU3">
-        <v>0.01464411508947905</v>
+        <v>0.009369267507572953</v>
       </c>
       <c r="BV3">
-        <v>0.01472364442930722</v>
+        <v>0.009369267507572953</v>
       </c>
       <c r="BW3">
-        <v>0.01486691383899766</v>
+        <v>0.00940074696906561</v>
       </c>
       <c r="BX3">
-        <v>0.01495336538481087</v>
+        <v>0.00940074696906561</v>
       </c>
       <c r="BY3">
-        <v>0.0149663093837829</v>
+        <v>0.00940074696906561</v>
       </c>
       <c r="BZ3">
-        <v>0.01497572240926256</v>
+        <v>0.00940074696906561</v>
       </c>
       <c r="CA3">
-        <v>0.01497643741580102</v>
+        <v>0.00940074696906561</v>
       </c>
       <c r="CB3">
-        <v>0.01499771488075504</v>
+        <v>0.00940074696906561</v>
       </c>
       <c r="CC3">
-        <v>0.01503228283068036</v>
+        <v>0.00940074696906561</v>
       </c>
       <c r="CD3">
-        <v>0.01507380422059064</v>
+        <v>0.00940074696906561</v>
       </c>
       <c r="CE3">
-        <v>0.01509615730654234</v>
+        <v>0.00940074696906561</v>
       </c>
       <c r="CF3">
-        <v>0.01515210922042145</v>
+        <v>0.00940074696906561</v>
       </c>
       <c r="CG3">
-        <v>0.01528592996013231</v>
+        <v>0.009422608909844938</v>
       </c>
       <c r="CH3">
-        <v>0.01529493347011286</v>
+        <v>0.009422608909844938</v>
       </c>
       <c r="CI3">
-        <v>0.01529521933461224</v>
+        <v>0.009422608909844938</v>
       </c>
       <c r="CJ3">
-        <v>0.01529628320390994</v>
+        <v>0.009422608909844938</v>
       </c>
       <c r="CK3">
-        <v>0.01531230265387533</v>
+        <v>0.009422608909844938</v>
       </c>
       <c r="CL3">
-        <v>0.01532653155284458</v>
+        <v>0.009422608909844938</v>
       </c>
       <c r="CM3">
-        <v>0.01534164246581193</v>
+        <v>0.009422608909844938</v>
       </c>
       <c r="CN3">
-        <v>0.01573511716496177</v>
+        <v>0.009708764908793122</v>
       </c>
       <c r="CO3">
-        <v>0.1567363168603061</v>
+        <v>0.1531153506112938</v>
       </c>
       <c r="CP3">
-        <v>0.1819479808058323</v>
+        <v>0.178663204781531</v>
       </c>
       <c r="CQ3">
-        <v>0.2543317906494355</v>
+        <v>0.2522261860804815</v>
       </c>
       <c r="CR3">
-        <v>0.254717537298602</v>
+        <v>0.2525044759267385</v>
       </c>
       <c r="CS3">
-        <v>0.2773857792496237</v>
+        <v>0.2754634563435542</v>
       </c>
       <c r="CT3">
-        <v>0.2870129872288225</v>
+        <v>0.2851483553692057</v>
       </c>
       <c r="CU3">
-        <v>0.3019363001965783</v>
+        <v>0.3002240024617783</v>
       </c>
       <c r="CV3">
-        <v>0.3027029327949219</v>
+        <v>0.3008899848101061</v>
       </c>
       <c r="CW3">
-        <v>0.3029348368644208</v>
+        <v>0.3010116828609314</v>
       </c>
       <c r="CX3">
-        <v>0.3179229298320366</v>
+        <v>0.3161532675925378</v>
       </c>
       <c r="CY3">
-        <v>0.3181105332416313</v>
+        <v>0.3162298733165949</v>
       </c>
       <c r="CZ3">
-        <v>0.350852519170887</v>
+        <v>0.3494426187162907</v>
       </c>
       <c r="DA3">
-        <v>0.3765819201152945</v>
+        <v>0.3755174620100297</v>
       </c>
       <c r="DB3">
-        <v>0.4013095640618665</v>
+        <v>0.4005726465901905</v>
       </c>
       <c r="DC3">
-        <v>0.4060525100516186</v>
+        <v>0.4052860003132403</v>
       </c>
       <c r="DD3">
-        <v>0.4263941130076673</v>
+        <v>0.4258767639572252</v>
       </c>
       <c r="DE3">
-        <v>0.4287183460026454</v>
+        <v>0.4281281815160209</v>
       </c>
       <c r="DF3">
-        <v>0.4374305919838212</v>
+        <v>0.4368817678821225</v>
       </c>
       <c r="DG3">
-        <v>0.4374481202567834</v>
+        <v>0.4368817678821225</v>
       </c>
       <c r="DH3">
-        <v>0.4374655387767457</v>
+        <v>0.4368817678821225</v>
       </c>
       <c r="DI3">
-        <v>0.4427547161653176</v>
+        <v>0.4421511143325902</v>
       </c>
       <c r="DJ3">
-        <v>0.4427612262253035</v>
+        <v>0.4421511143325902</v>
       </c>
       <c r="DK3">
-        <v>0.443088682294596</v>
+        <v>0.4423700719277958</v>
       </c>
       <c r="DL3">
-        <v>0.4443161333919439</v>
+        <v>0.4435051077480764</v>
       </c>
       <c r="DM3">
-        <v>0.4451492824601437</v>
+        <v>0.4442387952367047</v>
       </c>
       <c r="DN3">
-        <v>0.4478019161544123</v>
+        <v>0.4468244821195982</v>
       </c>
       <c r="DO3">
-        <v>0.4537680561415215</v>
+        <v>0.4527828887052649</v>
       </c>
       <c r="DP3">
-        <v>0.4563348053359756</v>
+        <v>0.4552811563050525</v>
       </c>
       <c r="DQ3">
-        <v>0.4575932242332567</v>
+        <v>0.4564477133296874</v>
       </c>
       <c r="DR3">
-        <v>0.4576479767311383</v>
+        <v>0.4564477133296874</v>
       </c>
       <c r="DS3">
-        <v>0.4588236511285981</v>
+        <v>0.4575300471840069</v>
       </c>
       <c r="DT3">
-        <v>0.4599656139261307</v>
+        <v>0.4585780670014006</v>
       </c>
       <c r="DU3">
-        <v>0.4616990849223852</v>
+        <v>0.4602281654569101</v>
       </c>
       <c r="DV3">
-        <v>0.4734796288969315</v>
+        <v>0.4721048812761168</v>
       </c>
       <c r="DW3">
-        <v>0.4879839018655927</v>
+        <v>0.48675399999171</v>
       </c>
       <c r="DX3">
-        <v>0.4881683640351941</v>
+        <v>0.4868274083408174</v>
       </c>
       <c r="DY3">
-        <v>0.4899852805312683</v>
+        <v>0.4885624434937334</v>
       </c>
       <c r="DZ3">
-        <v>0.4932547461242041</v>
+        <v>0.4917759852572496</v>
       </c>
       <c r="EA3">
-        <v>0.4933601542099764</v>
+        <v>0.4917759852572496</v>
       </c>
       <c r="EB3">
-        <v>0.5180877981565484</v>
+        <v>0.5168311698374104</v>
       </c>
       <c r="EC3">
-        <v>0.5193815933537529</v>
+        <v>0.5180337353476852</v>
       </c>
       <c r="ED3">
-        <v>0.5198534872827333</v>
+        <v>0.5183997119530095</v>
       </c>
       <c r="EE3">
-        <v>0.5288930542632019</v>
+        <v>0.5274864686486291</v>
       </c>
       <c r="EF3">
-        <v>0.5493102772190872</v>
+        <v>0.5481542036458671</v>
       </c>
       <c r="EG3">
-        <v>0.5532829445105036</v>
+        <v>0.5520835135455759</v>
       </c>
       <c r="EH3">
-        <v>0.5546294557075943</v>
+        <v>0.5533397371073991</v>
       </c>
       <c r="EI3">
-        <v>0.5553263311560885</v>
+        <v>0.5539347157234527</v>
       </c>
       <c r="EJ3">
-        <v>0.5553526412220317</v>
+        <v>0.5539347157234527</v>
       </c>
       <c r="EK3">
-        <v>0.5625288862065262</v>
+        <v>0.5611248522671775</v>
       </c>
       <c r="EL3">
-        <v>0.5823807591636331</v>
+        <v>0.5812171342815848</v>
       </c>
       <c r="EM3">
-        <v>0.5922624011422822</v>
+        <v>0.5911610141230735</v>
       </c>
       <c r="EN3">
-        <v>0.5938383927388771</v>
+        <v>0.5926508189720306</v>
       </c>
       <c r="EO3">
-        <v>0.5939759694085798</v>
+        <v>0.5926765039624639</v>
       </c>
       <c r="EP3">
-        <v>0.610407419373077</v>
+        <v>0.609287238938944</v>
       </c>
       <c r="EQ3">
-        <v>0.6385791893122074</v>
+        <v>0.6378480971371189</v>
       </c>
       <c r="ER3">
-        <v>0.656730286272989</v>
+        <v>0.656209209747924</v>
       </c>
       <c r="ES3">
-        <v>0.6954719081892815</v>
+        <v>0.6955288065354284</v>
       </c>
       <c r="ET3">
-        <v>0.7179878361406322</v>
+        <v>0.718332751053019</v>
       </c>
       <c r="EU3">
-        <v>0.7194376709374997</v>
+        <v>0.7196941446401659</v>
       </c>
       <c r="EV3">
-        <v>0.7194457984764822</v>
+        <v>0.7196941446401659</v>
       </c>
       <c r="EW3">
-        <v>0.7198484631556121</v>
+        <v>0.7199896548469555</v>
       </c>
       <c r="EX3">
-        <v>0.7200319881252156</v>
+        <v>0.7200621092480034</v>
       </c>
       <c r="EY3">
-        <v>0.7217558835214909</v>
+        <v>0.7217024609845204</v>
       </c>
       <c r="EZ3">
-        <v>0.7230721424186469</v>
+        <v>0.7229278916282</v>
       </c>
       <c r="FA3">
-        <v>0.7365629503894979</v>
+        <v>0.736545434404562</v>
       </c>
       <c r="FB3">
-        <v>0.7508214153586902</v>
+        <v>0.750944352453659</v>
       </c>
       <c r="FC3">
-        <v>0.7549790917497069</v>
+        <v>0.7550619776243429</v>
       </c>
       <c r="FD3">
-        <v>0.7583990595423176</v>
+        <v>0.7584287111096466</v>
       </c>
       <c r="FE3">
-        <v>0.7586900811716888</v>
+        <v>0.7586105831699167</v>
       </c>
       <c r="FF3">
-        <v>0.7588812152212758</v>
+        <v>0.7586907826276242</v>
       </c>
       <c r="FG3">
-        <v>0.76108692841651</v>
+        <v>0.7608215624002088</v>
       </c>
       <c r="FH3">
-        <v>0.7629403494125054</v>
+        <v>0.7625937544000545</v>
       </c>
       <c r="FI3">
-        <v>0.7708384773954403</v>
+        <v>0.7705186742206956</v>
       </c>
       <c r="FJ3">
-        <v>0.7727680192912713</v>
+        <v>0.7723683474250355</v>
       </c>
       <c r="FK3">
-        <v>0.7728260330211459</v>
+        <v>0.7723683474250355</v>
       </c>
       <c r="FL3">
-        <v>0.7896072729848874</v>
+        <v>0.7893351232591512</v>
       </c>
       <c r="FM3">
-        <v>0.8116722769372124</v>
+        <v>0.8116800856226252</v>
       </c>
       <c r="FN3">
-        <v>0.8166786852263953</v>
+        <v>0.816661609800081</v>
       </c>
       <c r="FO3">
-        <v>0.8188843984216295</v>
+        <v>0.8187923895726655</v>
       </c>
       <c r="FP3">
-        <v>0.8210224941170098</v>
+        <v>0.8208543434991963</v>
       </c>
       <c r="FQ3">
-        <v>0.821219079376585</v>
+        <v>0.8209400915817461</v>
       </c>
       <c r="FR3">
-        <v>0.8212226211972774</v>
+        <v>0.8209400915817461</v>
       </c>
       <c r="FS3">
-        <v>0.8212341276142525</v>
+        <v>0.8209400915817461</v>
       </c>
       <c r="FT3">
-        <v>0.826782678302264</v>
+        <v>0.8264734464148999</v>
       </c>
       <c r="FU3">
-        <v>0.8300721116951567</v>
+        <v>0.8297073128093007</v>
       </c>
       <c r="FV3">
-        <v>0.8311785540927661</v>
+        <v>0.830719177465942</v>
       </c>
       <c r="FW3">
-        <v>0.8344640258856673</v>
+        <v>0.8339490114653011</v>
       </c>
       <c r="FX3">
-        <v>0.8371835012797914</v>
+        <v>0.8366027345304577</v>
       </c>
       <c r="FY3">
-        <v>0.8372245786517026</v>
+        <v>0.8366027345304577</v>
       </c>
       <c r="FZ3">
-        <v>0.8376180533508525</v>
+        <v>0.836888890529406</v>
       </c>
       <c r="GA3">
-        <v>0.8395811246466109</v>
+        <v>0.8387726923147001</v>
       </c>
       <c r="GB3">
-        <v>0.8433987626383623</v>
+        <v>0.8425442024919164</v>
       </c>
       <c r="GC3">
-        <v>0.8571722916086024</v>
+        <v>0.8564495185817281</v>
       </c>
       <c r="GD3">
-        <v>0.8673564510865979</v>
+        <v>0.8667013220063661</v>
       </c>
       <c r="GE3">
-        <v>0.8692627947824789</v>
+        <v>0.8685273824515544</v>
       </c>
       <c r="GF3">
-        <v>0.8708896042789639</v>
+        <v>0.8700689133324141</v>
       </c>
       <c r="GG3">
-        <v>0.872582088175307</v>
+        <v>0.8716772922355178</v>
       </c>
       <c r="GH3">
-        <v>0.8740583504721173</v>
+        <v>0.8730655855904259</v>
       </c>
       <c r="GI3">
-        <v>0.8793307914607253</v>
+        <v>0.8783178965561464</v>
       </c>
       <c r="GJ3">
-        <v>0.8804219652583677</v>
+        <v>0.8793142197580895</v>
       </c>
       <c r="GK3">
-        <v>0.8835109452516935</v>
+        <v>0.8823440505870025</v>
       </c>
       <c r="GL3">
-        <v>0.8913577012347393</v>
+        <v>0.8902166803737992</v>
       </c>
       <c r="GM3">
-        <v>0.9054243092043461</v>
+        <v>0.904420312877788</v>
       </c>
       <c r="GN3">
-        <v>0.9287134811540262</v>
+        <v>0.9280113195095661</v>
       </c>
       <c r="GO3">
-        <v>0.9428347731235149</v>
+        <v>0.9422706132338841</v>
       </c>
       <c r="GP3">
-        <v>0.957441856091954</v>
+        <v>0.957024379196607</v>
       </c>
       <c r="GQ3">
-        <v>0.97558630905275</v>
+        <v>0.9753787290770363</v>
       </c>
       <c r="GR3">
-        <v>0.9886209330245866</v>
+        <v>0.9885319357014223</v>
       </c>
       <c r="GS3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GT3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GU3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GV3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GW3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GX3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GY3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="GZ3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HB3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HC3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HD3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HE3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HF3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HG3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HH3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HI3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HJ3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HK3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HL3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HM3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HN3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HO3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HP3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HQ3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HR3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HS3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HT3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HU3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HV3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HW3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HX3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HY3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="HZ3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IA3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IC3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="ID3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IE3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IF3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IG3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IH3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="II3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IJ3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IK3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IL3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IM3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IN3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IO3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IP3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IQ3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IR3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IS3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IT3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IU3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IV3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="IW3">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0001214087513643755</v>
+        <v>8.982703996996192E-05</v>
       </c>
       <c r="C4">
-        <v>0.0002282825497626006</v>
+        <v>0.0001650367421730765</v>
       </c>
       <c r="D4">
-        <v>0.0002603705354802298</v>
+        <v>0.0001650367421730765</v>
       </c>
       <c r="E4">
-        <v>0.0002603878785989962</v>
+        <v>0.0001650367421730765</v>
       </c>
       <c r="F4">
-        <v>0.0002907294414408458</v>
+        <v>0.0001650367421730765</v>
       </c>
       <c r="G4">
-        <v>0.0003404457279046</v>
+        <v>0.0001827649609613843</v>
       </c>
       <c r="H4">
-        <v>0.0005675669717498026</v>
+        <v>0.0003789036768181668</v>
       </c>
       <c r="I4">
-        <v>0.0008935057485662606</v>
+        <v>0.00067442002809567</v>
       </c>
       <c r="J4">
-        <v>0.001192580827293494</v>
+        <v>0.0009429204165729292</v>
       </c>
       <c r="K4">
-        <v>0.001389018853321148</v>
+        <v>0.001108202000682719</v>
       </c>
       <c r="L4">
-        <v>0.001738297128477502</v>
+        <v>0.001427190139680316</v>
       </c>
       <c r="M4">
-        <v>0.001863540199569148</v>
+        <v>0.001520873232483068</v>
       </c>
       <c r="N4">
-        <v>0.001929245574895622</v>
+        <v>0.001554681167045813</v>
       </c>
       <c r="O4">
-        <v>0.001939872462139747</v>
+        <v>0.001554681167045813</v>
       </c>
       <c r="P4">
-        <v>0.002059537743628133</v>
+        <v>0.001642754855070089</v>
       </c>
       <c r="Q4">
-        <v>0.002074184018586365</v>
+        <v>0.001642754855070089</v>
       </c>
       <c r="R4">
-        <v>0.002075987421458092</v>
+        <v>0.001642754855070089</v>
       </c>
       <c r="S4">
-        <v>0.002131930640478934</v>
+        <v>0.001666745300963658</v>
       </c>
       <c r="T4">
-        <v>0.002159824415494891</v>
+        <v>0.001666745300963658</v>
       </c>
       <c r="U4">
-        <v>0.002447630135023697</v>
+        <v>0.001923912454981682</v>
       </c>
       <c r="V4">
-        <v>0.00266594912949499</v>
+        <v>0.00211119902989889</v>
       </c>
       <c r="W4">
-        <v>0.002980923307091344</v>
+        <v>0.002395688634089448</v>
       </c>
       <c r="X4">
-        <v>0.003090682259284352</v>
+        <v>0.002473799843275479</v>
       </c>
       <c r="Y4">
-        <v>0.003189279758271258</v>
+        <v>0.002540686335610867</v>
       </c>
       <c r="Z4">
-        <v>0.003311439569582211</v>
+        <v>0.002631268692570698</v>
       </c>
       <c r="AA4">
-        <v>0.003313868264409462</v>
+        <v>0.002631268692570698</v>
       </c>
       <c r="AB4">
-        <v>0.003314029412008</v>
+        <v>0.002631268692570698</v>
       </c>
       <c r="AC4">
-        <v>0.003363745698471754</v>
+        <v>0.002648996911359006</v>
       </c>
       <c r="AD4">
-        <v>0.003455531421943171</v>
+        <v>0.002709033018713189</v>
       </c>
       <c r="AE4">
-        <v>0.003455558885905218</v>
+        <v>0.002709033018713189</v>
       </c>
       <c r="AF4">
-        <v>0.003457556761763112</v>
+        <v>0.002709033018713189</v>
       </c>
       <c r="AG4">
-        <v>0.00353798106604265</v>
+        <v>0.002757643309814288</v>
       </c>
       <c r="AH4">
-        <v>0.003538203836796805</v>
+        <v>0.002757643309814288</v>
       </c>
       <c r="AI4">
-        <v>0.003538231300758852</v>
+        <v>0.002757643309814288</v>
       </c>
       <c r="AJ4">
-        <v>0.003538658330858477</v>
+        <v>0.002757643309814288</v>
       </c>
       <c r="AK4">
-        <v>0.003543284113529452</v>
+        <v>0.002757643309814288</v>
       </c>
       <c r="AL4">
-        <v>0.003552846057849325</v>
+        <v>0.002757643309814288</v>
       </c>
       <c r="AM4">
-        <v>0.003595921974785399</v>
+        <v>0.002768693521146443</v>
       </c>
       <c r="AN4">
-        <v>0.003690727148042048</v>
+        <v>0.002831766192670014</v>
       </c>
       <c r="AO4">
-        <v>0.003873050075073688</v>
+        <v>0.002982852672735248</v>
       </c>
       <c r="AP4">
-        <v>0.003999509666078805</v>
+        <v>0.003077759180743864</v>
       </c>
       <c r="AQ4">
-        <v>0.004238677609067144</v>
+        <v>0.003286012877004153</v>
       </c>
       <c r="AR4">
-        <v>0.00443887907482711</v>
+        <v>0.003455079232200612</v>
       </c>
       <c r="AS4">
-        <v>0.004456245780591842</v>
+        <v>0.003455079232200612</v>
       </c>
       <c r="AT4">
-        <v>0.00451100753269672</v>
+        <v>0.003477881514567872</v>
       </c>
       <c r="AU4">
-        <v>0.004512335953302232</v>
+        <v>0.003477881514567872</v>
       </c>
       <c r="AV4">
-        <v>0.00459357610752374</v>
+        <v>0.00352731227988699</v>
       </c>
       <c r="AW4">
-        <v>0.004596731851099277</v>
+        <v>0.00352731227988699</v>
       </c>
       <c r="AX4">
-        <v>0.004603693618304096</v>
+        <v>0.00352731227988699</v>
       </c>
       <c r="AY4">
-        <v>0.004609898977862718</v>
+        <v>0.00352731227988699</v>
       </c>
       <c r="AZ4">
-        <v>0.00461696769975993</v>
+        <v>0.00352731227988699</v>
       </c>
       <c r="BA4">
-        <v>0.00462954155286557</v>
+        <v>0.00352731227988699</v>
       </c>
       <c r="BB4">
-        <v>0.004708749797231605</v>
+        <v>0.003574699618389495</v>
       </c>
       <c r="BC4">
-        <v>0.004736285282273047</v>
+        <v>0.003574699618389495</v>
       </c>
       <c r="BD4">
-        <v>0.004772238143715773</v>
+        <v>0.003578586400412952</v>
       </c>
       <c r="BE4">
-        <v>0.004830793719550802</v>
+        <v>0.003605204010082656</v>
       </c>
       <c r="BF4">
-        <v>0.004856687806708994</v>
+        <v>0.003605204010082656</v>
       </c>
       <c r="BG4">
-        <v>0.005383573469232398</v>
+        <v>0.00410280622351706</v>
       </c>
       <c r="BH4">
-        <v>0.005998195425515249</v>
+        <v>0.004688642024172548</v>
       </c>
       <c r="BI4">
-        <v>0.006260792636837099</v>
+        <v>0.004920457786967115</v>
       </c>
       <c r="BJ4">
-        <v>0.006465909402247448</v>
+        <v>0.005094467301964794</v>
       </c>
       <c r="BK4">
-        <v>0.006864740523879182</v>
+        <v>0.005463289155314697</v>
       </c>
       <c r="BL4">
-        <v>0.006957834957257512</v>
+        <v>0.005524641390405428</v>
       </c>
       <c r="BM4">
-        <v>0.007054019040416081</v>
+        <v>0.005589100787557445</v>
       </c>
       <c r="BN4">
-        <v>0.007058169763420846</v>
+        <v>0.005589100787557445</v>
       </c>
       <c r="BO4">
-        <v>0.007087003499369945</v>
+        <v>0.005589100787557445</v>
       </c>
       <c r="BP4">
-        <v>0.007254331857468127</v>
+        <v>0.005725107708763488</v>
       </c>
       <c r="BQ4">
-        <v>0.007364514289631014</v>
+        <v>0.005803644798223892</v>
       </c>
       <c r="BR4">
-        <v>0.007652620309138459</v>
+        <v>0.006061113954335035</v>
       </c>
       <c r="BS4">
-        <v>0.008104666326985097</v>
+        <v>0.006483452328447853</v>
       </c>
       <c r="BT4">
-        <v>0.008550463665276193</v>
+        <v>0.006899506605193942</v>
       </c>
       <c r="BU4">
-        <v>0.008971235755347298</v>
+        <v>0.00729039378942981</v>
       </c>
       <c r="BV4">
-        <v>0.009072783448124361</v>
+        <v>0.007360247197393257</v>
       </c>
       <c r="BW4">
-        <v>0.009081307500518058</v>
+        <v>0.007360247197393257</v>
       </c>
       <c r="BX4">
-        <v>0.00909086944483793</v>
+        <v>0.007360247197393257</v>
       </c>
       <c r="BY4">
-        <v>0.009138528001448048</v>
+        <v>0.007375906023017817</v>
       </c>
       <c r="BZ4">
-        <v>0.009157440300102845</v>
+        <v>0.007375906023017817</v>
       </c>
       <c r="CA4">
-        <v>0.009522920244106798</v>
+        <v>0.007711187662688137</v>
       </c>
       <c r="CB4">
-        <v>0.009795829374695177</v>
+        <v>0.007953373793195235</v>
       </c>
       <c r="CC4">
-        <v>0.009823816687704481</v>
+        <v>0.007953373793195235</v>
       </c>
       <c r="CD4">
-        <v>0.009833661296004249</v>
+        <v>0.007953373793195235</v>
       </c>
       <c r="CE4">
-        <v>0.009910863360512981</v>
+        <v>0.007998743580718143</v>
       </c>
       <c r="CF4">
-        <v>0.010010640243416</v>
+        <v>0.008066816141773446</v>
       </c>
       <c r="CG4">
-        <v>0.01005035965659082</v>
+        <v>0.008074490824522313</v>
       </c>
       <c r="CH4">
-        <v>0.01025224019223135</v>
+        <v>0.008245245766646821</v>
       </c>
       <c r="CI4">
-        <v>0.01049819885473668</v>
+        <v>0.008460328672543418</v>
       </c>
       <c r="CJ4">
-        <v>0.0106842842615007</v>
+        <v>0.008615198958254064</v>
       </c>
       <c r="CK4">
-        <v>0.01112493299015801</v>
+        <v>0.009026075442803509</v>
       </c>
       <c r="CL4">
-        <v>0.01179297347264128</v>
+        <v>0.009665632548391813</v>
       </c>
       <c r="CM4">
-        <v>0.01252093636086236</v>
+        <v>0.01036545170274708</v>
       </c>
       <c r="CN4">
-        <v>0.01322281727093861</v>
+        <v>0.0110390410450721</v>
       </c>
       <c r="CO4">
-        <v>0.03485836273203433</v>
+        <v>0.03276494793893951</v>
       </c>
       <c r="CP4">
-        <v>0.06345177269822747</v>
+        <v>0.06148815684292162</v>
       </c>
       <c r="CQ4">
-        <v>0.1840284841217847</v>
+        <v>0.182716032906356</v>
       </c>
       <c r="CR4">
-        <v>0.1968709012083226</v>
+        <v>0.1955989715582557</v>
       </c>
       <c r="CS4">
-        <v>0.2061071845513595</v>
+        <v>0.2048553367300804</v>
       </c>
       <c r="CT4">
-        <v>0.2216774604438688</v>
+        <v>0.2204815958206505</v>
       </c>
       <c r="CU4">
-        <v>0.2219072493975243</v>
+        <v>0.2206804173670229</v>
       </c>
       <c r="CV4">
-        <v>0.2381261102439007</v>
+        <v>0.2369589376216471</v>
       </c>
       <c r="CW4">
-        <v>0.2393329404580607</v>
+        <v>0.2381403383445879</v>
       </c>
       <c r="CX4">
-        <v>0.2518986395642812</v>
+        <v>0.2507449905655731</v>
       </c>
       <c r="CY4">
-        <v>0.2566430479268184</v>
+        <v>0.2554840205971105</v>
       </c>
       <c r="CZ4">
-        <v>0.2659115812675614</v>
+        <v>0.2647728185611532</v>
       </c>
       <c r="DA4">
-        <v>0.3410977359196816</v>
+        <v>0.3403528620310789</v>
       </c>
       <c r="DB4">
-        <v>0.3445044558773667</v>
+        <v>0.3437466215766328</v>
       </c>
       <c r="DC4">
-        <v>0.3725109888853035</v>
+        <v>0.3718796270760088</v>
       </c>
       <c r="DD4">
-        <v>0.4122641400577208</v>
+        <v>0.41182583112706</v>
       </c>
       <c r="DE4">
-        <v>0.4162680147729311</v>
+        <v>0.4158201301315413</v>
       </c>
       <c r="DF4">
-        <v>0.4254977571164332</v>
+        <v>0.4250699172291365</v>
       </c>
       <c r="DG4">
-        <v>0.4268506150202064</v>
+        <v>0.4263981733335402</v>
       </c>
       <c r="DH4">
-        <v>0.426963191642199</v>
+        <v>0.4264791181832114</v>
       </c>
       <c r="DI4">
-        <v>0.4270240257408719</v>
+        <v>0.4265080272304942</v>
       </c>
       <c r="DJ4">
-        <v>0.4277277108508198</v>
+        <v>0.4271834309989812</v>
       </c>
       <c r="DK4">
-        <v>0.4277437791996769</v>
+        <v>0.4271834309989812</v>
       </c>
       <c r="DL4">
-        <v>0.4284624558085585</v>
+        <v>0.4278739112389265</v>
       </c>
       <c r="DM4">
-        <v>0.4288922195579901</v>
+        <v>0.4282738410476733</v>
       </c>
       <c r="DN4">
-        <v>0.4326227554926426</v>
+        <v>0.4319932519744638</v>
       </c>
       <c r="DO4">
-        <v>0.4367586464984627</v>
+        <v>0.4361203155441325</v>
       </c>
       <c r="DP4">
-        <v>0.4437922159981754</v>
+        <v>0.4431614817864137</v>
       </c>
       <c r="DQ4">
-        <v>0.4493065826059466</v>
+        <v>0.4486748342229265</v>
       </c>
       <c r="DR4">
-        <v>0.4502064655919393</v>
+        <v>0.4495475479262968</v>
       </c>
       <c r="DS4">
-        <v>0.4502632980528969</v>
+        <v>0.4495724326543925</v>
       </c>
       <c r="DT4">
-        <v>0.4517837614447486</v>
+        <v>0.4510692442427063</v>
       </c>
       <c r="DU4">
-        <v>0.4545546102476622</v>
+        <v>0.4538235284857164</v>
       </c>
       <c r="DV4">
-        <v>0.4547799503216341</v>
+        <v>0.4540178759359448</v>
       </c>
       <c r="DW4">
-        <v>0.4747631659002576</v>
+        <v>0.4740820874634357</v>
       </c>
       <c r="DX4">
-        <v>0.4786431266242817</v>
+        <v>0.4779517701263695</v>
       </c>
       <c r="DY4">
-        <v>0.4844061952143632</v>
+        <v>0.4837152341997882</v>
       </c>
       <c r="DZ4">
-        <v>0.4846855127444957</v>
+        <v>0.4839638650529511</v>
       </c>
       <c r="EA4">
-        <v>0.4855217610850146</v>
+        <v>0.4847725834266681</v>
       </c>
       <c r="EB4">
-        <v>0.5107388302913618</v>
+        <v>0.5101003143117273</v>
       </c>
       <c r="EC4">
-        <v>0.5166352718719567</v>
+        <v>0.5159979073400761</v>
       </c>
       <c r="ED4">
-        <v>0.516636124196156</v>
+        <v>0.5159979073400761</v>
       </c>
       <c r="EE4">
-        <v>0.5209262988910023</v>
+        <v>0.5202801290860156</v>
       </c>
       <c r="EF4">
-        <v>0.5340109439603109</v>
+        <v>0.5334066686803461</v>
       </c>
       <c r="EG4">
-        <v>0.5481245259564327</v>
+        <v>0.5475679772646443</v>
       </c>
       <c r="EH4">
-        <v>0.5488371336557459</v>
+        <v>0.548252354196155</v>
       </c>
       <c r="EI4">
-        <v>0.5488644055018062</v>
+        <v>0.548252354196155</v>
       </c>
       <c r="EJ4">
-        <v>0.5490308546299669</v>
+        <v>0.5483874769039068</v>
       </c>
       <c r="EK4">
-        <v>0.5516891613408855</v>
+        <v>0.5510285811610228</v>
       </c>
       <c r="EL4">
-        <v>0.573501924789376</v>
+        <v>0.5729327105222173</v>
       </c>
       <c r="EM4">
-        <v>0.592487713438945</v>
+        <v>0.5919938416576566</v>
       </c>
       <c r="EN4">
-        <v>0.599210446960767</v>
+        <v>0.5987224100890265</v>
       </c>
       <c r="EO4">
-        <v>0.5992609308001762</v>
+        <v>0.5987409102112866</v>
       </c>
       <c r="EP4">
-        <v>0.6031256726252828</v>
+        <v>0.6025952877138642</v>
       </c>
       <c r="EQ4">
-        <v>0.6261207709896756</v>
+        <v>0.6256884535211709</v>
       </c>
       <c r="ER4">
-        <v>0.6461335695661948</v>
+        <v>0.6457824157243885</v>
       </c>
       <c r="ES4">
-        <v>0.6755040984771127</v>
+        <v>0.6752871483200201</v>
       </c>
       <c r="ET4">
-        <v>0.7122897558606034</v>
+        <v>0.7122490386870313</v>
       </c>
       <c r="EU4">
-        <v>0.7193176188607219</v>
+        <v>0.7192844660850088</v>
       </c>
       <c r="EV4">
-        <v>0.7200813777663968</v>
+        <v>0.7200202841503376</v>
       </c>
       <c r="EW4">
-        <v>0.7204035512634811</v>
+        <v>0.7203120138800994</v>
       </c>
       <c r="EX4">
-        <v>0.7205313460543913</v>
+        <v>0.7204082631559892</v>
       </c>
       <c r="EY4">
-        <v>0.7210039857707731</v>
+        <v>0.7208513119546942</v>
       </c>
       <c r="EZ4">
-        <v>0.726917860350128</v>
+        <v>0.7267664367928643</v>
       </c>
       <c r="FA4">
-        <v>0.7296777102538239</v>
+        <v>0.7295096597943759</v>
       </c>
       <c r="FB4">
-        <v>0.7502748927887768</v>
+        <v>0.7501913182719362</v>
       </c>
       <c r="FC4">
-        <v>0.7541973625097773</v>
+        <v>0.7541037508748513</v>
       </c>
       <c r="FD4">
-        <v>0.7553633884268396</v>
+        <v>0.7552441160200091</v>
       </c>
       <c r="FE4">
-        <v>0.7562455159240952</v>
+        <v>0.7560989735956926</v>
       </c>
       <c r="FF4">
-        <v>0.7565473436326267</v>
+        <v>0.7563702422160099</v>
       </c>
       <c r="FG4">
-        <v>0.7567795461661104</v>
+        <v>0.7565714910224952</v>
       </c>
       <c r="FH4">
-        <v>0.7567878726725181</v>
+        <v>0.7565714910224952</v>
       </c>
       <c r="FI4">
-        <v>0.7688730948129142</v>
+        <v>0.7686929429114945</v>
       </c>
       <c r="FJ4">
-        <v>0.7736475838733119</v>
+        <v>0.7734622241397101</v>
       </c>
       <c r="FK4">
-        <v>0.773842118759475</v>
+        <v>0.7736255917968685</v>
       </c>
       <c r="FL4">
-        <v>0.781523087513139</v>
+        <v>0.7813178267826848</v>
       </c>
       <c r="FM4">
-        <v>0.8009680011300512</v>
+        <v>0.8008406852274917</v>
       </c>
       <c r="FN4">
-        <v>0.8132228522583818</v>
+        <v>0.81313272756955</v>
       </c>
       <c r="FO4">
-        <v>0.8141097025953014</v>
+        <v>0.8139923347541761</v>
       </c>
       <c r="FP4">
-        <v>0.819181470234554</v>
+        <v>0.8190605795502885</v>
       </c>
       <c r="FQ4">
-        <v>0.8194734398137866</v>
+        <v>0.8193219341649641</v>
       </c>
       <c r="FR4">
-        <v>0.81955184249321</v>
+        <v>0.8193685113725437</v>
       </c>
       <c r="FS4">
-        <v>0.8202446054439348</v>
+        <v>0.8200329310744926</v>
       </c>
       <c r="FT4">
-        <v>0.8229324925527495</v>
+        <v>0.8227037833925986</v>
       </c>
       <c r="FU4">
-        <v>0.8251790957929519</v>
+        <v>0.8249308506242592</v>
       </c>
       <c r="FV4">
-        <v>0.8251795344647207</v>
+        <v>0.8249308506242592</v>
       </c>
       <c r="FW4">
-        <v>0.825786866621522</v>
+        <v>0.825509355306505</v>
       </c>
       <c r="FX4">
-        <v>0.826839749546632</v>
+        <v>0.8265359361598822</v>
       </c>
       <c r="FY4">
-        <v>0.8271455314248821</v>
+        <v>0.8268111813623392</v>
       </c>
       <c r="FZ4">
-        <v>0.8273444509807333</v>
+        <v>0.8269789585417009</v>
       </c>
       <c r="GA4">
-        <v>0.8285410575956205</v>
+        <v>0.8281500777175248</v>
       </c>
       <c r="GB4">
-        <v>0.832313278127308</v>
+        <v>0.8319114095116174</v>
       </c>
       <c r="GC4">
-        <v>0.843712701316484</v>
+        <v>0.843343175308513</v>
       </c>
       <c r="GD4">
-        <v>0.8626023999728878</v>
+        <v>0.8623076718081621</v>
       </c>
       <c r="GE4">
-        <v>0.8688147881310099</v>
+        <v>0.8685230022141791</v>
       </c>
       <c r="GF4">
-        <v>0.8713794479485895</v>
+        <v>0.8710699287829367</v>
       </c>
       <c r="GG4">
-        <v>0.8763375055959302</v>
+        <v>0.8760238190735261</v>
       </c>
       <c r="GH4">
-        <v>0.8791119381985889</v>
+        <v>0.8787817074294277</v>
       </c>
       <c r="GI4">
-        <v>0.8868770796462659</v>
+        <v>0.8865585922040667</v>
       </c>
       <c r="GJ4">
-        <v>0.8921531729709853</v>
+        <v>0.8918323208132926</v>
       </c>
       <c r="GK4">
-        <v>0.8924889241471038</v>
+        <v>0.8921377051810153</v>
       </c>
       <c r="GL4">
-        <v>0.8994121606546642</v>
+        <v>0.8990679130585277</v>
       </c>
       <c r="GM4">
-        <v>0.9086741424958732</v>
+        <v>0.9083501223888273</v>
       </c>
       <c r="GN4">
-        <v>0.9281412061112098</v>
+        <v>0.9278952563792973</v>
       </c>
       <c r="GO4">
-        <v>0.9473558717444991</v>
+        <v>0.9471865617840231</v>
       </c>
       <c r="GP4">
-        <v>0.959296330895192</v>
+        <v>0.9591624301598484</v>
       </c>
       <c r="GQ4">
-        <v>0.9744107768201238</v>
+        <v>0.9743302756170309</v>
       </c>
       <c r="GR4">
-        <v>0.9870860659185493</v>
+        <v>0.9870451389914789</v>
       </c>
       <c r="GS4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW4">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0003135496585701382</v>
+        <v>0.0002456546548237992</v>
       </c>
       <c r="C5">
-        <v>0.0007232869505662376</v>
+        <v>0.0005887398264854876</v>
       </c>
       <c r="D5">
-        <v>0.001017452880461176</v>
+        <v>0.0008147602868104292</v>
       </c>
       <c r="E5">
-        <v>0.001036413108165321</v>
+        <v>0.0008147602868104292</v>
       </c>
       <c r="F5">
-        <v>0.001215111325952014</v>
+        <v>0.000923821025099435</v>
       </c>
       <c r="G5">
-        <v>0.001486419657409178</v>
+        <v>0.001126688533738757</v>
       </c>
       <c r="H5">
-        <v>0.001707858672274709</v>
+        <v>0.001279042342052819</v>
       </c>
       <c r="I5">
-        <v>0.001709798981542097</v>
+        <v>0.001279042342052819</v>
       </c>
       <c r="J5">
-        <v>0.001819868118019313</v>
+        <v>0.001318587211992295</v>
       </c>
       <c r="K5">
-        <v>0.001825760847916568</v>
+        <v>0.001318587211992295</v>
       </c>
       <c r="L5">
-        <v>0.00189678957306204</v>
+        <v>0.001318587211992295</v>
       </c>
       <c r="M5">
-        <v>0.002258020448373358</v>
+        <v>0.001612539193874551</v>
       </c>
       <c r="N5">
-        <v>0.00292943465248489</v>
+        <v>0.002220682522015098</v>
       </c>
       <c r="O5">
-        <v>0.003702258349665489</v>
+        <v>0.002931545700619508</v>
       </c>
       <c r="P5">
-        <v>0.00418653356656722</v>
+        <v>0.00335013193503652</v>
       </c>
       <c r="Q5">
-        <v>0.005117722432924196</v>
+        <v>0.004221406589964971</v>
       </c>
       <c r="R5">
-        <v>0.005686807464029516</v>
+        <v>0.004725898504108902</v>
       </c>
       <c r="S5">
-        <v>0.005941342916633038</v>
+        <v>0.004911776404028644</v>
       </c>
       <c r="T5">
-        <v>0.006205457398581873</v>
+        <v>0.005107357108214148</v>
       </c>
       <c r="U5">
-        <v>0.006486652449363318</v>
+        <v>0.005320239086897973</v>
       </c>
       <c r="V5">
-        <v>0.006605133451265617</v>
+        <v>0.005368304515736192</v>
       </c>
       <c r="W5">
-        <v>0.006673356766602827</v>
+        <v>0.005368304515736192</v>
       </c>
       <c r="X5">
-        <v>0.006700555130743928</v>
+        <v>0.005368304515736192</v>
       </c>
       <c r="Y5">
-        <v>0.007371681184875154</v>
+        <v>0.005976155970581721</v>
       </c>
       <c r="Z5">
-        <v>0.007904092248486993</v>
+        <v>0.006443500036503186</v>
       </c>
       <c r="AA5">
-        <v>0.008710762393354323</v>
+        <v>0.007188647007875854</v>
       </c>
       <c r="AB5">
-        <v>0.009888948012830062</v>
+        <v>0.008310109971389371</v>
       </c>
       <c r="AC5">
-        <v>0.01034163801189051</v>
+        <v>0.008696702861245289</v>
       </c>
       <c r="AD5">
-        <v>0.0106519900306792</v>
+        <v>0.008939118558154522</v>
       </c>
       <c r="AE5">
-        <v>0.01098554187788227</v>
+        <v>0.009205033858832505</v>
       </c>
       <c r="AF5">
-        <v>0.0110055951855117</v>
+        <v>0.009205033858832505</v>
       </c>
       <c r="AG5">
-        <v>0.01107674822564868</v>
+        <v>0.009205159780153589</v>
       </c>
       <c r="AH5">
-        <v>0.01118600482818143</v>
+        <v>0.009243881617034261</v>
       </c>
       <c r="AI5">
-        <v>0.01124666766903537</v>
+        <v>0.009243881617034261</v>
       </c>
       <c r="AJ5">
-        <v>0.01145767548461383</v>
+        <v>0.009385669439872025</v>
       </c>
       <c r="AK5">
-        <v>0.01178981176191365</v>
+        <v>0.00965015087943521</v>
       </c>
       <c r="AL5">
-        <v>0.01187299732122825</v>
+        <v>0.00966246479749332</v>
       </c>
       <c r="AM5">
-        <v>0.01190060184034159</v>
+        <v>0.00966246479749332</v>
       </c>
       <c r="AN5">
-        <v>0.01195730273346631</v>
+        <v>0.00966246479749332</v>
       </c>
       <c r="AO5">
-        <v>0.01203502120815456</v>
+        <v>0.00966924098828058</v>
       </c>
       <c r="AP5">
-        <v>0.01206490350211223</v>
+        <v>0.00966924098828058</v>
       </c>
       <c r="AQ5">
-        <v>0.01282127865041702</v>
+        <v>0.01036344307895588</v>
       </c>
       <c r="AR5">
-        <v>0.01457216983075063</v>
+        <v>0.01206501178790564</v>
       </c>
       <c r="AS5">
-        <v>0.01590273783981164</v>
+        <v>0.01334082614198241</v>
       </c>
       <c r="AT5">
-        <v>0.01680262472830799</v>
+        <v>0.01418039435220082</v>
       </c>
       <c r="AU5">
-        <v>0.01804690044326673</v>
+        <v>0.01536880139086649</v>
       </c>
       <c r="AV5">
-        <v>0.01898045847946178</v>
+        <v>0.01624247582873563</v>
       </c>
       <c r="AW5">
-        <v>0.01955573011014427</v>
+        <v>0.01675323428227557</v>
       </c>
       <c r="AX5">
-        <v>0.02006888147507243</v>
+        <v>0.01720106978633667</v>
       </c>
       <c r="AY5">
-        <v>0.02030320337905747</v>
+        <v>0.01736647294933981</v>
       </c>
       <c r="AZ5">
-        <v>0.0203494222458986</v>
+        <v>0.01736647294933981</v>
       </c>
       <c r="BA5">
-        <v>0.02035589357585631</v>
+        <v>0.01736647294933981</v>
       </c>
       <c r="BB5">
-        <v>0.02035697149818264</v>
+        <v>0.01736647294933981</v>
       </c>
       <c r="BC5">
-        <v>0.02038363300036043</v>
+        <v>0.01736647294933981</v>
       </c>
       <c r="BD5">
-        <v>0.02046991341446351</v>
+        <v>0.01738192171218867</v>
       </c>
       <c r="BE5">
-        <v>0.02083240875968841</v>
+        <v>0.01767715450276554</v>
       </c>
       <c r="BF5">
-        <v>0.02108143275266862</v>
+        <v>0.01785744972702829</v>
       </c>
       <c r="BG5">
-        <v>0.02112828148746669</v>
+        <v>0.01785744972702829</v>
       </c>
       <c r="BH5">
-        <v>0.02114950971301583</v>
+        <v>0.01785744972702829</v>
       </c>
       <c r="BI5">
-        <v>0.0211502008083186</v>
+        <v>0.01785744972702829</v>
       </c>
       <c r="BJ5">
-        <v>0.02123648122242168</v>
+        <v>0.01787289848987715</v>
       </c>
       <c r="BK5">
-        <v>0.02209311871387394</v>
+        <v>0.01866865845825775</v>
       </c>
       <c r="BL5">
-        <v>0.02362469360919693</v>
+        <v>0.0201480769984335</v>
       </c>
       <c r="BM5">
-        <v>0.02448587905033836</v>
+        <v>0.02094844368259435</v>
       </c>
       <c r="BN5">
-        <v>0.02492926252003488</v>
+        <v>0.02132560978925996</v>
       </c>
       <c r="BO5">
-        <v>0.02520166684141714</v>
+        <v>0.02152958744960016</v>
       </c>
       <c r="BP5">
-        <v>0.02543070186576351</v>
+        <v>0.02168963541882934</v>
       </c>
       <c r="BQ5">
-        <v>0.02571912934605065</v>
+        <v>0.02190984328047374</v>
       </c>
       <c r="BR5">
-        <v>0.0258691945357943</v>
+        <v>0.02198990101056403</v>
       </c>
       <c r="BS5">
-        <v>0.02588387493879095</v>
+        <v>0.02198990101056403</v>
       </c>
       <c r="BT5">
-        <v>0.02590363169244065</v>
+        <v>0.02198990101056403</v>
       </c>
       <c r="BU5">
-        <v>0.02621600544109116</v>
+        <v>0.02223436456101044</v>
       </c>
       <c r="BV5">
-        <v>0.0268834045954771</v>
+        <v>0.02283844095917298</v>
       </c>
       <c r="BW5">
-        <v>0.02748565985431537</v>
+        <v>0.02337653170839106</v>
       </c>
       <c r="BX5">
-        <v>0.02848350758611648</v>
+        <v>0.02431532655776372</v>
       </c>
       <c r="BY5">
-        <v>0.02973143530082563</v>
+        <v>0.02550743278530118</v>
       </c>
       <c r="BZ5">
-        <v>0.0307456898315054</v>
+        <v>0.02646284643313543</v>
       </c>
       <c r="CA5">
-        <v>0.03182946265743387</v>
+        <v>0.02748867665318926</v>
       </c>
       <c r="CB5">
-        <v>0.03263424620243015</v>
+        <v>0.02823191264709054</v>
       </c>
       <c r="CC5">
-        <v>0.03281433007012214</v>
+        <v>0.02834237693988672</v>
       </c>
       <c r="CD5">
-        <v>0.03293281107202444</v>
+        <v>0.02839044236872494</v>
       </c>
       <c r="CE5">
-        <v>0.03317916077518743</v>
+        <v>0.0285680287474762</v>
       </c>
       <c r="CF5">
-        <v>0.03331513518589412</v>
+        <v>0.02863381362527436</v>
       </c>
       <c r="CG5">
-        <v>0.03356392656889023</v>
+        <v>0.02881387323389542</v>
       </c>
       <c r="CH5">
-        <v>0.03409064177289135</v>
+        <v>0.02927544784145783</v>
       </c>
       <c r="CI5">
-        <v>0.03410115362417291</v>
+        <v>0.02927544784145783</v>
       </c>
       <c r="CJ5">
-        <v>0.03410762495413062</v>
+        <v>0.02927544784145783</v>
       </c>
       <c r="CK5">
-        <v>0.03422042427042124</v>
+        <v>0.0293177581690846</v>
       </c>
       <c r="CL5">
-        <v>0.03469145590822811</v>
+        <v>0.02972292969820076</v>
       </c>
       <c r="CM5">
-        <v>0.03574107783649066</v>
+        <v>0.03071416774157286</v>
       </c>
       <c r="CN5">
-        <v>0.0367410262681482</v>
+        <v>0.0316550904348839</v>
       </c>
       <c r="CO5">
-        <v>0.03819368246886497</v>
+        <v>0.03305457053672003</v>
       </c>
       <c r="CP5">
-        <v>0.2159784903179863</v>
+        <v>0.2130646688472394</v>
       </c>
       <c r="CQ5">
-        <v>0.2233754844124314</v>
+        <v>0.2204852962901295</v>
       </c>
       <c r="CR5">
-        <v>0.3116927683762992</v>
+        <v>0.3098718208430502</v>
       </c>
       <c r="CS5">
-        <v>0.31173445682045</v>
+        <v>0.3098718208430502</v>
       </c>
       <c r="CT5">
-        <v>0.3328497603773037</v>
+        <v>0.3311880181576472</v>
       </c>
       <c r="CU5">
-        <v>0.3447530055637646</v>
+        <v>0.3431731239774209</v>
       </c>
       <c r="CV5">
-        <v>0.3550826338577759</v>
+        <v>0.3535642794973963</v>
       </c>
       <c r="CW5">
-        <v>0.3565709942560525</v>
+        <v>0.3549999251466904</v>
       </c>
       <c r="CX5">
-        <v>0.3565729345653199</v>
+        <v>0.3549999251466904</v>
       </c>
       <c r="CY5">
-        <v>0.3725431534738194</v>
+        <v>0.3711045558740952</v>
       </c>
       <c r="CZ5">
-        <v>0.3726779241946084</v>
+        <v>0.3711691215085601</v>
       </c>
       <c r="DA5">
-        <v>0.3868363702269353</v>
+        <v>0.3854385686325109</v>
       </c>
       <c r="DB5">
-        <v>0.4217126618432807</v>
+        <v>0.4206935658851302</v>
       </c>
       <c r="DC5">
-        <v>0.4363753958411416</v>
+        <v>0.4354738171048583</v>
       </c>
       <c r="DD5">
-        <v>0.4587723593103989</v>
+        <v>0.4580882352325499</v>
       </c>
       <c r="DE5">
-        <v>0.4683816146536449</v>
+        <v>0.4677497095408222</v>
       </c>
       <c r="DF5">
-        <v>0.4710129769738018</v>
+        <v>0.4703431263508053</v>
       </c>
       <c r="DG5">
-        <v>0.4885954957721071</v>
+        <v>0.4880808902156666</v>
       </c>
       <c r="DH5">
-        <v>0.4886771387265272</v>
+        <v>0.4880916415961427</v>
       </c>
       <c r="DI5">
-        <v>0.4886999443499685</v>
+        <v>0.4880916415961427</v>
       </c>
       <c r="DJ5">
-        <v>0.5045834372643955</v>
+        <v>0.5041084257041348</v>
       </c>
       <c r="DK5">
-        <v>0.5056418170920595</v>
+        <v>0.5051085348116418</v>
       </c>
       <c r="DL5">
-        <v>0.5071602619882798</v>
+        <v>0.5065746536941268</v>
       </c>
       <c r="DM5">
-        <v>0.5122878416378303</v>
+        <v>0.511696542573544</v>
       </c>
       <c r="DN5">
-        <v>0.5129592558419418</v>
+        <v>0.5123046859016845</v>
       </c>
       <c r="DO5">
-        <v>0.5155116168674981</v>
+        <v>0.5148180806060222</v>
       </c>
       <c r="DP5">
-        <v>0.5207760915076924</v>
+        <v>0.5200786333574559</v>
       </c>
       <c r="DQ5">
-        <v>0.5207761185442306</v>
+        <v>0.5200786333574559</v>
       </c>
       <c r="DR5">
-        <v>0.5216889071818451</v>
+        <v>0.5209312700260605</v>
       </c>
       <c r="DS5">
-        <v>0.5225938985199926</v>
+        <v>0.5217760086428059</v>
       </c>
       <c r="DT5">
-        <v>0.5228077070053797</v>
+        <v>0.5219206333241589</v>
       </c>
       <c r="DU5">
-        <v>0.5228824896342686</v>
+        <v>0.5219244357337708</v>
       </c>
       <c r="DV5">
-        <v>0.522937835450486</v>
+        <v>0.5219244357337708</v>
       </c>
       <c r="DW5">
-        <v>0.5410231292144287</v>
+        <v>0.5401714711443646</v>
       </c>
       <c r="DX5">
-        <v>0.5581747310421855</v>
+        <v>0.5574727499678606</v>
       </c>
       <c r="DY5">
-        <v>0.5590412376429632</v>
+        <v>0.5582785065687402</v>
       </c>
       <c r="DZ5">
-        <v>0.5622857854212113</v>
+        <v>0.5614930320802415</v>
       </c>
       <c r="EA5">
-        <v>0.5663656601423682</v>
+        <v>0.5655536781675116</v>
       </c>
       <c r="EB5">
-        <v>0.5664396775973094</v>
+        <v>0.5655567055160211</v>
       </c>
       <c r="EC5">
-        <v>0.6013808682092191</v>
+        <v>0.6008774403531394</v>
       </c>
       <c r="ED5">
-        <v>0.60870242570882</v>
+        <v>0.6082216564512196</v>
       </c>
       <c r="EE5">
-        <v>0.6089553132915362</v>
+        <v>0.6084058651883885</v>
       </c>
       <c r="EF5">
-        <v>0.6131416015054202</v>
+        <v>0.612574299784697</v>
       </c>
       <c r="EG5">
-        <v>0.6300703753484064</v>
+        <v>0.6296498713634164</v>
       </c>
       <c r="EH5">
-        <v>0.6325663035778197</v>
+        <v>0.632106104078224</v>
       </c>
       <c r="EI5">
-        <v>0.6409057835078498</v>
+        <v>0.6404813956375164</v>
       </c>
       <c r="EJ5">
-        <v>0.6412241280260922</v>
+        <v>0.6407319071085378</v>
       </c>
       <c r="EK5">
-        <v>0.6418822056811152</v>
+        <v>0.641326541560077</v>
       </c>
       <c r="EL5">
-        <v>0.6441731980245351</v>
+        <v>0.643575190320692</v>
       </c>
       <c r="EM5">
-        <v>0.6580865150736157</v>
+        <v>0.6575963410402197</v>
       </c>
       <c r="EN5">
-        <v>0.6653783819752459</v>
+        <v>0.6649104828948397</v>
       </c>
       <c r="EO5">
-        <v>0.6669951201647484</v>
+        <v>0.666476165162191</v>
       </c>
       <c r="EP5">
-        <v>0.6670144845734249</v>
+        <v>0.666476165162191</v>
       </c>
       <c r="EQ5">
-        <v>0.6773452428673591</v>
+        <v>0.6768684652833233</v>
       </c>
       <c r="ER5">
-        <v>0.7020719001773912</v>
+        <v>0.7018426802673899</v>
       </c>
       <c r="ES5">
-        <v>0.7171128621494017</v>
+        <v>0.7170060467140075</v>
       </c>
       <c r="ET5">
-        <v>0.7496879099230278</v>
+        <v>0.7499300647234507</v>
       </c>
       <c r="EU5">
-        <v>0.7641135929370902</v>
+        <v>0.7644702019176456</v>
       </c>
       <c r="EV5">
-        <v>0.7641826734323689</v>
+        <v>0.7644702019176456</v>
       </c>
       <c r="EW5">
-        <v>0.7649274068214693</v>
+        <v>0.7651526118207415</v>
       </c>
       <c r="EX5">
-        <v>0.7651930240133155</v>
+        <v>0.7653497146520106</v>
       </c>
       <c r="EY5">
-        <v>0.7688986335600519</v>
+        <v>0.7690312595172273</v>
       </c>
       <c r="EZ5">
-        <v>0.7689195057996254</v>
+        <v>0.7690312595172273</v>
       </c>
       <c r="FA5">
-        <v>0.7697681608116232</v>
+        <v>0.7698189338609679</v>
       </c>
       <c r="FB5">
-        <v>0.7843045508181192</v>
+        <v>0.7844712085421369</v>
       </c>
       <c r="FC5">
-        <v>0.8072019292531752</v>
+        <v>0.8075925077211095</v>
       </c>
       <c r="FD5">
-        <v>0.8128203995691753</v>
+        <v>0.8132116302847289</v>
       </c>
       <c r="FE5">
-        <v>0.8165307337155888</v>
+        <v>0.8168979607982871</v>
       </c>
       <c r="FF5">
-        <v>0.8170227633319606</v>
+        <v>0.8173244016302363</v>
       </c>
       <c r="FG5">
-        <v>0.81737714504774</v>
+        <v>0.8176114159515345</v>
       </c>
       <c r="FH5">
-        <v>0.818933108741396</v>
+        <v>0.8191155384286096</v>
       </c>
       <c r="FI5">
-        <v>0.8210426831972151</v>
+        <v>0.8211804251199958</v>
       </c>
       <c r="FJ5">
-        <v>0.8360519421713924</v>
+        <v>0.8363116789201723</v>
       </c>
       <c r="FK5">
-        <v>0.8429676576987311</v>
+        <v>0.843244808980436</v>
       </c>
       <c r="FL5">
-        <v>0.8451563631491418</v>
+        <v>0.8453898491533702</v>
       </c>
       <c r="FM5">
-        <v>0.8517691282971858</v>
+        <v>0.8520161142770553</v>
       </c>
       <c r="FN5">
-        <v>0.8652195973779001</v>
+        <v>0.8655684363627024</v>
       </c>
       <c r="FO5">
-        <v>0.8682335218719105</v>
+        <v>0.8685493586034106</v>
       </c>
       <c r="FP5">
-        <v>0.8684169426093744</v>
+        <v>0.8686632028831648</v>
       </c>
       <c r="FQ5">
-        <v>0.8697631888173639</v>
+        <v>0.8699548980211873</v>
       </c>
       <c r="FR5">
-        <v>0.8705998313901827</v>
+        <v>0.8707304047076522</v>
       </c>
       <c r="FS5">
-        <v>0.8706723941352233</v>
+        <v>0.8707319585493042</v>
       </c>
       <c r="FT5">
-        <v>0.8707879570633251</v>
+        <v>0.8707770681986058</v>
       </c>
       <c r="FU5">
-        <v>0.8742923768238121</v>
+        <v>0.8742548236144034</v>
       </c>
       <c r="FV5">
-        <v>0.875731687325441</v>
+        <v>0.8756407855714076</v>
       </c>
       <c r="FW5">
-        <v>0.8757328753331598</v>
+        <v>0.8756407855714076</v>
       </c>
       <c r="FX5">
-        <v>0.8762976495945597</v>
+        <v>0.8761409110144637</v>
       </c>
       <c r="FY5">
-        <v>0.8767144480260732</v>
+        <v>0.8764911485657831</v>
       </c>
       <c r="FZ5">
-        <v>0.8769217156119073</v>
+        <v>0.8766291478296959</v>
       </c>
       <c r="GA5">
-        <v>0.8769244250117222</v>
+        <v>0.8766291478296959</v>
       </c>
       <c r="GB5">
-        <v>0.8778011865517991</v>
+        <v>0.8774452918785298</v>
       </c>
       <c r="GC5">
-        <v>0.8788236947819147</v>
+        <v>0.8784090658755401</v>
       </c>
       <c r="GD5">
-        <v>0.8897003820385367</v>
+        <v>0.8893543491515434</v>
       </c>
       <c r="GE5">
-        <v>0.8999864993355219</v>
+        <v>0.8997014314494486</v>
       </c>
       <c r="GF5">
-        <v>0.9015870862261282</v>
+        <v>0.9012507537197504</v>
       </c>
       <c r="GG5">
-        <v>0.9031835368170171</v>
+        <v>0.902795886243357</v>
       </c>
       <c r="GH5">
-        <v>0.9054540626618358</v>
+        <v>0.905023804048593</v>
       </c>
       <c r="GI5">
-        <v>0.9067166516755429</v>
+        <v>0.9062307610203271</v>
       </c>
       <c r="GJ5">
-        <v>0.9139719678796712</v>
+        <v>0.9135078798895427</v>
       </c>
       <c r="GK5">
-        <v>0.9169299686775036</v>
+        <v>0.9164321558189943</v>
       </c>
       <c r="GL5">
-        <v>0.9193962665089421</v>
+        <v>0.9188583752682085</v>
       </c>
       <c r="GM5">
-        <v>0.9286787548745212</v>
+        <v>0.9281888602966153</v>
       </c>
       <c r="GN5">
-        <v>0.9394037641415098</v>
+        <v>0.9389805056838739</v>
       </c>
       <c r="GO5">
-        <v>0.9589396098063131</v>
+        <v>0.9586968362249049</v>
       </c>
       <c r="GP5">
-        <v>0.9675326962190101</v>
+        <v>0.967329011229601</v>
       </c>
       <c r="GQ5">
-        <v>0.9754468636781084</v>
+        <v>0.9752734946653902</v>
       </c>
       <c r="GR5">
-        <v>0.9896545927070671</v>
+        <v>0.989592861593604</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.000486793043794299</v>
+        <v>0.0002356447935215686</v>
       </c>
       <c r="C6">
-        <v>0.001202986834664168</v>
+        <v>0.0007097594701859168</v>
       </c>
       <c r="D6">
-        <v>0.002030815074110906</v>
+        <v>0.001299921955090685</v>
       </c>
       <c r="E6">
-        <v>0.003500414455376262</v>
+        <v>0.002557227381528587</v>
       </c>
       <c r="F6">
-        <v>0.004679562840344325</v>
+        <v>0.00351259911320436</v>
       </c>
       <c r="G6">
-        <v>0.006228638520596508</v>
+        <v>0.00485252285703495</v>
       </c>
       <c r="H6">
-        <v>0.007362484306142094</v>
+        <v>0.005760800994953666</v>
       </c>
       <c r="I6">
-        <v>0.008012783197851999</v>
+        <v>0.006166415681523365</v>
       </c>
       <c r="J6">
-        <v>0.009025107884946752</v>
+        <v>0.006948368502212814</v>
       </c>
       <c r="K6">
-        <v>0.009922797973502883</v>
+        <v>0.007611154756680839</v>
       </c>
       <c r="L6">
-        <v>0.01013576839078791</v>
+        <v>0.007611154756680839</v>
       </c>
       <c r="M6">
-        <v>0.01043979444691214</v>
+        <v>0.007656807046918711</v>
       </c>
       <c r="N6">
-        <v>0.01109191447859883</v>
+        <v>0.008064314870468069</v>
       </c>
       <c r="O6">
-        <v>0.01135202442528292</v>
+        <v>0.008064314870468069</v>
       </c>
       <c r="P6">
-        <v>0.01143480073422768</v>
+        <v>0.008064314870468069</v>
       </c>
       <c r="Q6">
-        <v>0.01143564199265695</v>
+        <v>0.008064314870468069</v>
       </c>
       <c r="R6">
-        <v>0.01230239838160743</v>
+        <v>0.008694944491515437</v>
       </c>
       <c r="S6">
-        <v>0.01364728636446262</v>
+        <v>0.009822608175349742</v>
       </c>
       <c r="T6">
-        <v>0.01451895235335051</v>
+        <v>0.01045834149260681</v>
       </c>
       <c r="U6">
-        <v>0.01533805631290847</v>
+        <v>0.01103943479167803</v>
       </c>
       <c r="V6">
-        <v>0.01586185910623096</v>
+        <v>0.01131355247928405</v>
       </c>
       <c r="W6">
-        <v>0.01636945539976006</v>
+        <v>0.0115708229588441</v>
       </c>
       <c r="X6">
-        <v>0.01702353325142179</v>
+        <v>0.01198036600288255</v>
       </c>
       <c r="Y6">
-        <v>0.01751676138513405</v>
+        <v>0.01222270029136137</v>
       </c>
       <c r="Z6">
-        <v>0.01768090656304151</v>
+        <v>0.01222270029136137</v>
       </c>
       <c r="AA6">
-        <v>0.01795000167961105</v>
+        <v>0.0122320406812246</v>
       </c>
       <c r="AB6">
-        <v>0.01808151241793453</v>
+        <v>0.0122320406812246</v>
       </c>
       <c r="AC6">
-        <v>0.01812217695141613</v>
+        <v>0.0122320406812246</v>
       </c>
       <c r="AD6">
-        <v>0.01812598741766756</v>
+        <v>0.0122320406812246</v>
       </c>
       <c r="AE6">
-        <v>0.01816035967422937</v>
+        <v>0.0122320406812246</v>
       </c>
       <c r="AF6">
-        <v>0.0182937265925292</v>
+        <v>0.0122320406812246</v>
       </c>
       <c r="AG6">
-        <v>0.01829566701350446</v>
+        <v>0.0122320406812246</v>
       </c>
       <c r="AH6">
-        <v>0.01830451756139163</v>
+        <v>0.0122320406812246</v>
       </c>
       <c r="AI6">
-        <v>0.01838450406037195</v>
+        <v>0.0122320406812246</v>
       </c>
       <c r="AJ6">
-        <v>0.01845420620548338</v>
+        <v>0.0122320406812246</v>
       </c>
       <c r="AK6">
-        <v>0.01866613638278167</v>
+        <v>0.0122320406812246</v>
       </c>
       <c r="AL6">
-        <v>0.01950771057205317</v>
+        <v>0.0128364925487499</v>
       </c>
       <c r="AM6">
-        <v>0.02034721566135105</v>
+        <v>0.01343879351644069</v>
       </c>
       <c r="AN6">
-        <v>0.02135424894851326</v>
+        <v>0.01421524574683275</v>
       </c>
       <c r="AO6">
-        <v>0.02303035692714601</v>
+        <v>0.01568722388776692</v>
       </c>
       <c r="AP6">
-        <v>0.02363888337938844</v>
+        <v>0.0160494147019849</v>
       </c>
       <c r="AQ6">
-        <v>0.02412725227316265</v>
+        <v>0.01628669764518711</v>
       </c>
       <c r="AR6">
-        <v>0.02441370351951093</v>
+        <v>0.01631408032258825</v>
       </c>
       <c r="AS6">
-        <v>0.02442791126432981</v>
+        <v>0.01631408032258825</v>
       </c>
       <c r="AT6">
-        <v>0.02442807588012771</v>
+        <v>0.01631408032258825</v>
       </c>
       <c r="AU6">
-        <v>0.024441074837962</v>
+        <v>0.01631408032258825</v>
       </c>
       <c r="AV6">
-        <v>0.02456033556644165</v>
+        <v>0.01631408032258825</v>
       </c>
       <c r="AW6">
-        <v>0.02463067870554491</v>
+        <v>0.01631408032258825</v>
       </c>
       <c r="AX6">
-        <v>0.02472376109935828</v>
+        <v>0.01631408032258825</v>
       </c>
       <c r="AY6">
-        <v>0.02499168676594273</v>
+        <v>0.01632220502939534</v>
       </c>
       <c r="AZ6">
-        <v>0.02499180485322122</v>
+        <v>0.01632220502939534</v>
       </c>
       <c r="BA6">
-        <v>0.02499182485514097</v>
+        <v>0.01632220502939534</v>
       </c>
       <c r="BB6">
-        <v>0.0250842199639631</v>
+        <v>0.01632220502939534</v>
       </c>
       <c r="BC6">
-        <v>0.02523639999202309</v>
+        <v>0.01632220502939534</v>
       </c>
       <c r="BD6">
-        <v>0.02531987469095895</v>
+        <v>0.01632220502939534</v>
       </c>
       <c r="BE6">
-        <v>0.02560601193731123</v>
+        <v>0.01634926129311515</v>
       </c>
       <c r="BF6">
-        <v>0.02573292573569332</v>
+        <v>0.01634926129311515</v>
       </c>
       <c r="BG6">
-        <v>0.02578202791706736</v>
+        <v>0.01634926129311515</v>
       </c>
       <c r="BH6">
-        <v>0.02585910942608471</v>
+        <v>0.01634926129311515</v>
       </c>
       <c r="BI6">
-        <v>0.025981771424521</v>
+        <v>0.01634926129311515</v>
       </c>
       <c r="BJ6">
-        <v>0.02599263599038249</v>
+        <v>0.01634926129311515</v>
       </c>
       <c r="BK6">
-        <v>0.02600032428228448</v>
+        <v>0.01634926129311515</v>
       </c>
       <c r="BL6">
-        <v>0.02600398668523779</v>
+        <v>0.01634926129311515</v>
       </c>
       <c r="BM6">
-        <v>0.02602857625992432</v>
+        <v>0.01634926129311515</v>
       </c>
       <c r="BN6">
-        <v>0.02602985019980808</v>
+        <v>0.01634926129311515</v>
       </c>
       <c r="BO6">
-        <v>0.02617073799801203</v>
+        <v>0.01634926129311515</v>
       </c>
       <c r="BP6">
-        <v>0.0265980573925645</v>
+        <v>0.01652308120434852</v>
       </c>
       <c r="BQ6">
-        <v>0.02730346908357182</v>
+        <v>0.01698598752128852</v>
       </c>
       <c r="BR6">
-        <v>0.02827088860123904</v>
+        <v>0.01772125989022528</v>
       </c>
       <c r="BS6">
-        <v>0.02853872861782458</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="BT6">
-        <v>0.02854928179369004</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="BU6">
-        <v>0.02858934178317935</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="BV6">
-        <v>0.02861302213787747</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="BW6">
-        <v>0.02861313393476605</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="BX6">
-        <v>0.02862502373461448</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="BY6">
-        <v>0.02862602466360172</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="BZ6">
-        <v>0.02868619046983471</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CA6">
-        <v>0.02868813089080998</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CB6">
-        <v>0.02868930535599501</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CC6">
-        <v>0.02872699244551457</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CD6">
-        <v>0.02873785701137606</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CE6">
-        <v>0.02874720990325683</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CF6">
-        <v>0.0287528754994846</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CG6">
-        <v>0.02875750503212559</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CH6">
-        <v>0.02875862296011134</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CI6">
-        <v>0.02876228536306465</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CJ6">
-        <v>0.02889021424143379</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CK6">
-        <v>0.02897671090433112</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CL6">
-        <v>0.02900130047901765</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CM6">
-        <v>0.02924890327586118</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CN6">
-        <v>0.02930489981514733</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="CO6">
-        <v>0.122827348622911</v>
+        <v>0.1146786705448777</v>
       </c>
       <c r="CP6">
-        <v>0.1715118480022747</v>
+        <v>0.1650174712527388</v>
       </c>
       <c r="CQ6">
-        <v>0.2071586075478452</v>
+        <v>0.2018030977262265</v>
       </c>
       <c r="CR6">
-        <v>0.2085446169301761</v>
+        <v>0.2029735085041861</v>
       </c>
       <c r="CS6">
-        <v>0.2483483564227529</v>
+        <v>0.2440804570955259</v>
       </c>
       <c r="CT6">
-        <v>0.2494166896091336</v>
+        <v>0.2449206326572047</v>
       </c>
       <c r="CU6">
-        <v>0.2495001643080695</v>
+        <v>0.2449206326572047</v>
       </c>
       <c r="CV6">
-        <v>0.2672800020814098</v>
+        <v>0.2631329859331935</v>
       </c>
       <c r="CW6">
-        <v>0.2679879433723849</v>
+        <v>0.2635985218553828</v>
       </c>
       <c r="CX6">
-        <v>0.2799036532204818</v>
+        <v>0.2757149145955219</v>
       </c>
       <c r="CY6">
-        <v>0.3015255249448434</v>
+        <v>0.2979211929088551</v>
       </c>
       <c r="CZ6">
-        <v>0.316035916759863</v>
+        <v>0.3127348458512066</v>
       </c>
       <c r="DA6">
-        <v>0.3367407294959154</v>
+        <v>0.3339878101384739</v>
       </c>
       <c r="DB6">
-        <v>0.3706529290635983</v>
+        <v>0.368970302487491</v>
       </c>
       <c r="DC6">
-        <v>0.37174707594965</v>
+        <v>0.3698373122684235</v>
       </c>
       <c r="DD6">
-        <v>0.4395678250850622</v>
+        <v>0.4400688958084725</v>
       </c>
       <c r="DE6">
-        <v>0.4506890514432874</v>
+        <v>0.4513593959244425</v>
       </c>
       <c r="DF6">
-        <v>0.4657688222510485</v>
+        <v>0.4667649377058408</v>
       </c>
       <c r="DG6">
-        <v>0.4661549988461254</v>
+        <v>0.4668959882769209</v>
       </c>
       <c r="DH6">
-        <v>0.4661581869119848</v>
+        <v>0.4668959882769209</v>
       </c>
       <c r="DI6">
-        <v>0.4673512635967753</v>
+        <v>0.4678658389502452</v>
       </c>
       <c r="DJ6">
-        <v>0.4675224937545924</v>
+        <v>0.4678658389502452</v>
       </c>
       <c r="DK6">
-        <v>0.4675231652149839</v>
+        <v>0.4678658389502452</v>
       </c>
       <c r="DL6">
-        <v>0.4678758703704876</v>
+        <v>0.4679620948208484</v>
       </c>
       <c r="DM6">
-        <v>0.4682362116158939</v>
+        <v>0.4680662886667632</v>
       </c>
       <c r="DN6">
-        <v>0.4698419753954234</v>
+        <v>0.469465141618901</v>
       </c>
       <c r="DO6">
-        <v>0.4743439528380317</v>
+        <v>0.4738747072325952</v>
       </c>
       <c r="DP6">
-        <v>0.4787981717812487</v>
+        <v>0.47823462626094</v>
       </c>
       <c r="DQ6">
-        <v>0.4835035160212643</v>
+        <v>0.4828555985811559</v>
       </c>
       <c r="DR6">
-        <v>0.4850525917015165</v>
+        <v>0.4841955223249865</v>
       </c>
       <c r="DS6">
-        <v>0.48537471577741</v>
+        <v>0.4842599881226541</v>
       </c>
       <c r="DT6">
-        <v>0.4863377008051338</v>
+        <v>0.4849906506883879</v>
       </c>
       <c r="DU6">
-        <v>0.4878255963861659</v>
+        <v>0.4862669756371071</v>
       </c>
       <c r="DV6">
-        <v>0.4951705532925315</v>
+        <v>0.4936319151505915</v>
       </c>
       <c r="DW6">
-        <v>0.5043051991760819</v>
+        <v>0.5028572972593679</v>
       </c>
       <c r="DX6">
-        <v>0.5043865145150452</v>
+        <v>0.5028572972593679</v>
       </c>
       <c r="DY6">
-        <v>0.5048818582087305</v>
+        <v>0.5031018307444316</v>
       </c>
       <c r="DZ6">
-        <v>0.5074677036757659</v>
+        <v>0.5055195119631264</v>
       </c>
       <c r="EA6">
-        <v>0.5140675749916299</v>
+        <v>0.5121099096498585</v>
       </c>
       <c r="EB6">
-        <v>0.5237930378676484</v>
+        <v>0.5219494661279374</v>
       </c>
       <c r="EC6">
-        <v>0.5242484516618428</v>
+        <v>0.522152491123657</v>
       </c>
       <c r="ED6">
-        <v>0.5249123003033799</v>
+        <v>0.5225721912362731</v>
       </c>
       <c r="EE6">
-        <v>0.530151257936593</v>
+        <v>0.5277478728376985</v>
       </c>
       <c r="EF6">
-        <v>0.5335804124928777</v>
+        <v>0.5310422025526613</v>
       </c>
       <c r="EG6">
-        <v>0.5369499261499227</v>
+        <v>0.5342745335232716</v>
       </c>
       <c r="EH6">
-        <v>0.5416817753896004</v>
+        <v>0.5389230586926073</v>
       </c>
       <c r="EI6">
-        <v>0.5416884444968154</v>
+        <v>0.5389230586926073</v>
       </c>
       <c r="EJ6">
-        <v>0.5419924705529396</v>
+        <v>0.5389687109828452</v>
       </c>
       <c r="EK6">
-        <v>0.5526500474170755</v>
+        <v>0.5497772316716154</v>
       </c>
       <c r="EL6">
-        <v>0.5697513121990663</v>
+        <v>0.5672841852311087</v>
       </c>
       <c r="EM6">
-        <v>0.5805394490615376</v>
+        <v>0.5782284274811341</v>
       </c>
       <c r="EN6">
-        <v>0.5818129006453036</v>
+        <v>0.5792818305971188</v>
       </c>
       <c r="EO6">
-        <v>0.5843156876133977</v>
+        <v>0.5816131696796654</v>
       </c>
       <c r="EP6">
-        <v>0.5944416764843102</v>
+        <v>0.5918690865594241</v>
       </c>
       <c r="EQ6">
-        <v>0.616778703199555</v>
+        <v>0.6148187928226614</v>
       </c>
       <c r="ER6">
-        <v>0.6435315248585065</v>
+        <v>0.6423588682003522</v>
       </c>
       <c r="ES6">
-        <v>0.679991339393712</v>
+        <v>0.679989693004005</v>
       </c>
       <c r="ET6">
-        <v>0.698591794156591</v>
+        <v>0.6990551055663953</v>
       </c>
       <c r="EU6">
-        <v>0.7040039716875959</v>
+        <v>0.7044108551462863</v>
       </c>
       <c r="EV6">
-        <v>0.7041163210561636</v>
+        <v>0.7044108551462863</v>
       </c>
       <c r="EW6">
-        <v>0.7044287922321802</v>
+        <v>0.7044652864260416</v>
       </c>
       <c r="EX6">
-        <v>0.7045353628308216</v>
+        <v>0.7044652864260416</v>
       </c>
       <c r="EY6">
-        <v>0.7069089466005629</v>
+        <v>0.7066623143870872</v>
       </c>
       <c r="EZ6">
-        <v>0.7069322809302655</v>
+        <v>0.7066623143870872</v>
       </c>
       <c r="FA6">
-        <v>0.7252329306969665</v>
+        <v>0.7254160694535206</v>
       </c>
       <c r="FB6">
-        <v>0.736952098547569</v>
+        <v>0.737328150098897</v>
       </c>
       <c r="FC6">
-        <v>0.7385964328266068</v>
+        <v>0.7387670983978362</v>
       </c>
       <c r="FD6">
-        <v>0.7403575663041556</v>
+        <v>0.74032746343833</v>
       </c>
       <c r="FE6">
-        <v>0.7418301038853835</v>
+        <v>0.7415878232236166</v>
       </c>
       <c r="FF6">
-        <v>0.7418663446909215</v>
+        <v>0.7415878232236166</v>
       </c>
       <c r="FG6">
-        <v>0.7420138654290409</v>
+        <v>0.7415878232236166</v>
       </c>
       <c r="FH6">
-        <v>0.7474681273595093</v>
+        <v>0.7469873209688913</v>
       </c>
       <c r="FI6">
-        <v>0.7516058729067607</v>
+        <v>0.7510182551324709</v>
       </c>
       <c r="FJ6">
-        <v>0.7539992012762503</v>
+        <v>0.7532358082768679</v>
       </c>
       <c r="FK6">
-        <v>0.7558177000530678</v>
+        <v>0.7548558064981052</v>
       </c>
       <c r="FL6">
-        <v>0.7674931294042279</v>
+        <v>0.7667224194848805</v>
       </c>
       <c r="FM6">
-        <v>0.7798887982462063</v>
+        <v>0.7793377459322692</v>
       </c>
       <c r="FN6">
-        <v>0.7872459927524158</v>
+        <v>0.7867154068472397</v>
       </c>
       <c r="FO6">
-        <v>0.7924574362859796</v>
+        <v>0.7918624866057689</v>
       </c>
       <c r="FP6">
-        <v>0.7967437329313374</v>
+        <v>0.7960478446910563</v>
       </c>
       <c r="FQ6">
-        <v>0.7971023691567655</v>
+        <v>0.7961502661106815</v>
       </c>
       <c r="FR6">
-        <v>0.797105851716521</v>
+        <v>0.7961502661106815</v>
       </c>
       <c r="FS6">
-        <v>0.7979773630554109</v>
+        <v>0.7967858386640029</v>
       </c>
       <c r="FT6">
-        <v>0.8023840782992335</v>
+        <v>0.801096375980266</v>
       </c>
       <c r="FU6">
-        <v>0.8043959289735862</v>
+        <v>0.8029173700787985</v>
       </c>
       <c r="FV6">
-        <v>0.8064864277469364</v>
+        <v>0.8048201215526509</v>
       </c>
       <c r="FW6">
-        <v>0.8087466566181226</v>
+        <v>0.8068993132391565</v>
       </c>
       <c r="FX6">
-        <v>0.8138551935529983</v>
+        <v>0.8119394180864152</v>
       </c>
       <c r="FY6">
-        <v>0.8139960813512023</v>
+        <v>0.8119394180864152</v>
       </c>
       <c r="FZ6">
-        <v>0.814319915597074</v>
+        <v>0.8120056616639727</v>
       </c>
       <c r="GA6">
-        <v>0.8187108528410977</v>
+        <v>0.816299797212516</v>
       </c>
       <c r="GB6">
-        <v>0.8276280347274203</v>
+        <v>0.8252991180958267</v>
       </c>
       <c r="GC6">
-        <v>0.8420176885439792</v>
+        <v>0.8399872597800376</v>
       </c>
       <c r="GD6">
-        <v>0.8485404804608258</v>
+        <v>0.8464975308084622</v>
       </c>
       <c r="GE6">
-        <v>0.8513157032254468</v>
+        <v>0.8491120761725485</v>
       </c>
       <c r="GF6">
-        <v>0.8537675758941901</v>
+        <v>0.851390488108295</v>
       </c>
       <c r="GG6">
-        <v>0.8562584756624357</v>
+        <v>0.8537094700420751</v>
       </c>
       <c r="GH6">
-        <v>0.859519481320864</v>
+        <v>0.8568290032555723</v>
       </c>
       <c r="GI6">
-        <v>0.8615132331954474</v>
+        <v>0.8586311830358386</v>
       </c>
       <c r="GJ6">
-        <v>0.8616665245634932</v>
+        <v>0.8586311830358386</v>
       </c>
       <c r="GK6">
-        <v>0.8644320052282385</v>
+        <v>0.8612356011555782</v>
       </c>
       <c r="GL6">
-        <v>0.8749037485947433</v>
+        <v>0.8718509415996063</v>
       </c>
       <c r="GM6">
-        <v>0.8907083983932635</v>
+        <v>0.8880100197596897</v>
       </c>
       <c r="GN6">
-        <v>0.9181513020434179</v>
+        <v>0.9162674588508772</v>
       </c>
       <c r="GO6">
-        <v>0.9399976297649181</v>
+        <v>0.9387070668115228</v>
       </c>
       <c r="GP6">
-        <v>0.9594353595171233</v>
+        <v>0.9586428552179693</v>
       </c>
       <c r="GQ6">
-        <v>0.9734936883379059</v>
+        <v>0.9729865732940086</v>
       </c>
       <c r="GR6">
-        <v>0.9879096661541292</v>
+        <v>0.9877020796716822</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>109</v>
       </c>
       <c r="E2">
-        <v>0.05006871881067964</v>
+        <v>0.0481965113815959</v>
       </c>
       <c r="F2">
-        <v>0.50914070175385</v>
+        <v>0.5089151829467663</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>131</v>
       </c>
       <c r="E3">
-        <v>0.01531230265387533</v>
+        <v>0.009422608909844938</v>
       </c>
       <c r="F3">
-        <v>0.5180877981565484</v>
+        <v>0.5168311698374104</v>
       </c>
       <c r="G3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>131</v>
       </c>
       <c r="E4">
-        <v>0.01252093636086236</v>
+        <v>0.03276494793893951</v>
       </c>
       <c r="F4">
-        <v>0.5107388302913618</v>
+        <v>0.5101003143117273</v>
       </c>
       <c r="G4">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>113</v>
       </c>
       <c r="E5">
-        <v>0.03469145590822811</v>
+        <v>0.0316550904348839</v>
       </c>
       <c r="F5">
-        <v>0.5045834372643955</v>
+        <v>0.5041084257041348</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>126</v>
       </c>
       <c r="E6">
-        <v>0.02897671090433112</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="F6">
-        <v>0.5043051991760819</v>
+        <v>0.5028572972593679</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>144</v>
       </c>
       <c r="E2">
-        <v>0.05006871881067964</v>
+        <v>0.0481965113815959</v>
       </c>
       <c r="F2">
-        <v>0.7012590494041905</v>
+        <v>0.7012180115935774</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>149</v>
       </c>
       <c r="E3">
-        <v>0.01531230265387533</v>
+        <v>0.009422608909844938</v>
       </c>
       <c r="F3">
-        <v>0.7179878361406322</v>
+        <v>0.718332751053019</v>
       </c>
       <c r="G3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>149</v>
       </c>
       <c r="E4">
-        <v>0.01252093636086236</v>
+        <v>0.03276494793893951</v>
       </c>
       <c r="F4">
-        <v>0.7122897558606034</v>
+        <v>0.7122490386870313</v>
       </c>
       <c r="G4">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>147</v>
       </c>
       <c r="E5">
-        <v>0.03469145590822811</v>
+        <v>0.0316550904348839</v>
       </c>
       <c r="F5">
-        <v>0.7020719001773912</v>
+        <v>0.7018426802673899</v>
       </c>
       <c r="G5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>150</v>
       </c>
       <c r="E6">
-        <v>0.02897671090433112</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="F6">
-        <v>0.7040039716875959</v>
+        <v>0.7044108551462863</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>157</v>
       </c>
       <c r="E2">
-        <v>0.05006871881067964</v>
+        <v>0.0481965113815959</v>
       </c>
       <c r="F2">
-        <v>0.8088307742615514</v>
+        <v>0.8090549907588404</v>
       </c>
       <c r="G2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>168</v>
       </c>
       <c r="E3">
-        <v>0.01531230265387533</v>
+        <v>0.009422608909844938</v>
       </c>
       <c r="F3">
-        <v>0.8116722769372124</v>
+        <v>0.8116800856226252</v>
       </c>
       <c r="G3">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>168</v>
       </c>
       <c r="E4">
-        <v>0.01252093636086236</v>
+        <v>0.03276494793893951</v>
       </c>
       <c r="F4">
-        <v>0.8009680011300512</v>
+        <v>0.8008406852274917</v>
       </c>
       <c r="G4">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>158</v>
       </c>
       <c r="E5">
-        <v>0.03469145590822811</v>
+        <v>0.0316550904348839</v>
       </c>
       <c r="F5">
-        <v>0.8072019292531752</v>
+        <v>0.8075925077211095</v>
       </c>
       <c r="G5">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>175</v>
       </c>
       <c r="E6">
-        <v>0.02897671090433112</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="F6">
-        <v>0.8023840782992335</v>
+        <v>0.801096375980266</v>
       </c>
       <c r="G6">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>176</v>
       </c>
       <c r="E2">
-        <v>0.05006871881067964</v>
+        <v>0.0481965113815959</v>
       </c>
       <c r="F2">
-        <v>0.9000930421181996</v>
+        <v>0.9002331815589635</v>
       </c>
       <c r="G2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>194</v>
       </c>
       <c r="E3">
-        <v>0.01531230265387533</v>
+        <v>0.009422608909844938</v>
       </c>
       <c r="F3">
-        <v>0.9054243092043461</v>
+        <v>0.904420312877788</v>
       </c>
       <c r="G3">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>194</v>
       </c>
       <c r="E4">
-        <v>0.01252093636086236</v>
+        <v>0.03276494793893951</v>
       </c>
       <c r="F4">
-        <v>0.9086741424958732</v>
+        <v>0.9083501223888273</v>
       </c>
       <c r="G4">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>187</v>
       </c>
       <c r="E5">
-        <v>0.03469145590822811</v>
+        <v>0.0316550904348839</v>
       </c>
       <c r="F5">
-        <v>0.9015870862261282</v>
+        <v>0.9012507537197504</v>
       </c>
       <c r="G5">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>195</v>
       </c>
       <c r="E6">
-        <v>0.02897671090433112</v>
+        <v>0.01772929556094381</v>
       </c>
       <c r="F6">
-        <v>0.9181513020434179</v>
+        <v>0.9162674588508772</v>
       </c>
       <c r="G6">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H6">
         <v>16</v>

--- a/on_trucks/Processed_Stand_Alone/16_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/16_455-55R22.xlsx
@@ -1997,43 +1997,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002189412483846313</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0004235650389155916</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.0007867120288156023</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.001144095608883829</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00127636524411735</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.001165125657337389</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001045730351335025</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.000864550441496399</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.001079061860698259</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0007840904713811433</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0005033119450863857</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.00010280219722797</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.322265794656874E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2045,43 +2045,43 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0001110126954728864</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0003209259097430563</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0004605011469472269</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0006003956716255125</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0005214263173714454</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.000567733475503707</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0006394520974533586</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.000628399606314203</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0005873803007633071</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0003503697803809507</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0002084705590093135</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>7.936049198495837E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.801458966184847E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -2090,46 +2090,46 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>5.397915814067944E-05</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0002733409672082834</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0003329457909668649</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0005712241652284382</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0005466676731376777</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0007840904713811433</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0009231051073808418</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0007529572132717792</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0007667200725496631</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0007410118714018259</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0005757432281195133</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0003708374046840789</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0001053488225191128</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>1.978300234424786E-05</v>
+        <v>0</v>
       </c>
       <c r="AV2">
         <v>0</v>
@@ -2138,91 +2138,91 @@
         <v>0</v>
       </c>
       <c r="AX2">
-        <v>5.466935368129512E-05</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0002816501563231402</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0004652734683968815</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0007093382054948916</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0008575655672278868</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0009529283018512258</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.001078400564390444</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.001125690501897007</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.001170782732012031</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.001051099984696462</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0006927798636235527</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0005113855813829787</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0001703405220893136</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>5.175004169240013E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
         <v>0</v>
       </c>
       <c r="BM2">
-        <v>5.60426161373868E-05</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0002896821670083992</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0006720583966134158</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0008737221056237412</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.001076010893739279</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.001287426900343927</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.001509992689015745</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.00129186461553049</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.001000110071183163</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0008737221056237412</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0007667200725496631</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0006511149229856553</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0001495996774657709</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>3.642947005618055E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
         <v>0</v>
@@ -2231,295 +2231,295 @@
         <v>0</v>
       </c>
       <c r="CC2">
-        <v>1.351940031277842E-05</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0001251136860474853</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0003055077752476559</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0006878484926567945</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0008971798548055033</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.001061171912196737</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0009158969171965027</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0007687516400707526</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0008814159749407608</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0005873803007633071</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0005454531479814257</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.0003803483885480435</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.008214337933112992</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.1326697823662056</v>
+        <v>0.4566087224531029</v>
       </c>
       <c r="CQ2">
-        <v>0.08813524882794749</v>
+        <v>0.2582082475731048</v>
       </c>
       <c r="CR2">
-        <v>0.03987371133943179</v>
+        <v>0.0432040430733612</v>
       </c>
       <c r="CS2">
-        <v>0.0006535155111695283</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.04142704661315918</v>
+        <v>0.05012412130188056</v>
       </c>
       <c r="CU2">
-        <v>0.003197360316219017</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.01418080178745442</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.007666947043934016</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.004167015184617632</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.000384721857478933</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
         <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.04764632890045341</v>
+        <v>0.07783090211169701</v>
       </c>
       <c r="DB2">
         <v>0</v>
       </c>
       <c r="DC2">
-        <v>0.05310258240955051</v>
+        <v>0.10213840465555</v>
       </c>
       <c r="DD2">
-        <v>0.0005330127000317298</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.009263316431716385</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.009602942342687703</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>0.006142364160177368</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0002344882077516928</v>
+        <v>0</v>
       </c>
       <c r="DI2">
         <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.002483372007225969</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.005687627067639501</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.004200640480354594</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.002302311072307907</v>
+        <v>0</v>
       </c>
       <c r="DN2">
         <v>0</v>
       </c>
       <c r="DO2">
-        <v>3.722348387993047E-05</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.001570466453705631</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
         <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.0003784810070216237</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0009065152517089065</v>
+        <v>0</v>
       </c>
       <c r="DT2">
         <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.0002454904621259478</v>
+        <v>0</v>
       </c>
       <c r="DV2">
         <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.0263721376252649</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.009137507981684707</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.003762032229519824</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.001660838042863478</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.001544139286868037</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.02139623641946653</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.03284371764768813</v>
+        <v>0.0118855588313034</v>
       </c>
       <c r="ED2">
-        <v>0.00404094829926371</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>1.978300234424786E-05</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.006212800173464207</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.01011267630481661</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0004753346395088413</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.003963550546000456</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
         <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.0002078248232070655</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.01418080178745442</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.02192689699549095</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.008651353473041305</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.001605269714964404</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0001064471927816997</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.01541763033501997</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.01433238125473311</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.01136232590324798</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.02636051609298363</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.002911341807299504</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.002064214791211812</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.002506891736570361</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.000884188131883151</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.002391511041004464</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.001929171558807877</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.0006362850058152879</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.02693407431390417</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.006826426444433465</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.00196355070816409</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.0004251044009560344</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.002112859449497606</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.001870206609224204</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.0003402289132945203</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.02265760927257804</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.0144164301421529</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.006159126802926015</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>8.068758052918876E-05</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.014300833210953</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.01247489197981399</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>3.52069984669883E-05</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.002651721368751046</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.0008063738707184396</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0001483484416022088</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.0005722395763425712</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.0003081389912742441</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.003028206038444769</v>
+        <v>0</v>
       </c>
       <c r="FV2">
         <v>0</v>
@@ -2528,70 +2528,70 @@
         <v>0</v>
       </c>
       <c r="FX2">
-        <v>5.486071264944162E-05</v>
+        <v>0</v>
       </c>
       <c r="FY2">
         <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.003891377194713341</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>5.349607141844117E-05</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>7.661409800259535E-05</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.001719052361715785</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.01069316977760377</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.003319704866781504</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.0002642660300035768</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.002240354879906364</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.001435444673649179</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.00447170146588656</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.009740919208788569</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.000596285190346004</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.003359246075376338</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.005071714057000892</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.01076376008664808</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.01408658670306373</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.004963493812592544</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.007251466941565663</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.008104098045868728</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.007609206187455002</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,43 +2767,43 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.000249819066914917</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0006225574559956342</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0005790656488688993</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>8.24747439384891E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001542119332046535</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0002632429645663285</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001867469465718223</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0003483884373532657</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001827285472470367</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0005614351578500815</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0003305693451437012</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>6.331876049922741E-06</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -2815,22 +2815,22 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>9.400254258760723E-05</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0001858846780915088</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.000423626662820287</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0002134656759186484</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0003217229935174526</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0001167266195241066</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -2869,25 +2869,25 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0001059550781619496</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>2.294884305955354E-05</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>6.65129189786842E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0003208209975587278</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0006307802195518352</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0008832040166039476</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.0007630331275064757</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
         <v>0</v>
@@ -2908,22 +2908,22 @@
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0001121576745031091</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.0001398850624390143</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>8.504526345438271E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0001599001386032053</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0001227702347006985</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>1.966344268502124E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="BL3">
-        <v>8.897957651241038E-06</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0001115077439492982</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.000525678951367878</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.0001553555003253403</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.0001221052396662192</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>9.004380064200914E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
         <v>0</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="BW3">
-        <v>3.147946149265761E-05</v>
+        <v>0</v>
       </c>
       <c r="BX3">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="CG3">
-        <v>2.186194077932688E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -3037,61 +3037,61 @@
         <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.0002861559989481851</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.1434065857025007</v>
+        <v>0.6732706409278281</v>
       </c>
       <c r="CP3">
-        <v>0.02554785417023714</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.07356298129895057</v>
+        <v>0.2570762739203329</v>
       </c>
       <c r="CR3">
-        <v>0.0002782898462569963</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.02295898041681565</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.009684899025651584</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.01507564709257258</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.0006659823483278325</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.000121698050825233</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.01514158473160638</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>7.66057240571036E-05</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.03321274539969588</v>
+        <v>0.01663133938256442</v>
       </c>
       <c r="DA3">
-        <v>0.02607484329373893</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.02505518458016082</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.004713353723049828</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.02059076364398486</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.002251417558795783</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.008753586366101561</v>
+        <v>0</v>
       </c>
       <c r="DG3">
         <v>0</v>
@@ -3100,187 +3100,187 @@
         <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.005269346450467723</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
         <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.0002189575952055719</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.001135035820280604</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.0007336874886282812</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.002585686882893492</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.005958406585666668</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.002498267599787611</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.001166557024634897</v>
+        <v>0</v>
       </c>
       <c r="DR3">
         <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.001082333854319478</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.001048019817393697</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.001650098455509428</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.01187671581920673</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.01464911871559316</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>7.340834910745007E-05</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.001735035152915967</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.003213541763516177</v>
+        <v>0</v>
       </c>
       <c r="EA3">
         <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.02505518458016082</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.001202565510274781</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.0003659766053243677</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.009086756695619697</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.02066773499723797</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.003929309899708824</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.001256223561823194</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.0005949786160535633</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
         <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.007190136543724794</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.02009228201440742</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.009943879841488689</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.001489804848957089</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>2.568499043317449E-05</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.0166107349764801</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.02856085819817488</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.01836111261080503</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.0393195967875044</v>
+        <v>0.05302174576927458</v>
       </c>
       <c r="ET3">
-        <v>0.02280394451759065</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.001361393587146959</v>
+        <v>0</v>
       </c>
       <c r="EV3">
         <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.0002955102067896162</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>7.245440104782541E-05</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.001640351736516959</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.001225430643679593</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.01361754277636195</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.01439891804909699</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.004117625170683963</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.003366733485303671</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.0001818720602701148</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>8.019945770758712E-05</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.002130779772584621</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.001772191999845723</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.007924919820641155</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.001849673204339835</v>
+        <v>0</v>
       </c>
       <c r="FK3">
         <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.01696677583411571</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.02234496236347394</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.004981524177455766</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.002130779772584621</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.002061953926530771</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>8.57480825497835E-05</v>
+        <v>0</v>
       </c>
       <c r="FR3">
         <v>0</v>
@@ -3289,82 +3289,82 @@
         <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.005533354833153851</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.003233866394400698</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.001011864656641359</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.003229833999359075</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.002653723065156629</v>
+        <v>0</v>
       </c>
       <c r="FY3">
         <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0002861559989481851</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.001883801785294144</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>0.003771510177216328</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.01390531608981174</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.01025180342463796</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.001826060445188336</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.001541530880859777</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.001608378903103708</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.001388293354908088</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.005252310965720495</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.0009963232019431249</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.003029830828912903</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.007872629786796686</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.01420363250398879</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.02359100663177801</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.01425929372431797</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.01475376596272292</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.01835434988042929</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.01315320662438606</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.01146806429857728</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,10 +3540,10 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>8.982703996996192E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7.520970220311459E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -3555,34 +3555,34 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.772821878830782E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001961387158567825</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0002955163512775032</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0002685003884772593</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0001652815841097894</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0003189881389975973</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.368309280275232E-05</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3.380793456274513E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>8.80736880242753E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -3591,28 +3591,28 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>2.399044589356924E-05</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0002571671540180241</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.000187286574917208</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0002844896041905585</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>7.811120918603114E-05</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>6.688649233538758E-05</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>9.058235695983119E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -3621,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>1.772821878830782E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>6.003610735418268E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>4.861029110109963E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -3651,34 +3651,34 @@
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>1.105021133215489E-05</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>6.307267152357098E-05</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.000151086480065234</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>9.490650800861573E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0002082536962602898</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0001690663551964584</v>
+        <v>0</v>
       </c>
       <c r="AS4">
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>2.280228236725992E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>4.943076531911796E-05</v>
+        <v>0</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -3696,40 +3696,40 @@
         <v>0</v>
       </c>
       <c r="BB4">
-        <v>4.738733850250507E-05</v>
+        <v>0</v>
       </c>
       <c r="BC4">
         <v>0</v>
       </c>
       <c r="BD4">
-        <v>3.886782023457503E-06</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>2.66176096697042E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
         <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.0004976022134344037</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.0005858358006554878</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0002318157627945673</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.0001740095149976786</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.0003688218533499041</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>6.135223509073078E-05</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>6.445939715201696E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
         <v>0</v>
@@ -3738,25 +3738,25 @@
         <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0001360069212060428</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>7.853708946040315E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0002574691561111428</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.0004223383741128183</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.0004160542767460882</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.0003908871842358679</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>6.985340796344711E-05</v>
+        <v>0</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -3765,16 +3765,16 @@
         <v>0</v>
       </c>
       <c r="BY4">
-        <v>1.565882562456099E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
         <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0003352816396703202</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0002421861305070972</v>
+        <v>0</v>
       </c>
       <c r="CC4">
         <v>0</v>
@@ -3783,361 +3783,361 @@
         <v>0</v>
       </c>
       <c r="CE4">
-        <v>4.536978752290833E-05</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>6.807256105530341E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>7.674682748867042E-06</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0001707549421245065</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.0002150829058965972</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0001548702857106463</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.000410876484549445</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0006395571055883047</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0006998191543552639</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.0006735893423250259</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.0217259068938674</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.02872320890398212</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.1212278760634343</v>
+        <v>0.5947190774012194</v>
       </c>
       <c r="CR4">
-        <v>0.01288293865189977</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>0.009256365171824625</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.01562625909057019</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.0001988215463723793</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.01627852025462414</v>
+        <v>0</v>
       </c>
       <c r="CW4">
-        <v>0.00118140072294079</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.01260465222098527</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.004739030031537384</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.009288797964042668</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.07558004346992568</v>
+        <v>0.2966884951293189</v>
       </c>
       <c r="DB4">
-        <v>0.003393759545553916</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.02813300549937595</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.03994620405105119</v>
+        <v>0.06403837118672495</v>
       </c>
       <c r="DE4">
-        <v>0.003994299004481282</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.009249787097595222</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.0013282561044037</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>8.094484967127193E-05</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>2.890904728282153E-05</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.00067540376848688</v>
+        <v>0</v>
       </c>
       <c r="DK4">
         <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.0006904802399453855</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.0003999298087467299</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.003719410926790447</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.004127063569668723</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.007041166242281173</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.005513352436512834</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0008727137033702483</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>2.488472809566405E-05</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.00149681158831382</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.002754284243010096</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.00019434745022841</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.02006421152749095</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.003869682662933789</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.005763464073418632</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.0002486308531629147</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.0008087183737169786</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.02532773088505926</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.005897593028348776</v>
+        <v>0</v>
       </c>
       <c r="ED4">
         <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.004282221745939453</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.01312653959433054</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.01416130858429821</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0006843769315106567</v>
+        <v>0</v>
       </c>
       <c r="EI4">
         <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.0001351227077517213</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.002641104257116071</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.02190412936119445</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.01906113113543927</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.006728568431369921</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>1.85001222601012E-05</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.003854377502577596</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.02309316580730672</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.02009396220321766</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.02950473259563155</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.03696189036701113</v>
+        <v>0.0445540562827367</v>
       </c>
       <c r="EU4">
-        <v>0.007035427397977537</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.0007358180653286885</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.0002917297297617588</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>9.624927588984152E-05</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.000443048798705089</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.005915124838170083</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.002743223001511583</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.02068165847756028</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.003912432602915085</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.00114036514515776</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.0008548575756834404</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.0002712686203173571</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.000201248806485298</v>
+        <v>0</v>
       </c>
       <c r="FH4">
         <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.01212145188899925</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.004769281228215625</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.0001633676571584143</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.007692234985816275</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>0.019522858444807</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.01229204234205831</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.0008596071846260472</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.005068244796112399</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0002613546146755441</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>4.657720757961737E-05</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.0006644197019488263</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.002670852318106043</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.002227067231660522</v>
+        <v>0</v>
       </c>
       <c r="FV4">
         <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0005785046822458414</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.001026580853377104</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0002752452024570415</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0001677771793616605</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.001171119175823879</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>0.003761331794092533</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.01143176579689562</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.01896449649964913</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.006215330406016913</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.002546926568757499</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.004953890290589492</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.0027578883559016</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.007776884774638965</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.005273728609225775</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0003053843677227848</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.006930207877512384</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.009282209330299522</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>0.01954513399046993</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.01929130540472575</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.01197586837582528</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.01516784545718256</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.01271486337444807</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.01295486100852172</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,31 +4313,31 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0002456546548237992</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0003430851716616884</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0002260204603249416</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0001090607382890058</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0002028675086393224</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001523538083140615</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>3.954486993947624E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -4346,34 +4346,34 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0002939519818822559</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0006081433281405472</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0007108631786044104</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0004185862344170112</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0008712746549284509</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0005044919141439319</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0001858778999197417</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0001955807041855043</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.000212881978683826</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>4.806542883821901E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -4382,46 +4382,46 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0006078514548455288</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.0004673440659214654</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.000745146971372668</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.001121462963513517</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0003865928898559175</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0002424156969092324</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0002659153006779823</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>1.259213210834821E-07</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>3.872183688067204E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0001417878228377634</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0002644814395631841</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>1.231391805810955E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
@@ -4430,37 +4430,37 @@
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>6.776190787259866E-06</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0006942020906752974</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.001701568708949764</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.001275814354076774</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0008395682102184107</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.001188407038665665</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.0008736744378691366</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0005107584535399424</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0004478355040610987</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0001654031630031429</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <v>0</v>
@@ -4475,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>1.544876284885735E-05</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0002952327905768659</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0001802952242627513</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -4493,31 +4493,31 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1.544876284885735E-05</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.0007957599683805966</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.001479418540175756</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.0008003666841608452</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.0003771661066656103</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.0002039776603401974</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0001600479692291829</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0002202078616444003</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>8.005773009029349E-05</v>
+        <v>0</v>
       </c>
       <c r="BS5">
         <v>0</v>
@@ -4526,46 +4526,46 @@
         <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.0002444635504464089</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.0006040763981625378</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.0005380907492180812</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0009387948493726608</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.001192106227537457</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.00095541364783425</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.001025830220053835</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.000743235993901276</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.0001104642927961797</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>4.806542883821901E-05</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0001775863787512656</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>6.578487779815917E-05</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.000180059608621057</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.0004615746075624054</v>
+        <v>0</v>
       </c>
       <c r="CI5">
         <v>0</v>
@@ -4574,343 +4574,343 @@
         <v>0</v>
       </c>
       <c r="CK5">
-        <v>4.231032762676816E-05</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0004051715291161645</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0009912380433721002</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.0009409226933110436</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.001399480101836128</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.1800100983105194</v>
+        <v>0.6763773250873828</v>
       </c>
       <c r="CQ5">
-        <v>0.007420627442890126</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.08938652455292069</v>
+        <v>0.2669048944064162</v>
       </c>
       <c r="CS5">
         <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.02131619731459702</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.0119851058197737</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.01039115551997542</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.001435645649294027</v>
+        <v>0</v>
       </c>
       <c r="CX5">
         <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.01610463072740484</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>6.456563446489309E-05</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.01426944712395087</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.03525499725261928</v>
+        <v>0.02231767343214972</v>
       </c>
       <c r="DC5">
-        <v>0.0147802512197281</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.0226144181276916</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.009661474308272331</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.002593416809983082</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.01773776386486126</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>1.075138047608018E-05</v>
+        <v>0</v>
       </c>
       <c r="DI5">
         <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.01601678410799217</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.001000109107506895</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.001466118882485002</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.005121888879417195</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.0006081433281405472</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.002513394704337647</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.00526055275143363</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
         <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.0008526366686046776</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.0008447386167454151</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0001446246813529777</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>3.802409611877584E-06</v>
+        <v>0</v>
       </c>
       <c r="DV5">
         <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.01824703541059385</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.01730127882349593</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.0008057566008796368</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.003214525511501276</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.00406064608727009</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>3.027348509526839E-06</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.03532073483711831</v>
+        <v>0.02261470131789514</v>
       </c>
       <c r="ED5">
-        <v>0.007344216098080198</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.0001842087371688763</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.004168434596308557</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.01707557157871944</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.002456232714807503</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.00837529155929243</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.000250511471021445</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.0005946344515392046</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.002248648760615073</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.01402115071952765</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.007314141854619947</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.001565682267351308</v>
+        <v>0</v>
       </c>
       <c r="EP5">
         <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.01039230012113236</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0249742149840666</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.01516336644661755</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.03292401800944322</v>
+        <v>0.01178540575615608</v>
       </c>
       <c r="EU5">
-        <v>0.01454013719419489</v>
+        <v>0</v>
       </c>
       <c r="EV5">
         <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.0006824099030958677</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0001971028312691656</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.003681544865216654</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
         <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.0007876743437405895</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.01465227468116902</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.02312129917897254</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.005619122563619378</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.003686330513558294</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.0004264408319491653</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.000287014321298158</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.00150412247707509</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.002064886691386173</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.01513125380017658</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.00693313006026367</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.002145040172934312</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.00662626512368507</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.01355232208564722</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.002980922240708277</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.0001138442797541802</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.001291695138022484</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.0007755066864648301</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>1.553841652000804E-06</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>4.510964930156331E-05</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.003477755415797669</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.001385961957004178</v>
+        <v>0</v>
       </c>
       <c r="FW5">
         <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0005001254430560742</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0003502375513194562</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0001379992639128061</v>
+        <v>0</v>
       </c>
       <c r="GA5">
         <v>0</v>
       </c>
       <c r="GB5">
-        <v>0.0008161440488338805</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.0009637739970103486</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.01094528327600331</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.01034708229790517</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.001549322270301751</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.001545132523606681</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.002227917805235955</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.001206956971734064</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.007277118869215725</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.00292427592945158</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.002426219449214196</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.009330485028406783</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.01079164538725859</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.01971633054103091</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.008632175004696102</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.007944483435789091</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.01431936692821389</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.01040713840639602</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,43 +5086,43 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0002356447935215686</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0004741146766643482</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0005901624849047679</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.001257305426437902</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0009553717316757734</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.001339923743830589</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0009082781379187168</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0004056146865696987</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0007819528206894488</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0006627862544680251</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>4.565229023787171E-05</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0004075078235493583</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -5134,34 +5134,34 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.000630629621047368</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.001127663683834304</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.00063573331725707</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0005810932990712214</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.000274117687606019</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0002572704795600407</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.000409543044038457</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0002423342884788139</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>9.340389863232831E-06</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -5194,25 +5194,25 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0006044518675252975</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0006023009676907907</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0007764522303920687</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.001471978140934167</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.000362190814217979</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0002372829432022063</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>2.738267740113701E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>8.124706807090531E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>2.705626371980933E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
         <v>0</v>
@@ -5284,16 +5284,16 @@
         <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0001738199112333696</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0004629063169400065</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0007352723689367556</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>8.035670718537329E-06</v>
+        <v>0</v>
       </c>
       <c r="BT6">
         <v>0</v>
@@ -5359,67 +5359,67 @@
         <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.09694937498393384</v>
+        <v>0.4355321024622573</v>
       </c>
       <c r="CP6">
-        <v>0.05033880070786113</v>
+        <v>0.1281074557244465</v>
       </c>
       <c r="CQ6">
-        <v>0.03678562647348769</v>
+        <v>0.03871615630599795</v>
       </c>
       <c r="CR6">
-        <v>0.001170410777959617</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.04110694859133984</v>
+        <v>0.06721786318590982</v>
       </c>
       <c r="CT6">
-        <v>0.0008401755616787539</v>
+        <v>0</v>
       </c>
       <c r="CU6">
         <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.01821235327598875</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.0004655359221893266</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.01211639274013914</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.02220627831333316</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.01481365294235153</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.02125296428726727</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.03498249234901713</v>
+        <v>0.02682340707804404</v>
       </c>
       <c r="DC6">
-        <v>0.0008670097809325391</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.07023158354004896</v>
+        <v>0.2593122698637288</v>
       </c>
       <c r="DE6">
-        <v>0.01129050011597001</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.01540554178139828</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.0001310505710800931</v>
+        <v>0</v>
       </c>
       <c r="DH6">
         <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.000969850673324297</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
         <v>0</v>
@@ -5428,142 +5428,142 @@
         <v>0</v>
       </c>
       <c r="DL6">
-        <v>9.625587060321778E-05</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0001041938459148406</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.001398852952137825</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.004409565613694149</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.004359919028344822</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.004620972320215907</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.001339923743830589</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>6.446579766762375E-05</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0007306625657338548</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.001276324948719137</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.007364939513484441</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.009225382108776383</v>
+        <v>0</v>
       </c>
       <c r="DX6">
         <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.0002445334850637489</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.00241768121869483</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.006590397686732054</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.009839556478078869</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.0002030249957196519</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.0004197001126160995</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.005175681601425412</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.003294329714962791</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.003232330970610254</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.004648525169335622</v>
+        <v>0</v>
       </c>
       <c r="EI6">
         <v>0</v>
       </c>
       <c r="EJ6">
-        <v>4.565229023787171E-05</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.0108085206887702</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.01750695355949329</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.01094424225002543</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.001053403115984631</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>0.002331339082546562</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.01025591687975866</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.02294970626323731</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.02754007537769081</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.03763082480365292</v>
+        <v>0.04429074537961551</v>
       </c>
       <c r="ET6">
-        <v>0.01906541256239029</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.005355749579891061</v>
+        <v>0</v>
       </c>
       <c r="EV6">
         <v>0</v>
       </c>
       <c r="EW6">
-        <v>5.443127975524142E-05</v>
+        <v>0</v>
       </c>
       <c r="EX6">
         <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.002197027961045552</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
         <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.01875375506643345</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.01191208064537638</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.001438948298939257</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.001560365040493808</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.001260359785286555</v>
+        <v>0</v>
       </c>
       <c r="FF6">
         <v>0</v>
@@ -5572,118 +5572,118 @@
         <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.005399497745274714</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.004030934163579569</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.002217553144396961</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.001619998221237335</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.01186661298677527</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.01261532644738868</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.007377660914970478</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.005147079758529176</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.004185358085287459</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.0001024214196252312</v>
+        <v>0</v>
       </c>
       <c r="FR6">
         <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.000635572553321346</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.00431053731626302</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.001820994098532568</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.001902751473852402</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.002079191686505641</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.005040104847258742</v>
+        <v>0</v>
       </c>
       <c r="FY6">
         <v>0</v>
       </c>
       <c r="FZ6">
-        <v>6.624357755742038E-05</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.004294135548543312</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.008999320883310636</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.01468814168421095</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.006510271028424636</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.002614545364086225</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.002278411935746492</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.002318981933780071</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.003119533213497182</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.001802179780266282</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
         <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.002604418119739529</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.01061534044402813</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.01615907816008342</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.02825743909118755</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.02243960796064554</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.01993578840644647</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.01434371807603931</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.01471550637767359</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.01229792032831802</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6648,769 +6648,769 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002189412483846313</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0006425062873002229</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.001429218316115825</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.002573313924999654</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.003849679169117004</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.005014804826454394</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.006060535177789419</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006925085619285818</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.008004147479984078</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.008788237951365222</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.009291549896451607</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.009394352093679578</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.009407574751626147</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.009407574751626147</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.009407574751626147</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.009407574751626147</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.009518587447099033</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.00983951335684209</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.01030001450378932</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.01090041017541483</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.01142183649278627</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.01198956996828998</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.01262902206574334</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01325742167205754</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.01384480197282085</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0141951717532018</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01440364231221111</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.01448300280419607</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.01450101739385792</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.01450101739385792</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.01450101739385792</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0145549965519986</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.01482833751920688</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.01516128331017375</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.01573250747540219</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.01627917514853986</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.01706326561992101</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.01798637072730185</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.01873932794057363</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.01950604801312329</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.02024705988452512</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.02082280311264463</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.02119364051732871</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.02129898933984782</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.02131877234219207</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.02131877234219207</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.02131877234219207</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.02137344169587337</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.02165509185219651</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.02212036532059339</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.02282970352608828</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.02368726909331617</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0246401973951674</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.02571859795955784</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.02684428846145485</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.02801507119346688</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.02906617117816335</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0297589510417869</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.03027033662316988</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.03044067714525919</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.03049242718695159</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.03049242718695159</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.03054846980308898</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.03083815197009738</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0315102103667108</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.03238393247233454</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.03345994336607382</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.03474737026641774</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.03625736295543348</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.03754922757096398</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.03854933764214714</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.03942305974777088</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.04018977982032054</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0408408947433062</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.04099049442077197</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.04102692389082815</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.04102692389082815</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.04102692389082815</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.04104044329114093</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.04116555697718841</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.04147106475243607</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.04215891324509286</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.04305609309989836</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0441172650120951</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0450331619292916</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.04580191356936236</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.04668332954430312</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.04727070984506643</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.04781616299304785</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.0481965113815959</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.05641084931470889</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.1890806316809145</v>
+        <v>0.4566087224531029</v>
       </c>
       <c r="CQ2">
-        <v>0.277215880508862</v>
+        <v>0.7148169700262077</v>
       </c>
       <c r="CR2">
-        <v>0.3170895918482938</v>
+        <v>0.7580210130995689</v>
       </c>
       <c r="CS2">
-        <v>0.3177431073594634</v>
+        <v>0.7580210130995689</v>
       </c>
       <c r="CT2">
-        <v>0.3591701539726225</v>
+        <v>0.8081451344014495</v>
       </c>
       <c r="CU2">
-        <v>0.3623675142888416</v>
+        <v>0.8081451344014495</v>
       </c>
       <c r="CV2">
-        <v>0.376548316076296</v>
+        <v>0.8081451344014495</v>
       </c>
       <c r="CW2">
-        <v>0.38421526312023</v>
+        <v>0.8081451344014495</v>
       </c>
       <c r="CX2">
-        <v>0.3883822783048476</v>
+        <v>0.8081451344014495</v>
       </c>
       <c r="CY2">
-        <v>0.3887670001623266</v>
+        <v>0.8081451344014495</v>
       </c>
       <c r="CZ2">
-        <v>0.3887670001623266</v>
+        <v>0.8081451344014495</v>
       </c>
       <c r="DA2">
-        <v>0.43641332906278</v>
+        <v>0.8859760365131465</v>
       </c>
       <c r="DB2">
-        <v>0.43641332906278</v>
+        <v>0.8859760365131465</v>
       </c>
       <c r="DC2">
-        <v>0.4895159114723305</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DD2">
-        <v>0.4900489241723622</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DE2">
-        <v>0.4993122406040786</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DF2">
-        <v>0.5089151829467663</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DG2">
-        <v>0.5150575471069436</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DH2">
-        <v>0.5152920353146954</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DI2">
-        <v>0.5152920353146954</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DJ2">
-        <v>0.5177754073219213</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DK2">
-        <v>0.5234630343895608</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DL2">
-        <v>0.5276636748699154</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DM2">
-        <v>0.5299659859422233</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DN2">
-        <v>0.5299659859422233</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DO2">
-        <v>0.5300032094261032</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DP2">
-        <v>0.5315736758798089</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DQ2">
-        <v>0.5315736758798089</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DR2">
-        <v>0.5319521568868305</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DS2">
-        <v>0.5328586721385394</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DT2">
-        <v>0.5328586721385394</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DU2">
-        <v>0.5331041626006654</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DV2">
-        <v>0.5331041626006654</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DW2">
-        <v>0.5594763002259303</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DX2">
-        <v>0.568613808207615</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DY2">
-        <v>0.5723758404371349</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="DZ2">
-        <v>0.5740366784799983</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="EA2">
-        <v>0.5755808177668663</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="EB2">
-        <v>0.5969770541863328</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="EC2">
-        <v>0.629820771834021</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ED2">
-        <v>0.6338617201332847</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EE2">
-        <v>0.633881503135629</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EF2">
-        <v>0.6400943033090932</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EG2">
-        <v>0.6502069796139098</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EH2">
-        <v>0.6506823142534187</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EI2">
-        <v>0.6546458647994192</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EJ2">
-        <v>0.6546458647994192</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EK2">
-        <v>0.6548536896226262</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EL2">
-        <v>0.6690344914100806</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EM2">
-        <v>0.6909613884055716</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EN2">
-        <v>0.699612741878613</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EO2">
-        <v>0.7012180115935774</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EP2">
-        <v>0.7013244587863592</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EQ2">
-        <v>0.7167420891213792</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ER2">
-        <v>0.7310744703761123</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ES2">
-        <v>0.7424367962793602</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ET2">
-        <v>0.7687973123723438</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU2">
-        <v>0.7717086541796433</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV2">
-        <v>0.7737728689708551</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW2">
-        <v>0.7762797607074254</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX2">
-        <v>0.7771639488393086</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY2">
-        <v>0.7795554598803131</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ2">
-        <v>0.7814846314391209</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.7821209164449362</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.8090549907588404</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.8158814172032738</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.8178449679114379</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.8182700723123939</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.8203829317618915</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.8222531383711157</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.8225933672844102</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.8452509765569882</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.8596674066991411</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.8658265335020671</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.8659072210825962</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.8802080542935492</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.8926829462733632</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.8927181532718302</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.8953698746405813</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.8961762485112997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.8963245969529019</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.8968968365292445</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.8972049755205187</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.9002331815589635</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.9002331815589635</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9002331815589635</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.900288042271613</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.900288042271613</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9041794194663263</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9042329155377448</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9043095296357474</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9060285819974632</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.916721751775067</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9200414566418484</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.9203057226718521</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9225460775517584</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9239815222254076</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9284532236912942</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.9381941429000829</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9387904280904289</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9421496741658052</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9472213882228061</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9579851483094541</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9720717350125179</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.9770352288251104</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.984286695766676</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.9923907938125448</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>0.000249819066914917</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0008723765229105512</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.001451442171779451</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.00153391691571794</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.001688128848922593</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001951371813488922</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001951371813488922</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.002138118760060744</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.00248650719741401</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.002669235744661047</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.003230670902511128</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.003561240247654829</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.003567572123704752</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.003567572123704752</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.003567572123704752</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.003567572123704752</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.003661574666292359</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.003847459344383868</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.004271086007204155</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.004484551683122804</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.004806274676640256</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.004923001296164363</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.004923001296164363</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.004923001296164363</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.004923001296164363</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.004923001296164363</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.004923001296164363</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.004923001296164363</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.004923001296164363</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.004923001296164363</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.004923001296164363</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.004923001296164363</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.004923001296164363</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.004923001296164363</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.005028956374326312</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.005051905217385866</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.00511841813636455</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.005439239133923278</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.006070019353475113</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.006953223370079061</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.007716256497585536</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.007716256497585536</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.007716256497585536</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.007716256497585536</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.007716256497585536</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.007716256497585536</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.007716256497585536</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.007828414172088646</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.007968299234527661</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.008053344497982043</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.008213244636585248</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.008336014871285945</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.008355678313970967</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.008355678313970967</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.008355678313970967</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.008355678313970967</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.008355678313970967</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.008355678313970967</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.008355678313970967</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.008355678313970967</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.008355678313970967</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.008355678313970967</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.008364576271622208</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.008476084015571506</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.009001762966939384</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.009157118467264724</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.009279223706930944</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.009369267507572953</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.009369267507572953</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.009369267507572953</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.009369267507572953</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.009369267507572953</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.009369267507572953</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.00940074696906561</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.00940074696906561</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.00940074696906561</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.00940074696906561</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.00940074696906561</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.00940074696906561</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.00940074696906561</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.00940074696906561</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.00940074696906561</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.00940074696906561</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.009422608909844938</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.009422608909844938</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.009422608909844938</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.009422608909844938</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.009422608909844938</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.009422608909844938</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.009422608909844938</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.009708764908793122</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.1531153506112938</v>
+        <v>0.6732706409278281</v>
       </c>
       <c r="CP3">
-        <v>0.178663204781531</v>
+        <v>0.6732706409278281</v>
       </c>
       <c r="CQ3">
-        <v>0.2522261860804815</v>
+        <v>0.930346914848161</v>
       </c>
       <c r="CR3">
-        <v>0.2525044759267385</v>
+        <v>0.930346914848161</v>
       </c>
       <c r="CS3">
-        <v>0.2754634563435542</v>
+        <v>0.930346914848161</v>
       </c>
       <c r="CT3">
-        <v>0.2851483553692057</v>
+        <v>0.930346914848161</v>
       </c>
       <c r="CU3">
-        <v>0.3002240024617783</v>
+        <v>0.930346914848161</v>
       </c>
       <c r="CV3">
-        <v>0.3008899848101061</v>
+        <v>0.930346914848161</v>
       </c>
       <c r="CW3">
-        <v>0.3010116828609314</v>
+        <v>0.930346914848161</v>
       </c>
       <c r="CX3">
-        <v>0.3161532675925378</v>
+        <v>0.930346914848161</v>
       </c>
       <c r="CY3">
-        <v>0.3162298733165949</v>
+        <v>0.930346914848161</v>
       </c>
       <c r="CZ3">
-        <v>0.3494426187162907</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DA3">
-        <v>0.3755174620100297</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DB3">
-        <v>0.4005726465901905</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DC3">
-        <v>0.4052860003132403</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DD3">
-        <v>0.4258767639572252</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DE3">
-        <v>0.4281281815160209</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DF3">
-        <v>0.4368817678821225</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DG3">
-        <v>0.4368817678821225</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DH3">
-        <v>0.4368817678821225</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DI3">
-        <v>0.4421511143325902</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DJ3">
-        <v>0.4421511143325902</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DK3">
-        <v>0.4423700719277958</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DL3">
-        <v>0.4435051077480764</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DM3">
-        <v>0.4442387952367047</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DN3">
-        <v>0.4468244821195982</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DO3">
-        <v>0.4527828887052649</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DP3">
-        <v>0.4552811563050525</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DQ3">
-        <v>0.4564477133296874</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DR3">
-        <v>0.4564477133296874</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DS3">
-        <v>0.4575300471840069</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DT3">
-        <v>0.4585780670014006</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DU3">
-        <v>0.4602281654569101</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DV3">
-        <v>0.4721048812761168</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DW3">
-        <v>0.48675399999171</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DX3">
-        <v>0.4868274083408174</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DY3">
-        <v>0.4885624434937334</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="DZ3">
-        <v>0.4917759852572496</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EA3">
-        <v>0.4917759852572496</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EB3">
-        <v>0.5168311698374104</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EC3">
-        <v>0.5180337353476852</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="ED3">
-        <v>0.5183997119530095</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EE3">
-        <v>0.5274864686486291</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EF3">
-        <v>0.5481542036458671</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EG3">
-        <v>0.5520835135455759</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EH3">
-        <v>0.5533397371073991</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EI3">
-        <v>0.5539347157234527</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EJ3">
-        <v>0.5539347157234527</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EK3">
-        <v>0.5611248522671775</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EL3">
-        <v>0.5812171342815848</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EM3">
-        <v>0.5911610141230735</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EN3">
-        <v>0.5926508189720306</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EO3">
-        <v>0.5926765039624639</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EP3">
-        <v>0.609287238938944</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="EQ3">
-        <v>0.6378480971371189</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="ER3">
-        <v>0.656209209747924</v>
+        <v>0.9469782542307255</v>
       </c>
       <c r="ES3">
-        <v>0.6955288065354284</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.718332751053019</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.7196941446401659</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.7196941446401659</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.7199896548469555</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.7200621092480034</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.7217024609845204</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.7229278916282</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.736545434404562</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.750944352453659</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.7550619776243429</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.7584287111096466</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.7586105831699167</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.7586907826276242</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.7608215624002088</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.7625937544000545</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.7705186742206956</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.7723683474250355</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.7723683474250355</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.7893351232591512</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.8116800856226252</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.816661609800081</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.8187923895726655</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.8208543434991963</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.8209400915817461</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.8209400915817461</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.8209400915817461</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.8264734464148999</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.8297073128093007</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.830719177465942</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.8339490114653011</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.8366027345304577</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.8366027345304577</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.836888890529406</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.8387726923147001</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.8425442024919164</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.8564495185817281</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.8667013220063661</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.8685273824515544</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.8700689133324141</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.8716772922355178</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.8730655855904259</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.8783178965561464</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.8793142197580895</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.8823440505870025</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.8902166803737992</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.904420312877788</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9280113195095661</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9422706132338841</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.957024379196607</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9753787290770363</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9885319357014223</v>
+        <v>1</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>8.982703996996192E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0001650367421730765</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0001650367421730765</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0001650367421730765</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0001650367421730765</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0001827649609613843</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0003789036768181668</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.00067442002809567</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0009429204165729292</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.001108202000682719</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.001427190139680316</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.001520873232483068</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.001554681167045813</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.001554681167045813</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.001642754855070089</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.001642754855070089</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.001642754855070089</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.001666745300963658</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001666745300963658</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.001923912454981682</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.00211119902989889</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.002395688634089448</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.002473799843275479</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.002540686335610867</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.002631268692570698</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.002631268692570698</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.002631268692570698</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.002648996911359006</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.002709033018713189</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.002709033018713189</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.002709033018713189</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.002757643309814288</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.002757643309814288</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.002757643309814288</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.002757643309814288</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.002757643309814288</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.002757643309814288</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.002768693521146443</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.002831766192670014</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.002982852672735248</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.003077759180743864</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.003286012877004153</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.003455079232200612</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.003455079232200612</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.003477881514567872</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.003477881514567872</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.00352731227988699</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.00352731227988699</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.00352731227988699</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.00352731227988699</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.00352731227988699</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.00352731227988699</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.003574699618389495</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.003574699618389495</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.003578586400412952</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.003605204010082656</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.003605204010082656</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.00410280622351706</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.004688642024172548</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.004920457786967115</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.005094467301964794</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.005463289155314697</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.005524641390405428</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.005589100787557445</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.005589100787557445</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.005589100787557445</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.005725107708763488</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.005803644798223892</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.006061113954335035</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.006483452328447853</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.006899506605193942</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.00729039378942981</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.007360247197393257</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.007360247197393257</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.007360247197393257</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.007375906023017817</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.007375906023017817</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.007711187662688137</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.007953373793195235</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.007953373793195235</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.007953373793195235</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.007998743580718143</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.008066816141773446</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.008074490824522313</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.008245245766646821</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.008460328672543418</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.008615198958254064</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.009026075442803509</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.009665632548391813</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.01036545170274708</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.0110390410450721</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.03276494793893951</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.06148815684292162</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.182716032906356</v>
+        <v>0.5947190774012194</v>
       </c>
       <c r="CR4">
-        <v>0.1955989715582557</v>
+        <v>0.5947190774012194</v>
       </c>
       <c r="CS4">
-        <v>0.2048553367300804</v>
+        <v>0.5947190774012194</v>
       </c>
       <c r="CT4">
-        <v>0.2204815958206505</v>
+        <v>0.5947190774012194</v>
       </c>
       <c r="CU4">
-        <v>0.2206804173670229</v>
+        <v>0.5947190774012194</v>
       </c>
       <c r="CV4">
-        <v>0.2369589376216471</v>
+        <v>0.5947190774012194</v>
       </c>
       <c r="CW4">
-        <v>0.2381403383445879</v>
+        <v>0.5947190774012194</v>
       </c>
       <c r="CX4">
-        <v>0.2507449905655731</v>
+        <v>0.5947190774012194</v>
       </c>
       <c r="CY4">
-        <v>0.2554840205971105</v>
+        <v>0.5947190774012194</v>
       </c>
       <c r="CZ4">
-        <v>0.2647728185611532</v>
+        <v>0.5947190774012194</v>
       </c>
       <c r="DA4">
-        <v>0.3403528620310789</v>
+        <v>0.8914075725305384</v>
       </c>
       <c r="DB4">
-        <v>0.3437466215766328</v>
+        <v>0.8914075725305384</v>
       </c>
       <c r="DC4">
-        <v>0.3718796270760088</v>
+        <v>0.8914075725305384</v>
       </c>
       <c r="DD4">
-        <v>0.41182583112706</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DE4">
-        <v>0.4158201301315413</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DF4">
-        <v>0.4250699172291365</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DG4">
-        <v>0.4263981733335402</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DH4">
-        <v>0.4264791181832114</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DI4">
-        <v>0.4265080272304942</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DJ4">
-        <v>0.4271834309989812</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DK4">
-        <v>0.4271834309989812</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DL4">
-        <v>0.4278739112389265</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DM4">
-        <v>0.4282738410476733</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DN4">
-        <v>0.4319932519744638</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DO4">
-        <v>0.4361203155441325</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DP4">
-        <v>0.4431614817864137</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DQ4">
-        <v>0.4486748342229265</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DR4">
-        <v>0.4495475479262968</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DS4">
-        <v>0.4495724326543925</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DT4">
-        <v>0.4510692442427063</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DU4">
-        <v>0.4538235284857164</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DV4">
-        <v>0.4540178759359448</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DW4">
-        <v>0.4740820874634357</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DX4">
-        <v>0.4779517701263695</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DY4">
-        <v>0.4837152341997882</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="DZ4">
-        <v>0.4839638650529511</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EA4">
-        <v>0.4847725834266681</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EB4">
-        <v>0.5101003143117273</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EC4">
-        <v>0.5159979073400761</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="ED4">
-        <v>0.5159979073400761</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EE4">
-        <v>0.5202801290860156</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EF4">
-        <v>0.5334066686803461</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EG4">
-        <v>0.5475679772646443</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EH4">
-        <v>0.548252354196155</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EI4">
-        <v>0.548252354196155</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EJ4">
-        <v>0.5483874769039068</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EK4">
-        <v>0.5510285811610228</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EL4">
-        <v>0.5729327105222173</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EM4">
-        <v>0.5919938416576566</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EN4">
-        <v>0.5987224100890265</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EO4">
-        <v>0.5987409102112866</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EP4">
-        <v>0.6025952877138642</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="EQ4">
-        <v>0.6256884535211709</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="ER4">
-        <v>0.6457824157243885</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="ES4">
-        <v>0.6752871483200201</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="ET4">
-        <v>0.7122490386870313</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.7192844660850088</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.7200202841503376</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.7203120138800994</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.7204082631559892</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.7208513119546942</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.7267664367928643</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.7295096597943759</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.7501913182719362</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.7541037508748513</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.7552441160200091</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.7560989735956926</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.7563702422160099</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.7565714910224952</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.7565714910224952</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.7686929429114945</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.7734622241397101</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.7736255917968685</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.7813178267826848</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.8008406852274917</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.81313272756955</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.8139923347541761</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.8190605795502885</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.8193219341649641</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.8193685113725437</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.8200329310744926</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.8227037833925986</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.8249308506242592</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.8249308506242592</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.825509355306505</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.8265359361598822</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.8268111813623392</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.8269789585417009</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.8281500777175248</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.8319114095116174</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.843343175308513</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.8623076718081621</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.8685230022141791</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.8710699287829367</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.8760238190735261</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.8787817074294277</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.8865585922040667</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.8918323208132926</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.8921377051810153</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.8990679130585277</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9083501223888273</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9278952563792973</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9471865617840231</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9591624301598484</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9743302756170309</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9870451389914789</v>
+        <v>1</v>
       </c>
       <c r="GS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GX4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GY4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="GZ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HA4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HB4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HC4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HD4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HE4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HF4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HG4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HH4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HI4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HJ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HK4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HL4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HM4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HN4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HO4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HP4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HQ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HR4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HX4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HY4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="HZ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IA4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IB4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IC4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="ID4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IE4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IF4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IG4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IH4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="II4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IJ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IK4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IL4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IM4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IN4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IO4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IP4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IQ4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IR4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IS4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IT4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IU4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IV4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="IW4">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0002456546548237992</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0005887398264854876</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0008147602868104292</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0008147602868104292</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.000923821025099435</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.001126688533738757</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.001279042342052819</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001279042342052819</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.001318587211992295</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.001318587211992295</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.001318587211992295</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.001612539193874551</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.002220682522015098</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.002931545700619508</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.00335013193503652</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.004221406589964971</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.004725898504108902</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.004911776404028644</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.005107357108214148</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.005320239086897973</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.005368304515736192</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.005368304515736192</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.005368304515736192</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.005976155970581721</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.006443500036503186</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.007188647007875854</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.008310109971389371</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.008696702861245289</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.008939118558154522</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.009205033858832505</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.009205033858832505</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.009205159780153589</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.009243881617034261</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.009243881617034261</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.009385669439872025</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.00965015087943521</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.00966246479749332</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.00966246479749332</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.00966246479749332</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.00966924098828058</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.00966924098828058</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.01036344307895588</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.01206501178790564</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.01334082614198241</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.01418039435220082</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.01536880139086649</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.01624247582873563</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.01675323428227557</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.01720106978633667</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.01736647294933981</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.01736647294933981</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.01736647294933981</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.01736647294933981</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.01736647294933981</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.01738192171218867</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.01767715450276554</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.01785744972702829</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.01785744972702829</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.01785744972702829</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.01785744972702829</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.01787289848987715</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.01866865845825775</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0201480769984335</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.02094844368259435</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.02132560978925996</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.02152958744960016</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.02168963541882934</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.02190984328047374</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.02198990101056403</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.02198990101056403</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.02198990101056403</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.02223436456101044</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.02283844095917298</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.02337653170839106</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.02431532655776372</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.02550743278530118</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.02646284643313543</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.02748867665318926</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.02823191264709054</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.02834237693988672</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.02839044236872494</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0285680287474762</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.02863381362527436</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.02881387323389542</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.02927544784145783</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.02927544784145783</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.02927544784145783</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0293177581690846</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.02972292969820076</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.03071416774157286</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.0316550904348839</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.03305457053672003</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.2130646688472394</v>
+        <v>0.6763773250873828</v>
       </c>
       <c r="CQ5">
-        <v>0.2204852962901295</v>
+        <v>0.6763773250873828</v>
       </c>
       <c r="CR5">
-        <v>0.3098718208430502</v>
+        <v>0.943282219493799</v>
       </c>
       <c r="CS5">
-        <v>0.3098718208430502</v>
+        <v>0.943282219493799</v>
       </c>
       <c r="CT5">
-        <v>0.3311880181576472</v>
+        <v>0.943282219493799</v>
       </c>
       <c r="CU5">
-        <v>0.3431731239774209</v>
+        <v>0.943282219493799</v>
       </c>
       <c r="CV5">
-        <v>0.3535642794973963</v>
+        <v>0.943282219493799</v>
       </c>
       <c r="CW5">
-        <v>0.3549999251466904</v>
+        <v>0.943282219493799</v>
       </c>
       <c r="CX5">
-        <v>0.3549999251466904</v>
+        <v>0.943282219493799</v>
       </c>
       <c r="CY5">
-        <v>0.3711045558740952</v>
+        <v>0.943282219493799</v>
       </c>
       <c r="CZ5">
-        <v>0.3711691215085601</v>
+        <v>0.943282219493799</v>
       </c>
       <c r="DA5">
-        <v>0.3854385686325109</v>
+        <v>0.943282219493799</v>
       </c>
       <c r="DB5">
-        <v>0.4206935658851302</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DC5">
-        <v>0.4354738171048583</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DD5">
-        <v>0.4580882352325499</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DE5">
-        <v>0.4677497095408222</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DF5">
-        <v>0.4703431263508053</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DG5">
-        <v>0.4880808902156666</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DH5">
-        <v>0.4880916415961427</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DI5">
-        <v>0.4880916415961427</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DJ5">
-        <v>0.5041084257041348</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DK5">
-        <v>0.5051085348116418</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DL5">
-        <v>0.5065746536941268</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DM5">
-        <v>0.511696542573544</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DN5">
-        <v>0.5123046859016845</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DO5">
-        <v>0.5148180806060222</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DP5">
-        <v>0.5200786333574559</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DQ5">
-        <v>0.5200786333574559</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DR5">
-        <v>0.5209312700260605</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DS5">
-        <v>0.5217760086428059</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DT5">
-        <v>0.5219206333241589</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DU5">
-        <v>0.5219244357337708</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DV5">
-        <v>0.5219244357337708</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DW5">
-        <v>0.5401714711443646</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DX5">
-        <v>0.5574727499678606</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DY5">
-        <v>0.5582785065687402</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="DZ5">
-        <v>0.5614930320802415</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="EA5">
-        <v>0.5655536781675116</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="EB5">
-        <v>0.5655567055160211</v>
+        <v>0.9655998929259487</v>
       </c>
       <c r="EC5">
-        <v>0.6008774403531394</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="ED5">
-        <v>0.6082216564512196</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="EE5">
-        <v>0.6084058651883885</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="EF5">
-        <v>0.612574299784697</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="EG5">
-        <v>0.6296498713634164</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="EH5">
-        <v>0.632106104078224</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="EI5">
-        <v>0.6404813956375164</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="EJ5">
-        <v>0.6407319071085378</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="EK5">
-        <v>0.641326541560077</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="EL5">
-        <v>0.643575190320692</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="EM5">
-        <v>0.6575963410402197</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="EN5">
-        <v>0.6649104828948397</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="EO5">
-        <v>0.666476165162191</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="EP5">
-        <v>0.666476165162191</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="EQ5">
-        <v>0.6768684652833233</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="ER5">
-        <v>0.7018426802673899</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="ES5">
-        <v>0.7170060467140075</v>
+        <v>0.9882145942438438</v>
       </c>
       <c r="ET5">
-        <v>0.7499300647234507</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EU5">
-        <v>0.7644702019176456</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EV5">
-        <v>0.7644702019176456</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EW5">
-        <v>0.7651526118207415</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EX5">
-        <v>0.7653497146520106</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EY5">
-        <v>0.7690312595172273</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="EZ5">
-        <v>0.7690312595172273</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA5">
-        <v>0.7698189338609679</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB5">
-        <v>0.7844712085421369</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC5">
-        <v>0.8075925077211095</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD5">
-        <v>0.8132116302847289</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE5">
-        <v>0.8168979607982871</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF5">
-        <v>0.8173244016302363</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG5">
-        <v>0.8176114159515345</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH5">
-        <v>0.8191155384286096</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI5">
-        <v>0.8211804251199958</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ5">
-        <v>0.8363116789201723</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK5">
-        <v>0.843244808980436</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL5">
-        <v>0.8453898491533702</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM5">
-        <v>0.8520161142770553</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN5">
-        <v>0.8655684363627024</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO5">
-        <v>0.8685493586034106</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP5">
-        <v>0.8686632028831648</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ5">
-        <v>0.8699548980211873</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR5">
-        <v>0.8707304047076522</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS5">
-        <v>0.8707319585493042</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT5">
-        <v>0.8707770681986058</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU5">
-        <v>0.8742548236144034</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV5">
-        <v>0.8756407855714076</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW5">
-        <v>0.8756407855714076</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX5">
-        <v>0.8761409110144637</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY5">
-        <v>0.8764911485657831</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ5">
-        <v>0.8766291478296959</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA5">
-        <v>0.8766291478296959</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB5">
-        <v>0.8774452918785298</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC5">
-        <v>0.8784090658755401</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD5">
-        <v>0.8893543491515434</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE5">
-        <v>0.8997014314494486</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF5">
-        <v>0.9012507537197504</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG5">
-        <v>0.902795886243357</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH5">
-        <v>0.905023804048593</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI5">
-        <v>0.9062307610203271</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ5">
-        <v>0.9135078798895427</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK5">
-        <v>0.9164321558189943</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL5">
-        <v>0.9188583752682085</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM5">
-        <v>0.9281888602966153</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN5">
-        <v>0.9389805056838739</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO5">
-        <v>0.9586968362249049</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP5">
-        <v>0.967329011229601</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ5">
-        <v>0.9752734946653902</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR5">
-        <v>0.989592861593604</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,601 +9737,601 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0002356447935215686</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0007097594701859168</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001299921955090685</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.002557227381528587</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.00351259911320436</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00485252285703495</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.005760800994953666</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.006166415681523365</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.006948368502212814</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.007611154756680839</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.007611154756680839</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.007656807046918711</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.008064314870468069</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.008064314870468069</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.008064314870468069</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.008064314870468069</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.008694944491515437</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.009822608175349742</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.01045834149260681</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.01103943479167803</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.01131355247928405</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0115708229588441</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.01198036600288255</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.01222270029136137</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.01222270029136137</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0122320406812246</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0122320406812246</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0122320406812246</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0122320406812246</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0122320406812246</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0122320406812246</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0122320406812246</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0122320406812246</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0122320406812246</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0122320406812246</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0122320406812246</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0128364925487499</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.01343879351644069</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.01421524574683275</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.01568722388776692</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0160494147019849</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.01628669764518711</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.01631408032258825</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.01631408032258825</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.01631408032258825</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.01631408032258825</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.01631408032258825</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.01631408032258825</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.01631408032258825</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.01632220502939534</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.01632220502939534</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.01632220502939534</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.01632220502939534</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.01632220502939534</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.01632220502939534</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.01634926129311515</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.01634926129311515</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.01634926129311515</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.01634926129311515</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.01634926129311515</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.01634926129311515</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.01634926129311515</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.01634926129311515</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.01634926129311515</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.01634926129311515</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.01634926129311515</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.01652308120434852</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.01698598752128852</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.01772125989022528</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.1146786705448777</v>
+        <v>0.4355321024622573</v>
       </c>
       <c r="CP6">
-        <v>0.1650174712527388</v>
+        <v>0.5636395581867039</v>
       </c>
       <c r="CQ6">
-        <v>0.2018030977262265</v>
+        <v>0.6023557144927019</v>
       </c>
       <c r="CR6">
-        <v>0.2029735085041861</v>
+        <v>0.6023557144927019</v>
       </c>
       <c r="CS6">
-        <v>0.2440804570955259</v>
+        <v>0.6695735776786117</v>
       </c>
       <c r="CT6">
-        <v>0.2449206326572047</v>
+        <v>0.6695735776786117</v>
       </c>
       <c r="CU6">
-        <v>0.2449206326572047</v>
+        <v>0.6695735776786117</v>
       </c>
       <c r="CV6">
-        <v>0.2631329859331935</v>
+        <v>0.6695735776786117</v>
       </c>
       <c r="CW6">
-        <v>0.2635985218553828</v>
+        <v>0.6695735776786117</v>
       </c>
       <c r="CX6">
-        <v>0.2757149145955219</v>
+        <v>0.6695735776786117</v>
       </c>
       <c r="CY6">
-        <v>0.2979211929088551</v>
+        <v>0.6695735776786117</v>
       </c>
       <c r="CZ6">
-        <v>0.3127348458512066</v>
+        <v>0.6695735776786117</v>
       </c>
       <c r="DA6">
-        <v>0.3339878101384739</v>
+        <v>0.6695735776786117</v>
       </c>
       <c r="DB6">
-        <v>0.368970302487491</v>
+        <v>0.6963969847566558</v>
       </c>
       <c r="DC6">
-        <v>0.3698373122684235</v>
+        <v>0.6963969847566558</v>
       </c>
       <c r="DD6">
-        <v>0.4400688958084725</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DE6">
-        <v>0.4513593959244425</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DF6">
-        <v>0.4667649377058408</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DG6">
-        <v>0.4668959882769209</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DH6">
-        <v>0.4668959882769209</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DI6">
-        <v>0.4678658389502452</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DJ6">
-        <v>0.4678658389502452</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DK6">
-        <v>0.4678658389502452</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DL6">
-        <v>0.4679620948208484</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DM6">
-        <v>0.4680662886667632</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DN6">
-        <v>0.469465141618901</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DO6">
-        <v>0.4738747072325952</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DP6">
-        <v>0.47823462626094</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DQ6">
-        <v>0.4828555985811559</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DR6">
-        <v>0.4841955223249865</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DS6">
-        <v>0.4842599881226541</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DT6">
-        <v>0.4849906506883879</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DU6">
-        <v>0.4862669756371071</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DV6">
-        <v>0.4936319151505915</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DW6">
-        <v>0.5028572972593679</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DX6">
-        <v>0.5028572972593679</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DY6">
-        <v>0.5031018307444316</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="DZ6">
-        <v>0.5055195119631264</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EA6">
-        <v>0.5121099096498585</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EB6">
-        <v>0.5219494661279374</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EC6">
-        <v>0.522152491123657</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="ED6">
-        <v>0.5225721912362731</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EE6">
-        <v>0.5277478728376985</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EF6">
-        <v>0.5310422025526613</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EG6">
-        <v>0.5342745335232716</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EH6">
-        <v>0.5389230586926073</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EI6">
-        <v>0.5389230586926073</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EJ6">
-        <v>0.5389687109828452</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EK6">
-        <v>0.5497772316716154</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EL6">
-        <v>0.5672841852311087</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EM6">
-        <v>0.5782284274811341</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EN6">
-        <v>0.5792818305971188</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EO6">
-        <v>0.5816131696796654</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EP6">
-        <v>0.5918690865594241</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="EQ6">
-        <v>0.6148187928226614</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="ER6">
-        <v>0.6423588682003522</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="ES6">
-        <v>0.679989693004005</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.6990551055663953</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.7044108551462863</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.7044108551462863</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.7044652864260416</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.7044652864260416</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.7066623143870872</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.7066623143870872</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.7254160694535206</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.737328150098897</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.7387670983978362</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.74032746343833</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.7415878232236166</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.7415878232236166</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.7415878232236166</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.7469873209688913</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.7510182551324709</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.7532358082768679</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.7548558064981052</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.7667224194848805</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.7793377459322692</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.7867154068472397</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.7918624866057689</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.7960478446910563</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.7961502661106815</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.7961502661106815</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.7967858386640029</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.801096375980266</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.8029173700787985</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.8048201215526509</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.8068993132391565</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.8119394180864152</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.8119394180864152</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.8120056616639727</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.816299797212516</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.8252991180958267</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.8399872597800376</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.8464975308084622</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.8491120761725485</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.851390488108295</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.8537094700420751</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.8568290032555723</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.8586311830358386</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.8586311830358386</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.8612356011555782</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.8718509415996063</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.8880100197596897</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9162674588508772</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9387070668115228</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9586428552179693</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9729865732940086</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9877020796716822</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.0481965113815959</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5089151829467663</v>
+        <v>0.7148169700262077</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -10611,16 +10611,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="E3">
-        <v>0.009422608909844938</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5168311698374104</v>
+        <v>0.6732706409278281</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -10652,16 +10652,16 @@
         <v>92</v>
       </c>
       <c r="D4">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>0.03276494793893951</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5101003143117273</v>
+        <v>0.5947190774012194</v>
       </c>
       <c r="G4">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -10693,16 +10693,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.0316550904348839</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5041084257041348</v>
+        <v>0.6763773250873828</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -10734,16 +10734,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5028572972593679</v>
+        <v>0.5636395581867039</v>
       </c>
       <c r="G6">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -10829,16 +10829,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="E2">
-        <v>0.0481965113815959</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7012180115935774</v>
+        <v>0.7148169700262077</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -10870,16 +10870,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.009422608909844938</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.718332751053019</v>
+        <v>0.930346914848161</v>
       </c>
       <c r="G3">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -10911,16 +10911,16 @@
         <v>92</v>
       </c>
       <c r="D4">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>0.03276494793893951</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7122490386870313</v>
+        <v>0.8914075725305384</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -10952,16 +10952,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>0.0316550904348839</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7018426802673899</v>
+        <v>0.943282219493799</v>
       </c>
       <c r="G5">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -10993,16 +10993,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7044108551462863</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -11088,16 +11088,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="E2">
-        <v>0.0481965113815959</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8090549907588404</v>
+        <v>0.8081451344014495</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -11129,16 +11129,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.009422608909844938</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8116800856226252</v>
+        <v>0.930346914848161</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -11170,16 +11170,16 @@
         <v>92</v>
       </c>
       <c r="D4">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>0.03276494793893951</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8008406852274917</v>
+        <v>0.8914075725305384</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -11211,16 +11211,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>0.0316550904348839</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8075925077211095</v>
+        <v>0.943282219493799</v>
       </c>
       <c r="G5">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -11252,16 +11252,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>175</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.801096375980266</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="G6">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -11347,16 +11347,16 @@
         <v>91</v>
       </c>
       <c r="D2">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.0481965113815959</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9002331815589635</v>
+        <v>0.9881144411686965</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>16</v>
@@ -11388,16 +11388,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.009422608909844938</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.904420312877788</v>
+        <v>0.930346914848161</v>
       </c>
       <c r="G3">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -11429,16 +11429,16 @@
         <v>92</v>
       </c>
       <c r="D4">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.03276494793893951</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9083501223888273</v>
+        <v>0.9554459437172633</v>
       </c>
       <c r="G4">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -11470,16 +11470,16 @@
         <v>91</v>
       </c>
       <c r="D5">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>0.0316550904348839</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9012507537197504</v>
+        <v>0.943282219493799</v>
       </c>
       <c r="G5">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -11511,16 +11511,16 @@
         <v>90</v>
       </c>
       <c r="D6">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.01772929556094381</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9162674588508772</v>
+        <v>0.9557092546203846</v>
       </c>
       <c r="G6">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>16</v>

--- a/on_trucks/Processed_Stand_Alone/16_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/16_455-55R22.xlsx
@@ -674,31 +674,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00846908235109697</v>
       </c>
       <c r="E2">
-        <v>0.3742569842391381</v>
+        <v>0.3188526872842686</v>
       </c>
       <c r="F2">
-        <v>0.2331717662537217</v>
+        <v>0.2077865211829298</v>
       </c>
       <c r="G2">
-        <v>0.08027941517454835</v>
+        <v>0.08742545499143875</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.08520037489471692</v>
+        <v>0.09129936990231718</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.02334904656840799</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.007103925862645527</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -710,25 +710,25 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.104903035448284</v>
+        <v>0.1068098464846829</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.1221884239895909</v>
+        <v>0.120417380018447</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0110851649931781</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.01193216943766957</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.003301717500967987</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.002167633421949566</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -784,25 +784,25 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4883356517227568</v>
+        <v>0.3767972457842637</v>
       </c>
       <c r="E3">
-        <v>0.04545744414198966</v>
+        <v>0.05730741505477022</v>
       </c>
       <c r="F3">
-        <v>0.2258840715379079</v>
+        <v>0.1874661622207227</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.03572922330792836</v>
+        <v>0.05028953164038577</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01430633411554578</v>
       </c>
       <c r="J3">
-        <v>0.006105991435228701</v>
+        <v>0.02891949993715875</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -811,31 +811,31 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.006353765554360519</v>
+        <v>0.02909824278344373</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.074259835317182</v>
+        <v>0.07808529692760699</v>
       </c>
       <c r="P3">
-        <v>0.04743771319288421</v>
+        <v>0.05873596993292772</v>
       </c>
       <c r="Q3">
-        <v>0.04360613773349654</v>
+        <v>0.05597189309646743</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0008295373899893587</v>
       </c>
       <c r="S3">
-        <v>0.02683016605626523</v>
+        <v>0.04386980213841559</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.01178174454897287</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.002336714839298201</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.004204609590031098</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -894,58 +894,58 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03528593666564237</v>
+        <v>0.04988328848184409</v>
       </c>
       <c r="E4">
-        <v>0.06424253025407388</v>
+        <v>0.07000401020138369</v>
       </c>
       <c r="F4">
-        <v>0.4470500820929673</v>
+        <v>0.3360009134340134</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.02445535884351198</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01402715727631138</v>
       </c>
       <c r="I4">
-        <v>0.01004406169478477</v>
+        <v>0.03234376884128307</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0127432822534695</v>
+        <v>0.03421934393457213</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02365514701520149</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.001037573127988074</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.01412041767665762</v>
       </c>
       <c r="P4">
-        <v>0.258147883117949</v>
+        <v>0.2047407026575661</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.06180012029420862</v>
+        <v>0.06830688201614321</v>
       </c>
       <c r="S4">
-        <v>0.1106861036269045</v>
+        <v>0.1022757003310224</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.01400824204286441</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.007657359152643557</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.003264134966993256</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1007,25 +1007,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5877934817335663</v>
+        <v>0.4380071043452757</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00645876020859655</v>
       </c>
       <c r="G5">
-        <v>0.2656476074873926</v>
+        <v>0.2114089636925653</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.02367331570909882</v>
+        <v>0.04120369649483067</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01787193087010551</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.01388636553372598</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1034,31 +1034,31 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.00514740015743584</v>
+        <v>0.02817252535933436</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.02358377239963174</v>
       </c>
       <c r="Q5">
-        <v>0.07322253017715197</v>
+        <v>0.07605672664937278</v>
       </c>
       <c r="R5">
-        <v>0.0004395368869425281</v>
+        <v>0.02486100362702198</v>
       </c>
       <c r="S5">
-        <v>0.02828819086197664</v>
+        <v>0.04444981017371454</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.01206184682424093</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.01095281127191622</v>
+        <v>0.03225606474143606</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.004835125714519253</v>
+        <v>0.02795287080593106</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.0007109193021792769</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.001057638972037749</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3090278454203659</v>
+        <v>0.23857682384639</v>
       </c>
       <c r="E6">
-        <v>0.135416510965393</v>
+        <v>0.1183177961080697</v>
       </c>
       <c r="F6">
-        <v>0.08493473292520648</v>
+        <v>0.08334951731064449</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.1010304474951775</v>
+        <v>0.09449887568067798</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1135,37 +1135,37 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.01575449228033055</v>
+        <v>0.03542897972147265</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0197009116047755</v>
       </c>
       <c r="N6">
-        <v>0.03063074442302168</v>
+        <v>0.04573362731079309</v>
       </c>
       <c r="O6">
-        <v>0.003095285447982642</v>
+        <v>0.02666005970610753</v>
       </c>
       <c r="P6">
-        <v>0.02707991668080903</v>
+        <v>0.04327400050540442</v>
       </c>
       <c r="Q6">
-        <v>0.07821856333466505</v>
+        <v>0.07869728635107162</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.209511555430271</v>
+        <v>0.1696427746041301</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.01757004225717736</v>
       </c>
       <c r="U6">
-        <v>0.005299905596777094</v>
+        <v>0.02818718048113442</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.0003621245121511873</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1347,103 +1347,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00846908235109697</v>
       </c>
       <c r="E2">
-        <v>0.3742569842391381</v>
+        <v>0.3273217696353655</v>
       </c>
       <c r="F2">
-        <v>0.6074287504928597</v>
+        <v>0.5351082908182954</v>
       </c>
       <c r="G2">
-        <v>0.6877081656674081</v>
+        <v>0.6225337458097341</v>
       </c>
       <c r="H2">
-        <v>0.6877081656674081</v>
+        <v>0.6225337458097341</v>
       </c>
       <c r="I2">
-        <v>0.772908540562125</v>
+        <v>0.7138331157120512</v>
       </c>
       <c r="J2">
-        <v>0.772908540562125</v>
+        <v>0.7138331157120512</v>
       </c>
       <c r="K2">
-        <v>0.772908540562125</v>
+        <v>0.7371821622804592</v>
       </c>
       <c r="L2">
-        <v>0.772908540562125</v>
+        <v>0.7442860881431047</v>
       </c>
       <c r="M2">
-        <v>0.772908540562125</v>
+        <v>0.7442860881431047</v>
       </c>
       <c r="N2">
-        <v>0.772908540562125</v>
+        <v>0.7442860881431047</v>
       </c>
       <c r="O2">
-        <v>0.772908540562125</v>
+        <v>0.7442860881431047</v>
       </c>
       <c r="P2">
-        <v>0.8778115760104089</v>
+        <v>0.8510959346277877</v>
       </c>
       <c r="Q2">
-        <v>0.8778115760104089</v>
+        <v>0.8510959346277877</v>
       </c>
       <c r="R2">
-        <v>0.9999999999999998</v>
+        <v>0.9715133146462347</v>
       </c>
       <c r="S2">
-        <v>0.9999999999999998</v>
+        <v>0.9715133146462347</v>
       </c>
       <c r="T2">
-        <v>0.9999999999999998</v>
+        <v>0.9825984796394128</v>
       </c>
       <c r="U2">
-        <v>0.9999999999999998</v>
+        <v>0.9945306490770824</v>
       </c>
       <c r="V2">
-        <v>0.9999999999999998</v>
+        <v>0.9978323665780504</v>
       </c>
       <c r="W2">
-        <v>0.9999999999999998</v>
+        <v>0.9978323665780504</v>
       </c>
       <c r="X2">
-        <v>0.9999999999999998</v>
+        <v>0.9978323665780504</v>
       </c>
       <c r="Y2">
-        <v>0.9999999999999998</v>
+        <v>0.9978323665780504</v>
       </c>
       <c r="Z2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1457,82 +1457,82 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.4883356517227568</v>
+        <v>0.3767972457842637</v>
       </c>
       <c r="E3">
-        <v>0.5337930958647465</v>
+        <v>0.4341046608390339</v>
       </c>
       <c r="F3">
-        <v>0.7596771674026545</v>
+        <v>0.6215708230597566</v>
       </c>
       <c r="G3">
-        <v>0.7596771674026545</v>
+        <v>0.6215708230597566</v>
       </c>
       <c r="H3">
-        <v>0.7954063907105828</v>
+        <v>0.6718603547001424</v>
       </c>
       <c r="I3">
-        <v>0.7954063907105828</v>
+        <v>0.6861666888156882</v>
       </c>
       <c r="J3">
-        <v>0.8015123821458116</v>
+        <v>0.715086188752847</v>
       </c>
       <c r="K3">
-        <v>0.8015123821458116</v>
+        <v>0.715086188752847</v>
       </c>
       <c r="L3">
-        <v>0.8015123821458116</v>
+        <v>0.715086188752847</v>
       </c>
       <c r="M3">
-        <v>0.8078661477001721</v>
+        <v>0.7441844315362908</v>
       </c>
       <c r="N3">
-        <v>0.8078661477001721</v>
+        <v>0.7441844315362908</v>
       </c>
       <c r="O3">
-        <v>0.882125983017354</v>
+        <v>0.8222697284638978</v>
       </c>
       <c r="P3">
-        <v>0.9295636962102383</v>
+        <v>0.8810056983968255</v>
       </c>
       <c r="Q3">
-        <v>0.9731698339437348</v>
+        <v>0.936977591493293</v>
       </c>
       <c r="R3">
-        <v>0.9731698339437348</v>
+        <v>0.9378071288832823</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.981676931021698</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.981676931021698</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.9934586755706708</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0.9934586755706708</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.9934586755706708</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0.995795390409969</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.995795390409969</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.995795390409969</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.995795390409969</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.995795390409969</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.995795390409969</v>
       </c>
       <c r="AD3">
         <v>1</v>
@@ -1567,103 +1567,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03528593666564237</v>
+        <v>0.04988328848184409</v>
       </c>
       <c r="E4">
-        <v>0.09952846691971626</v>
+        <v>0.1198872986832278</v>
       </c>
       <c r="F4">
-        <v>0.5465785490126835</v>
+        <v>0.4558882121172412</v>
       </c>
       <c r="G4">
-        <v>0.5465785490126835</v>
+        <v>0.4803435709607532</v>
       </c>
       <c r="H4">
-        <v>0.5465785490126835</v>
+        <v>0.4943707282370646</v>
       </c>
       <c r="I4">
-        <v>0.5566226107074683</v>
+        <v>0.5267144970783476</v>
       </c>
       <c r="J4">
-        <v>0.5566226107074683</v>
+        <v>0.5267144970783476</v>
       </c>
       <c r="K4">
-        <v>0.5693658929609379</v>
+        <v>0.5609338410129198</v>
       </c>
       <c r="L4">
-        <v>0.5693658929609379</v>
+        <v>0.5609338410129198</v>
       </c>
       <c r="M4">
-        <v>0.5693658929609379</v>
+        <v>0.5845889880281212</v>
       </c>
       <c r="N4">
-        <v>0.5693658929609379</v>
+        <v>0.5856265611561092</v>
       </c>
       <c r="O4">
-        <v>0.5693658929609379</v>
+        <v>0.5997469788327668</v>
       </c>
       <c r="P4">
-        <v>0.8275137760788869</v>
+        <v>0.804487681490333</v>
       </c>
       <c r="Q4">
-        <v>0.8275137760788869</v>
+        <v>0.804487681490333</v>
       </c>
       <c r="R4">
-        <v>0.8893138963730955</v>
+        <v>0.8727945635064762</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.9750702638374986</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.9750702638374986</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.9890785058803631</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.9890785058803631</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.9890785058803631</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9890785058803631</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.9890785058803631</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9890785058803631</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9890785058803631</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9890785058803631</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9890785058803631</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9890785058803631</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9967358650330066</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1680,82 +1680,82 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.5877934817335663</v>
+        <v>0.4380071043452757</v>
       </c>
       <c r="F5">
-        <v>0.5877934817335663</v>
+        <v>0.4444658645538722</v>
       </c>
       <c r="G5">
-        <v>0.8534410892209588</v>
+        <v>0.6558748282464375</v>
       </c>
       <c r="H5">
-        <v>0.8534410892209588</v>
+        <v>0.6558748282464375</v>
       </c>
       <c r="I5">
-        <v>0.8771144049300577</v>
+        <v>0.6970785247412682</v>
       </c>
       <c r="J5">
-        <v>0.8771144049300577</v>
+        <v>0.7149504556113737</v>
       </c>
       <c r="K5">
-        <v>0.8771144049300577</v>
+        <v>0.7288368211450997</v>
       </c>
       <c r="L5">
-        <v>0.8771144049300577</v>
+        <v>0.7288368211450997</v>
       </c>
       <c r="M5">
-        <v>0.8771144049300577</v>
+        <v>0.7288368211450997</v>
       </c>
       <c r="N5">
-        <v>0.8822618050874935</v>
+        <v>0.7570093465044341</v>
       </c>
       <c r="O5">
-        <v>0.8822618050874935</v>
+        <v>0.7570093465044341</v>
       </c>
       <c r="P5">
-        <v>0.8822618050874935</v>
+        <v>0.7805931189040658</v>
       </c>
       <c r="Q5">
-        <v>0.9554843352646455</v>
+        <v>0.8566498455534386</v>
       </c>
       <c r="R5">
-        <v>0.955923872151588</v>
+        <v>0.8815108491804606</v>
       </c>
       <c r="S5">
-        <v>0.9842120630135647</v>
+        <v>0.9259606593541752</v>
       </c>
       <c r="T5">
-        <v>0.9842120630135647</v>
+        <v>0.9380225061784161</v>
       </c>
       <c r="U5">
-        <v>0.9842120630135647</v>
+        <v>0.9380225061784161</v>
       </c>
       <c r="V5">
-        <v>0.9951648742854808</v>
+        <v>0.9702785709198521</v>
       </c>
       <c r="W5">
-        <v>0.9951648742854808</v>
+        <v>0.9702785709198521</v>
       </c>
       <c r="X5">
-        <v>0.9951648742854808</v>
+        <v>0.9702785709198521</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.9982314417257832</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0.9982314417257832</v>
       </c>
       <c r="AA5">
-        <v>1</v>
+        <v>0.9982314417257832</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0.9989423610279624</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0.9989423610279624</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0.9989423610279624</v>
       </c>
       <c r="AE5">
         <v>1</v>
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3090278454203659</v>
+        <v>0.23857682384639</v>
       </c>
       <c r="E6">
-        <v>0.4444443563857589</v>
+        <v>0.3568946199544597</v>
       </c>
       <c r="F6">
-        <v>0.5293790893109653</v>
+        <v>0.4402441372651042</v>
       </c>
       <c r="G6">
-        <v>0.5293790893109653</v>
+        <v>0.4402441372651042</v>
       </c>
       <c r="H6">
-        <v>0.6304095368061429</v>
+        <v>0.5347430129457822</v>
       </c>
       <c r="I6">
-        <v>0.6304095368061429</v>
+        <v>0.5347430129457822</v>
       </c>
       <c r="J6">
-        <v>0.6304095368061429</v>
+        <v>0.5347430129457822</v>
       </c>
       <c r="K6">
-        <v>0.6461640290864734</v>
+        <v>0.5701719926672548</v>
       </c>
       <c r="L6">
-        <v>0.6461640290864734</v>
+        <v>0.5701719926672548</v>
       </c>
       <c r="M6">
-        <v>0.6461640290864734</v>
+        <v>0.5898729042720303</v>
       </c>
       <c r="N6">
-        <v>0.6767947735094951</v>
+        <v>0.6356065315828234</v>
       </c>
       <c r="O6">
-        <v>0.6798900589574778</v>
+        <v>0.662266591288931</v>
       </c>
       <c r="P6">
-        <v>0.7069699756382868</v>
+        <v>0.7055405917943354</v>
       </c>
       <c r="Q6">
-        <v>0.7851885389729518</v>
+        <v>0.784237878145407</v>
       </c>
       <c r="R6">
-        <v>0.7851885389729518</v>
+        <v>0.784237878145407</v>
       </c>
       <c r="S6">
-        <v>0.9947000944032228</v>
+        <v>0.9538806527495372</v>
       </c>
       <c r="T6">
-        <v>0.9947000944032228</v>
+        <v>0.9714506950067145</v>
       </c>
       <c r="U6">
-        <v>0.9999999999999999</v>
+        <v>0.999637875487849</v>
       </c>
       <c r="V6">
-        <v>0.9999999999999999</v>
+        <v>0.999637875487849</v>
       </c>
       <c r="W6">
-        <v>0.9999999999999999</v>
+        <v>0.999637875487849</v>
       </c>
       <c r="X6">
-        <v>0.9999999999999999</v>
+        <v>0.999637875487849</v>
       </c>
       <c r="Y6">
-        <v>0.9999999999999999</v>
+        <v>0.999637875487849</v>
       </c>
       <c r="Z6">
-        <v>0.9999999999999999</v>
+        <v>0.999637875487849</v>
       </c>
       <c r="AA6">
-        <v>0.9999999999999999</v>
+        <v>0.999637875487849</v>
       </c>
       <c r="AB6">
-        <v>0.9999999999999999</v>
+        <v>0.999637875487849</v>
       </c>
       <c r="AC6">
-        <v>0.9999999999999999</v>
+        <v>0.999637875487849</v>
       </c>
       <c r="AD6">
-        <v>0.9999999999999999</v>
+        <v>0.999637875487849</v>
       </c>
       <c r="AE6">
-        <v>0.9999999999999999</v>
+        <v>0.999637875487849</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6074287504928597</v>
+        <v>0.5351082908182954</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -1992,16 +1992,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.6215708230597566</v>
+      </c>
+      <c r="G3">
         <v>4</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5337930958647465</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -2033,16 +2033,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5465785490126835</v>
+        <v>0.5267144970783476</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>16</v>
@@ -2074,16 +2074,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.6558748282464375</v>
+      </c>
+      <c r="G5">
         <v>4</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5877934817335663</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -2115,16 +2115,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5293790893109653</v>
+        <v>0.5347430129457822</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.772908540562125</v>
+        <v>0.7138331157120512</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -2251,16 +2251,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7596771674026545</v>
+        <v>0.715086188752847</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8275137760788869</v>
+        <v>0.804487681490333</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -2333,16 +2333,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8534410892209588</v>
+        <v>0.7149504556113737</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7069699756382868</v>
+        <v>0.7055405917943354</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8778115760104089</v>
+        <v>0.8510959346277877</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -2510,16 +2510,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8015123821458116</v>
+        <v>0.8222697284638978</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8275137760788869</v>
+        <v>0.804487681490333</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -2592,16 +2592,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8534410892209588</v>
+        <v>0.8566498455534386</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9947000944032228</v>
+        <v>0.9538806527495372</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9999999999999998</v>
+        <v>0.9715133146462347</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -2769,16 +2769,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.936977591493293</v>
+      </c>
+      <c r="G3">
         <v>15</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.9295636962102383</v>
-      </c>
-      <c r="G3">
-        <v>14</v>
       </c>
       <c r="H3">
         <v>16</v>
@@ -2816,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.9750702638374986</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -2851,16 +2851,16 @@
         <v>2</v>
       </c>
       <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9259606593541752</v>
+      </c>
+      <c r="G5">
         <v>16</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9554843352646455</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
       </c>
       <c r="H5">
         <v>16</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9947000944032228</v>
+        <v>0.9538806527495372</v>
       </c>
       <c r="G6">
         <v>17</v>
